--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20532" windowHeight="9156" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20530" windowHeight="9160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="20">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -207,6 +207,13 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マイページから各タブ</t>
+    <rPh sb="7" eb="8">
+      <t>カク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -400,19 +407,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -421,10 +422,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1724,6 +1731,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="28435300"/>
+          <a:ext cx="7931150" cy="5391150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>396008</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="203200" y="14909800"/>
+          <a:ext cx="9438408" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1996,7 +2079,7 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2012,58 +2095,58 @@
       <selection sqref="A1:O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="8.796875" customWidth="1"/>
-    <col min="4" max="6" width="9.796875" customWidth="1"/>
-    <col min="14" max="14" width="9.09765625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="6" width="9.83203125" customWidth="1"/>
+    <col min="14" max="14" width="9.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="7" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="7" t="s">
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2080,7 +2163,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2097,7 +2180,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2114,7 +2197,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2131,7 +2214,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2148,7 +2231,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2165,7 +2248,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2182,7 +2265,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2199,7 +2282,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2216,7 +2299,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2233,7 +2316,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2250,7 +2333,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2267,7 +2350,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2284,7 +2367,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2301,7 +2384,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2318,7 +2401,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2335,7 +2418,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2352,7 +2435,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2369,7 +2452,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2386,7 +2469,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2403,7 +2486,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2420,7 +2503,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2437,7 +2520,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2454,7 +2537,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2471,7 +2554,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2488,7 +2571,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2505,7 +2588,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2542,57 +2625,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q298" sqref="Q298"/>
+    <sheetView topLeftCell="A299" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31:L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="7" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="7" t="s">
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2609,7 +2692,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2626,7 +2709,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2643,7 +2726,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2660,7 +2743,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2677,7 +2760,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2694,7 +2777,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2711,7 +2794,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2728,7 +2811,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2745,7 +2828,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2762,7 +2845,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2779,7 +2862,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2796,7 +2879,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2813,7 +2896,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2830,7 +2913,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2847,7 +2930,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2864,7 +2947,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2881,7 +2964,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2898,7 +2981,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2915,7 +2998,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2932,7 +3015,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2949,7 +3032,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2966,7 +3049,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2983,7 +3066,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3000,7 +3083,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3017,7 +3100,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3034,7 +3117,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3051,7 +3134,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -3068,51 +3151,51 @@
       <c r="N30" s="5"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="10" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="10" t="s">
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="7" t="s">
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N31" s="8"/>
-      <c r="O31" s="9"/>
-    </row>
-    <row r="32" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="7" t="s">
+      <c r="N31" s="14"/>
+      <c r="O31" s="15"/>
+    </row>
+    <row r="32" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="8"/>
-      <c r="O32" s="9"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N32" s="14"/>
+      <c r="O32" s="15"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3129,7 +3212,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3146,7 +3229,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3163,7 +3246,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3180,7 +3263,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3197,7 +3280,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3214,7 +3297,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3231,7 +3314,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3248,7 +3331,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3265,7 +3348,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3282,7 +3365,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3299,7 +3382,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3316,7 +3399,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3333,7 +3416,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3350,7 +3433,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3367,7 +3450,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3384,7 +3467,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3401,7 +3484,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3418,7 +3501,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3435,7 +3518,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3452,7 +3535,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3469,7 +3552,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3486,7 +3569,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3503,7 +3586,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3520,7 +3603,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3537,7 +3620,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3554,7 +3637,7 @@
       <c r="N58" s="2"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3571,7 +3654,7 @@
       <c r="N59" s="2"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -3588,51 +3671,51 @@
       <c r="N60" s="5"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="10" t="s">
+    <row r="61" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="10" t="s">
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="10" t="s">
+      <c r="E61" s="8"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="7" t="s">
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N61" s="8"/>
-      <c r="O61" s="9"/>
-    </row>
-    <row r="62" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="12"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="7" t="s">
+      <c r="N61" s="14"/>
+      <c r="O61" s="15"/>
+    </row>
+    <row r="62" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="10"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="8"/>
-      <c r="O62" s="9"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N62" s="14"/>
+      <c r="O62" s="15"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3649,7 +3732,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3666,7 +3749,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3683,7 +3766,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3700,7 +3783,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3717,7 +3800,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3734,7 +3817,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3751,7 +3834,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3768,7 +3851,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3785,7 +3868,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3802,7 +3885,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3819,7 +3902,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3836,7 +3919,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3853,7 +3936,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3870,7 +3953,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3887,7 +3970,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3904,7 +3987,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3921,7 +4004,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3938,7 +4021,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3955,7 +4038,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3972,7 +4055,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3989,7 +4072,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4006,7 +4089,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4023,7 +4106,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4040,7 +4123,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4057,7 +4140,7 @@
       <c r="N87" s="2"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4074,7 +4157,7 @@
       <c r="N88" s="2"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4091,7 +4174,7 @@
       <c r="N89" s="2"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -4108,51 +4191,51 @@
       <c r="N90" s="5"/>
       <c r="O90" s="6"/>
     </row>
-    <row r="91" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A91" s="10" t="s">
+    <row r="91" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A91" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="10" t="s">
+      <c r="B91" s="8"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E91" s="11"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="10" t="s">
+      <c r="E91" s="8"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="7" t="s">
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N91" s="8"/>
-      <c r="O91" s="9"/>
-    </row>
-    <row r="92" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A92" s="12"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="13"/>
-      <c r="L92" s="13"/>
-      <c r="M92" s="7" t="s">
+      <c r="N91" s="14"/>
+      <c r="O91" s="15"/>
+    </row>
+    <row r="92" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A92" s="10"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N92" s="8"/>
-      <c r="O92" s="9"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N92" s="14"/>
+      <c r="O92" s="15"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4169,7 +4252,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4186,7 +4269,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4203,7 +4286,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4220,7 +4303,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4237,7 +4320,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4254,7 +4337,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4271,7 +4354,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4288,7 +4371,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4305,7 +4388,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4322,7 +4405,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4339,7 +4422,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4356,7 +4439,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4373,7 +4456,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4390,7 +4473,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4407,7 +4490,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4424,7 +4507,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4441,7 +4524,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4458,7 +4541,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4475,7 +4558,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4492,7 +4575,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4509,7 +4592,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4526,7 +4609,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4543,7 +4626,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4560,7 +4643,7 @@
       <c r="N116" s="2"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4577,7 +4660,7 @@
       <c r="N117" s="2"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4594,7 +4677,7 @@
       <c r="N118" s="2"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4611,7 +4694,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -4628,51 +4711,51 @@
       <c r="N120" s="5"/>
       <c r="O120" s="6"/>
     </row>
-    <row r="121" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A121" s="10" t="s">
+    <row r="121" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A121" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B121" s="11"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="10" t="s">
+      <c r="B121" s="8"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E121" s="11"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="10" t="s">
+      <c r="E121" s="8"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H121" s="11"/>
-      <c r="I121" s="11"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="11"/>
-      <c r="L121" s="11"/>
-      <c r="M121" s="7" t="s">
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N121" s="8"/>
-      <c r="O121" s="9"/>
-    </row>
-    <row r="122" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A122" s="12"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="13"/>
-      <c r="K122" s="13"/>
-      <c r="L122" s="13"/>
-      <c r="M122" s="7" t="s">
+      <c r="N121" s="14"/>
+      <c r="O121" s="15"/>
+    </row>
+    <row r="122" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A122" s="10"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N122" s="8"/>
-      <c r="O122" s="9"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N122" s="14"/>
+      <c r="O122" s="15"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4689,7 +4772,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4706,7 +4789,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4723,7 +4806,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4740,7 +4823,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4757,7 +4840,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4774,7 +4857,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4791,7 +4874,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4808,7 +4891,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4825,7 +4908,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4842,7 +4925,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4859,7 +4942,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4876,7 +4959,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4893,7 +4976,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4910,7 +4993,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4927,7 +5010,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4944,7 +5027,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4961,7 +5044,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4978,7 +5061,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4995,7 +5078,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5012,7 +5095,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5029,7 +5112,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5046,7 +5129,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5063,7 +5146,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5080,7 +5163,7 @@
       <c r="N146" s="2"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5097,7 +5180,7 @@
       <c r="N147" s="2"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5114,7 +5197,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5131,7 +5214,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -5148,51 +5231,51 @@
       <c r="N150" s="5"/>
       <c r="O150" s="6"/>
     </row>
-    <row r="151" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A151" s="10" t="s">
+    <row r="151" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A151" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B151" s="11"/>
-      <c r="C151" s="14"/>
-      <c r="D151" s="10" t="s">
+      <c r="B151" s="8"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E151" s="11"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="10" t="s">
+      <c r="E151" s="8"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H151" s="11"/>
-      <c r="I151" s="11"/>
-      <c r="J151" s="11"/>
-      <c r="K151" s="11"/>
-      <c r="L151" s="11"/>
-      <c r="M151" s="7" t="s">
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
+      <c r="L151" s="8"/>
+      <c r="M151" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N151" s="8"/>
-      <c r="O151" s="9"/>
-    </row>
-    <row r="152" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A152" s="12"/>
-      <c r="B152" s="13"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="13"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="13"/>
-      <c r="I152" s="13"/>
-      <c r="J152" s="13"/>
-      <c r="K152" s="13"/>
-      <c r="L152" s="13"/>
-      <c r="M152" s="7" t="s">
+      <c r="N151" s="14"/>
+      <c r="O151" s="15"/>
+    </row>
+    <row r="152" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A152" s="10"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N152" s="8"/>
-      <c r="O152" s="9"/>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N152" s="14"/>
+      <c r="O152" s="15"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -5209,7 +5292,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5226,7 +5309,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5243,7 +5326,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5260,7 +5343,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5277,7 +5360,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5294,7 +5377,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5311,7 +5394,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -5328,7 +5411,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -5345,7 +5428,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5362,7 +5445,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5379,7 +5462,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5396,7 +5479,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5413,7 +5496,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5430,7 +5513,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5447,7 +5530,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5464,7 +5547,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5481,7 +5564,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5498,7 +5581,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5515,7 +5598,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5532,7 +5615,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -5549,7 +5632,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5566,7 +5649,7 @@
       <c r="N174" s="2"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -5583,7 +5666,7 @@
       <c r="N175" s="2"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -5600,7 +5683,7 @@
       <c r="N176" s="2"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -5617,7 +5700,7 @@
       <c r="N177" s="2"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -5634,7 +5717,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -5651,7 +5734,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -5668,51 +5751,51 @@
       <c r="N180" s="5"/>
       <c r="O180" s="6"/>
     </row>
-    <row r="181" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A181" s="10" t="s">
+    <row r="181" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A181" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B181" s="11"/>
-      <c r="C181" s="14"/>
-      <c r="D181" s="10" t="s">
+      <c r="B181" s="8"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E181" s="11"/>
-      <c r="F181" s="14"/>
-      <c r="G181" s="10" t="s">
+      <c r="E181" s="8"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H181" s="11"/>
-      <c r="I181" s="11"/>
-      <c r="J181" s="11"/>
-      <c r="K181" s="11"/>
-      <c r="L181" s="11"/>
-      <c r="M181" s="7" t="s">
+      <c r="H181" s="8"/>
+      <c r="I181" s="8"/>
+      <c r="J181" s="8"/>
+      <c r="K181" s="8"/>
+      <c r="L181" s="8"/>
+      <c r="M181" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N181" s="8"/>
-      <c r="O181" s="9"/>
-    </row>
-    <row r="182" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A182" s="12"/>
-      <c r="B182" s="13"/>
-      <c r="C182" s="15"/>
-      <c r="D182" s="12"/>
-      <c r="E182" s="13"/>
-      <c r="F182" s="15"/>
-      <c r="G182" s="12"/>
-      <c r="H182" s="13"/>
-      <c r="I182" s="13"/>
-      <c r="J182" s="13"/>
-      <c r="K182" s="13"/>
-      <c r="L182" s="13"/>
-      <c r="M182" s="7" t="s">
+      <c r="N181" s="14"/>
+      <c r="O181" s="15"/>
+    </row>
+    <row r="182" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A182" s="10"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="10"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="11"/>
+      <c r="J182" s="11"/>
+      <c r="K182" s="11"/>
+      <c r="L182" s="11"/>
+      <c r="M182" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N182" s="8"/>
-      <c r="O182" s="9"/>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N182" s="14"/>
+      <c r="O182" s="15"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -5729,7 +5812,7 @@
       <c r="N183" s="2"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -5746,7 +5829,7 @@
       <c r="N184" s="2"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -5763,7 +5846,7 @@
       <c r="N185" s="2"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -5780,7 +5863,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -5797,7 +5880,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -5814,7 +5897,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -5831,7 +5914,7 @@
       <c r="N189" s="2"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -5848,7 +5931,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -5865,7 +5948,7 @@
       <c r="N191" s="2"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -5882,7 +5965,7 @@
       <c r="N192" s="2"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -5899,7 +5982,7 @@
       <c r="N193" s="2"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -5916,7 +5999,7 @@
       <c r="N194" s="2"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -5933,7 +6016,7 @@
       <c r="N195" s="2"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -5950,7 +6033,7 @@
       <c r="N196" s="2"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -5967,7 +6050,7 @@
       <c r="N197" s="2"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -5984,7 +6067,7 @@
       <c r="N198" s="2"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6001,7 +6084,7 @@
       <c r="N199" s="2"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6018,7 +6101,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6035,7 +6118,7 @@
       <c r="N201" s="2"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6052,7 +6135,7 @@
       <c r="N202" s="2"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6069,7 +6152,7 @@
       <c r="N203" s="2"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6086,7 +6169,7 @@
       <c r="N204" s="2"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -6103,7 +6186,7 @@
       <c r="N205" s="2"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6120,7 +6203,7 @@
       <c r="N206" s="2"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6137,7 +6220,7 @@
       <c r="N207" s="2"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6154,7 +6237,7 @@
       <c r="N208" s="2"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6171,7 +6254,7 @@
       <c r="N209" s="2"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A210" s="4"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -6188,51 +6271,51 @@
       <c r="N210" s="5"/>
       <c r="O210" s="6"/>
     </row>
-    <row r="211" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A211" s="10" t="s">
+    <row r="211" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A211" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B211" s="11"/>
-      <c r="C211" s="14"/>
-      <c r="D211" s="10" t="s">
+      <c r="B211" s="8"/>
+      <c r="C211" s="9"/>
+      <c r="D211" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E211" s="11"/>
-      <c r="F211" s="14"/>
-      <c r="G211" s="10" t="s">
+      <c r="E211" s="8"/>
+      <c r="F211" s="9"/>
+      <c r="G211" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H211" s="11"/>
-      <c r="I211" s="11"/>
-      <c r="J211" s="11"/>
-      <c r="K211" s="11"/>
-      <c r="L211" s="11"/>
-      <c r="M211" s="7" t="s">
+      <c r="H211" s="8"/>
+      <c r="I211" s="8"/>
+      <c r="J211" s="8"/>
+      <c r="K211" s="8"/>
+      <c r="L211" s="8"/>
+      <c r="M211" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N211" s="8"/>
-      <c r="O211" s="9"/>
-    </row>
-    <row r="212" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A212" s="12"/>
-      <c r="B212" s="13"/>
-      <c r="C212" s="15"/>
-      <c r="D212" s="12"/>
-      <c r="E212" s="13"/>
-      <c r="F212" s="15"/>
-      <c r="G212" s="12"/>
-      <c r="H212" s="13"/>
-      <c r="I212" s="13"/>
-      <c r="J212" s="13"/>
-      <c r="K212" s="13"/>
-      <c r="L212" s="13"/>
-      <c r="M212" s="7" t="s">
+      <c r="N211" s="14"/>
+      <c r="O211" s="15"/>
+    </row>
+    <row r="212" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A212" s="10"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="12"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="11"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="10"/>
+      <c r="H212" s="11"/>
+      <c r="I212" s="11"/>
+      <c r="J212" s="11"/>
+      <c r="K212" s="11"/>
+      <c r="L212" s="11"/>
+      <c r="M212" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N212" s="8"/>
-      <c r="O212" s="9"/>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N212" s="14"/>
+      <c r="O212" s="15"/>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6249,7 +6332,7 @@
       <c r="N213" s="2"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6266,7 +6349,7 @@
       <c r="N214" s="2"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6283,7 +6366,7 @@
       <c r="N215" s="2"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6300,7 +6383,7 @@
       <c r="N216" s="2"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -6317,7 +6400,7 @@
       <c r="N217" s="2"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -6334,7 +6417,7 @@
       <c r="N218" s="2"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -6351,7 +6434,7 @@
       <c r="N219" s="2"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -6368,7 +6451,7 @@
       <c r="N220" s="2"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -6385,7 +6468,7 @@
       <c r="N221" s="2"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -6402,7 +6485,7 @@
       <c r="N222" s="2"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -6419,7 +6502,7 @@
       <c r="N223" s="2"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -6436,7 +6519,7 @@
       <c r="N224" s="2"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -6453,7 +6536,7 @@
       <c r="N225" s="2"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -6470,7 +6553,7 @@
       <c r="N226" s="2"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -6487,7 +6570,7 @@
       <c r="N227" s="2"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -6504,7 +6587,7 @@
       <c r="N228" s="2"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -6521,7 +6604,7 @@
       <c r="N229" s="2"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -6538,7 +6621,7 @@
       <c r="N230" s="2"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -6555,7 +6638,7 @@
       <c r="N231" s="2"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -6572,7 +6655,7 @@
       <c r="N232" s="2"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -6589,7 +6672,7 @@
       <c r="N233" s="2"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -6606,7 +6689,7 @@
       <c r="N234" s="2"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -6623,7 +6706,7 @@
       <c r="N235" s="2"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -6640,7 +6723,7 @@
       <c r="N236" s="2"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -6657,7 +6740,7 @@
       <c r="N237" s="2"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -6674,7 +6757,7 @@
       <c r="N238" s="2"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -6691,7 +6774,7 @@
       <c r="N239" s="2"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A240" s="4"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -6708,51 +6791,51 @@
       <c r="N240" s="5"/>
       <c r="O240" s="6"/>
     </row>
-    <row r="241" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A241" s="10" t="s">
+    <row r="241" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A241" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B241" s="11"/>
-      <c r="C241" s="14"/>
-      <c r="D241" s="10" t="s">
+      <c r="B241" s="8"/>
+      <c r="C241" s="9"/>
+      <c r="D241" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E241" s="11"/>
-      <c r="F241" s="14"/>
-      <c r="G241" s="10" t="s">
+      <c r="E241" s="8"/>
+      <c r="F241" s="9"/>
+      <c r="G241" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H241" s="11"/>
-      <c r="I241" s="11"/>
-      <c r="J241" s="11"/>
-      <c r="K241" s="11"/>
-      <c r="L241" s="11"/>
-      <c r="M241" s="7" t="s">
+      <c r="H241" s="8"/>
+      <c r="I241" s="8"/>
+      <c r="J241" s="8"/>
+      <c r="K241" s="8"/>
+      <c r="L241" s="8"/>
+      <c r="M241" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N241" s="8"/>
-      <c r="O241" s="9"/>
-    </row>
-    <row r="242" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A242" s="12"/>
-      <c r="B242" s="13"/>
-      <c r="C242" s="15"/>
-      <c r="D242" s="12"/>
-      <c r="E242" s="13"/>
-      <c r="F242" s="15"/>
-      <c r="G242" s="12"/>
-      <c r="H242" s="13"/>
-      <c r="I242" s="13"/>
-      <c r="J242" s="13"/>
-      <c r="K242" s="13"/>
-      <c r="L242" s="13"/>
-      <c r="M242" s="7" t="s">
+      <c r="N241" s="14"/>
+      <c r="O241" s="15"/>
+    </row>
+    <row r="242" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A242" s="10"/>
+      <c r="B242" s="11"/>
+      <c r="C242" s="12"/>
+      <c r="D242" s="10"/>
+      <c r="E242" s="11"/>
+      <c r="F242" s="12"/>
+      <c r="G242" s="10"/>
+      <c r="H242" s="11"/>
+      <c r="I242" s="11"/>
+      <c r="J242" s="11"/>
+      <c r="K242" s="11"/>
+      <c r="L242" s="11"/>
+      <c r="M242" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N242" s="8"/>
-      <c r="O242" s="9"/>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N242" s="14"/>
+      <c r="O242" s="15"/>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -6769,7 +6852,7 @@
       <c r="N243" s="2"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -6786,7 +6869,7 @@
       <c r="N244" s="2"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -6803,7 +6886,7 @@
       <c r="N245" s="2"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -6820,7 +6903,7 @@
       <c r="N246" s="2"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -6837,7 +6920,7 @@
       <c r="N247" s="2"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -6854,7 +6937,7 @@
       <c r="N248" s="2"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -6871,7 +6954,7 @@
       <c r="N249" s="2"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -6888,7 +6971,7 @@
       <c r="N250" s="2"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -6905,7 +6988,7 @@
       <c r="N251" s="2"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -6922,7 +7005,7 @@
       <c r="N252" s="2"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -6939,7 +7022,7 @@
       <c r="N253" s="2"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -6956,7 +7039,7 @@
       <c r="N254" s="2"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -6973,7 +7056,7 @@
       <c r="N255" s="2"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -6990,7 +7073,7 @@
       <c r="N256" s="2"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7007,7 +7090,7 @@
       <c r="N257" s="2"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -7024,7 +7107,7 @@
       <c r="N258" s="2"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -7041,7 +7124,7 @@
       <c r="N259" s="2"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -7058,7 +7141,7 @@
       <c r="N260" s="2"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -7075,7 +7158,7 @@
       <c r="N261" s="2"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -7092,7 +7175,7 @@
       <c r="N262" s="2"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -7109,7 +7192,7 @@
       <c r="N263" s="2"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -7126,7 +7209,7 @@
       <c r="N264" s="2"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -7143,7 +7226,7 @@
       <c r="N265" s="2"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -7160,7 +7243,7 @@
       <c r="N266" s="2"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -7177,7 +7260,7 @@
       <c r="N267" s="2"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -7194,7 +7277,7 @@
       <c r="N268" s="2"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -7211,7 +7294,7 @@
       <c r="N269" s="2"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A270" s="4"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -7228,51 +7311,51 @@
       <c r="N270" s="5"/>
       <c r="O270" s="6"/>
     </row>
-    <row r="271" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A271" s="10" t="s">
+    <row r="271" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A271" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B271" s="11"/>
-      <c r="C271" s="14"/>
-      <c r="D271" s="10" t="s">
+      <c r="B271" s="8"/>
+      <c r="C271" s="9"/>
+      <c r="D271" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E271" s="11"/>
-      <c r="F271" s="14"/>
-      <c r="G271" s="10" t="s">
+      <c r="E271" s="8"/>
+      <c r="F271" s="9"/>
+      <c r="G271" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H271" s="11"/>
-      <c r="I271" s="11"/>
-      <c r="J271" s="11"/>
-      <c r="K271" s="11"/>
-      <c r="L271" s="11"/>
-      <c r="M271" s="7" t="s">
+      <c r="H271" s="8"/>
+      <c r="I271" s="8"/>
+      <c r="J271" s="8"/>
+      <c r="K271" s="8"/>
+      <c r="L271" s="8"/>
+      <c r="M271" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N271" s="8"/>
-      <c r="O271" s="9"/>
-    </row>
-    <row r="272" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A272" s="12"/>
-      <c r="B272" s="13"/>
-      <c r="C272" s="15"/>
-      <c r="D272" s="12"/>
-      <c r="E272" s="13"/>
-      <c r="F272" s="15"/>
-      <c r="G272" s="12"/>
-      <c r="H272" s="13"/>
-      <c r="I272" s="13"/>
-      <c r="J272" s="13"/>
-      <c r="K272" s="13"/>
-      <c r="L272" s="13"/>
-      <c r="M272" s="7" t="s">
+      <c r="N271" s="14"/>
+      <c r="O271" s="15"/>
+    </row>
+    <row r="272" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A272" s="10"/>
+      <c r="B272" s="11"/>
+      <c r="C272" s="12"/>
+      <c r="D272" s="10"/>
+      <c r="E272" s="11"/>
+      <c r="F272" s="12"/>
+      <c r="G272" s="10"/>
+      <c r="H272" s="11"/>
+      <c r="I272" s="11"/>
+      <c r="J272" s="11"/>
+      <c r="K272" s="11"/>
+      <c r="L272" s="11"/>
+      <c r="M272" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N272" s="8"/>
-      <c r="O272" s="9"/>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N272" s="14"/>
+      <c r="O272" s="15"/>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -7289,7 +7372,7 @@
       <c r="N273" s="2"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -7306,7 +7389,7 @@
       <c r="N274" s="2"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -7323,7 +7406,7 @@
       <c r="N275" s="2"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -7340,7 +7423,7 @@
       <c r="N276" s="2"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -7357,7 +7440,7 @@
       <c r="N277" s="2"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -7374,7 +7457,7 @@
       <c r="N278" s="2"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -7391,7 +7474,7 @@
       <c r="N279" s="2"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -7408,7 +7491,7 @@
       <c r="N280" s="2"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -7425,7 +7508,7 @@
       <c r="N281" s="2"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -7442,7 +7525,7 @@
       <c r="N282" s="2"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -7459,7 +7542,7 @@
       <c r="N283" s="2"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -7476,7 +7559,7 @@
       <c r="N284" s="2"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -7493,7 +7576,7 @@
       <c r="N285" s="2"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -7510,7 +7593,7 @@
       <c r="N286" s="2"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -7527,7 +7610,7 @@
       <c r="N287" s="2"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -7544,7 +7627,7 @@
       <c r="N288" s="2"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -7561,7 +7644,7 @@
       <c r="N289" s="2"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -7578,7 +7661,7 @@
       <c r="N290" s="2"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -7595,7 +7678,7 @@
       <c r="N291" s="2"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -7612,7 +7695,7 @@
       <c r="N292" s="2"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -7629,7 +7712,7 @@
       <c r="N293" s="2"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -7646,7 +7729,7 @@
       <c r="N294" s="2"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -7663,7 +7746,7 @@
       <c r="N295" s="2"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -7680,7 +7763,7 @@
       <c r="N296" s="2"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -7697,7 +7780,7 @@
       <c r="N297" s="2"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -7714,7 +7797,7 @@
       <c r="N298" s="2"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -7731,7 +7814,7 @@
       <c r="N299" s="2"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A300" s="4"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -7750,56 +7833,56 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A31:C32"/>
+    <mergeCell ref="D31:F32"/>
+    <mergeCell ref="G31:L32"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A61:C62"/>
+    <mergeCell ref="D61:F62"/>
+    <mergeCell ref="G61:L62"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="A91:C92"/>
+    <mergeCell ref="D91:F92"/>
+    <mergeCell ref="G91:L92"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="A121:C122"/>
+    <mergeCell ref="D121:F122"/>
+    <mergeCell ref="G121:L122"/>
+    <mergeCell ref="M121:O121"/>
+    <mergeCell ref="M122:O122"/>
+    <mergeCell ref="A151:C152"/>
+    <mergeCell ref="D151:F152"/>
+    <mergeCell ref="G151:L152"/>
+    <mergeCell ref="M151:O151"/>
+    <mergeCell ref="M152:O152"/>
+    <mergeCell ref="A181:C182"/>
+    <mergeCell ref="D181:F182"/>
+    <mergeCell ref="G181:L182"/>
+    <mergeCell ref="M181:O181"/>
+    <mergeCell ref="M182:O182"/>
+    <mergeCell ref="A211:C212"/>
+    <mergeCell ref="D211:F212"/>
+    <mergeCell ref="G211:L212"/>
+    <mergeCell ref="M211:O211"/>
+    <mergeCell ref="M212:O212"/>
+    <mergeCell ref="A241:C242"/>
+    <mergeCell ref="D241:F242"/>
+    <mergeCell ref="G241:L242"/>
+    <mergeCell ref="M241:O241"/>
+    <mergeCell ref="M242:O242"/>
     <mergeCell ref="A271:C272"/>
     <mergeCell ref="D271:F272"/>
     <mergeCell ref="G271:L272"/>
     <mergeCell ref="M271:O271"/>
     <mergeCell ref="M272:O272"/>
-    <mergeCell ref="A241:C242"/>
-    <mergeCell ref="D241:F242"/>
-    <mergeCell ref="G241:L242"/>
-    <mergeCell ref="M241:O241"/>
-    <mergeCell ref="M242:O242"/>
-    <mergeCell ref="A211:C212"/>
-    <mergeCell ref="D211:F212"/>
-    <mergeCell ref="G211:L212"/>
-    <mergeCell ref="M211:O211"/>
-    <mergeCell ref="M212:O212"/>
-    <mergeCell ref="A181:C182"/>
-    <mergeCell ref="D181:F182"/>
-    <mergeCell ref="G181:L182"/>
-    <mergeCell ref="M181:O181"/>
-    <mergeCell ref="M182:O182"/>
-    <mergeCell ref="A151:C152"/>
-    <mergeCell ref="D151:F152"/>
-    <mergeCell ref="G151:L152"/>
-    <mergeCell ref="M151:O151"/>
-    <mergeCell ref="M152:O152"/>
-    <mergeCell ref="A121:C122"/>
-    <mergeCell ref="D121:F122"/>
-    <mergeCell ref="G121:L122"/>
-    <mergeCell ref="M121:O121"/>
-    <mergeCell ref="M122:O122"/>
-    <mergeCell ref="A91:C92"/>
-    <mergeCell ref="D91:F92"/>
-    <mergeCell ref="G91:L92"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="M92:O92"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="D61:F62"/>
-    <mergeCell ref="G61:L62"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="A31:C32"/>
-    <mergeCell ref="D31:F32"/>
-    <mergeCell ref="G31:L32"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7813,57 +7896,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O180"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="S112" sqref="S112"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="Q66" sqref="Q66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="18"/>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="7" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="15"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="7" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -7880,7 +7963,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -7897,7 +7980,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -7914,7 +7997,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -7931,7 +8014,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -7948,7 +8031,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -7965,7 +8048,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -7982,7 +8065,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -7999,7 +8082,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -8016,7 +8099,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -8033,7 +8116,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -8050,7 +8133,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -8067,7 +8150,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -8084,7 +8167,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -8101,7 +8184,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8118,7 +8201,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8135,7 +8218,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -8152,7 +8235,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8169,7 +8252,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8186,7 +8269,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8203,7 +8286,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8220,7 +8303,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8237,7 +8320,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8254,7 +8337,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8271,7 +8354,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8288,7 +8371,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8305,7 +8388,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -8322,7 +8405,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -8339,51 +8422,51 @@
       <c r="N30" s="5"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="7" t="s">
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N31" s="8"/>
-      <c r="O31" s="9"/>
-    </row>
-    <row r="32" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="15"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="15"/>
+    </row>
+    <row r="32" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="19"/>
       <c r="E32" s="20"/>
       <c r="F32" s="21"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="7" t="s">
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="8"/>
-      <c r="O32" s="9"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N32" s="14"/>
+      <c r="O32" s="15"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8400,7 +8483,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8417,7 +8500,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8434,7 +8517,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -8451,7 +8534,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -8468,7 +8551,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -8485,7 +8568,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -8502,7 +8585,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -8519,7 +8602,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -8536,7 +8619,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -8553,7 +8636,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -8570,7 +8653,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -8587,7 +8670,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -8604,7 +8687,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -8621,7 +8704,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -8638,7 +8721,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -8655,7 +8738,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -8672,7 +8755,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -8689,7 +8772,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -8706,7 +8789,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -8723,7 +8806,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -8740,7 +8823,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -8757,7 +8840,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -8774,7 +8857,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -8791,7 +8874,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -8808,7 +8891,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -8825,7 +8908,7 @@
       <c r="N58" s="2"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -8842,7 +8925,7 @@
       <c r="N59" s="2"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -8859,51 +8942,51 @@
       <c r="N60" s="5"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="10" t="s">
+    <row r="61" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="14"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="18"/>
-      <c r="G61" s="10" t="s">
+      <c r="G61" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="7" t="s">
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N61" s="8"/>
-      <c r="O61" s="9"/>
-    </row>
-    <row r="62" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="12"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="15"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="15"/>
+    </row>
+    <row r="62" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="10"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
       <c r="D62" s="19"/>
       <c r="E62" s="20"/>
       <c r="F62" s="21"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="7" t="s">
+      <c r="G62" s="10"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="8"/>
-      <c r="O62" s="9"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N62" s="14"/>
+      <c r="O62" s="15"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -8920,7 +9003,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -8937,7 +9020,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -8954,7 +9037,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -8971,7 +9054,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -8988,7 +9071,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -9005,7 +9088,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -9022,7 +9105,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -9039,7 +9122,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -9056,7 +9139,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -9073,7 +9156,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -9090,7 +9173,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -9107,7 +9190,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -9124,7 +9207,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -9141,7 +9224,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -9158,7 +9241,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -9175,7 +9258,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -9192,7 +9275,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -9209,7 +9292,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -9226,7 +9309,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -9243,7 +9326,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -9260,7 +9343,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -9277,7 +9360,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -9294,7 +9377,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -9311,7 +9394,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -9328,7 +9411,7 @@
       <c r="N87" s="2"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -9345,7 +9428,7 @@
       <c r="N88" s="2"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -9362,7 +9445,7 @@
       <c r="N89" s="2"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -9379,51 +9462,51 @@
       <c r="N90" s="5"/>
       <c r="O90" s="6"/>
     </row>
-    <row r="91" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A91" s="10" t="s">
+    <row r="91" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A91" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="14"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="9"/>
       <c r="D91" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="18"/>
-      <c r="G91" s="10" t="s">
+      <c r="G91" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="7" t="s">
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N91" s="8"/>
-      <c r="O91" s="9"/>
-    </row>
-    <row r="92" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A92" s="12"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="15"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="15"/>
+    </row>
+    <row r="92" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A92" s="10"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="12"/>
       <c r="D92" s="19"/>
       <c r="E92" s="20"/>
       <c r="F92" s="21"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="13"/>
-      <c r="L92" s="13"/>
-      <c r="M92" s="7" t="s">
+      <c r="G92" s="10"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N92" s="8"/>
-      <c r="O92" s="9"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N92" s="14"/>
+      <c r="O92" s="15"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -9440,7 +9523,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -9457,7 +9540,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -9474,7 +9557,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -9491,7 +9574,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -9508,7 +9591,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -9525,7 +9608,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -9542,7 +9625,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -9559,7 +9642,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -9576,7 +9659,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -9593,7 +9676,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -9610,7 +9693,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -9627,7 +9710,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -9644,7 +9727,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -9661,7 +9744,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -9678,7 +9761,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -9695,7 +9778,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -9712,7 +9795,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -9729,7 +9812,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -9746,7 +9829,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -9763,7 +9846,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -9780,7 +9863,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -9797,7 +9880,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -9814,7 +9897,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -9831,7 +9914,7 @@
       <c r="N116" s="2"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -9848,7 +9931,7 @@
       <c r="N117" s="2"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -9865,7 +9948,7 @@
       <c r="N118" s="2"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -9882,7 +9965,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -9899,51 +9982,51 @@
       <c r="N120" s="5"/>
       <c r="O120" s="6"/>
     </row>
-    <row r="121" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A121" s="10" t="s">
+    <row r="121" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A121" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B121" s="11"/>
-      <c r="C121" s="14"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="9"/>
       <c r="D121" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E121" s="17"/>
       <c r="F121" s="18"/>
-      <c r="G121" s="10" t="s">
+      <c r="G121" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H121" s="11"/>
-      <c r="I121" s="11"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="11"/>
-      <c r="L121" s="11"/>
-      <c r="M121" s="7" t="s">
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N121" s="8"/>
-      <c r="O121" s="9"/>
-    </row>
-    <row r="122" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A122" s="12"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="15"/>
+      <c r="N121" s="14"/>
+      <c r="O121" s="15"/>
+    </row>
+    <row r="122" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A122" s="10"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="12"/>
       <c r="D122" s="19"/>
       <c r="E122" s="20"/>
       <c r="F122" s="21"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="13"/>
-      <c r="K122" s="13"/>
-      <c r="L122" s="13"/>
-      <c r="M122" s="7" t="s">
+      <c r="G122" s="10"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N122" s="8"/>
-      <c r="O122" s="9"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N122" s="14"/>
+      <c r="O122" s="15"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -9960,7 +10043,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -9977,7 +10060,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -9994,7 +10077,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -10011,7 +10094,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -10028,7 +10111,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -10045,7 +10128,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -10062,7 +10145,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -10079,7 +10162,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -10096,7 +10179,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -10113,7 +10196,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -10130,7 +10213,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -10147,7 +10230,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -10164,7 +10247,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -10181,7 +10264,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -10198,7 +10281,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -10215,7 +10298,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -10232,7 +10315,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -10249,7 +10332,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -10266,7 +10349,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -10283,7 +10366,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -10300,7 +10383,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -10317,7 +10400,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -10334,7 +10417,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -10351,7 +10434,7 @@
       <c r="N146" s="2"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -10368,7 +10451,7 @@
       <c r="N147" s="2"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -10385,7 +10468,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -10402,7 +10485,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -10419,51 +10502,51 @@
       <c r="N150" s="5"/>
       <c r="O150" s="6"/>
     </row>
-    <row r="151" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A151" s="10" t="s">
+    <row r="151" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A151" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B151" s="11"/>
-      <c r="C151" s="14"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="9"/>
       <c r="D151" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E151" s="17"/>
       <c r="F151" s="18"/>
-      <c r="G151" s="10" t="s">
+      <c r="G151" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H151" s="11"/>
-      <c r="I151" s="11"/>
-      <c r="J151" s="11"/>
-      <c r="K151" s="11"/>
-      <c r="L151" s="11"/>
-      <c r="M151" s="7" t="s">
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
+      <c r="L151" s="8"/>
+      <c r="M151" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N151" s="8"/>
-      <c r="O151" s="9"/>
-    </row>
-    <row r="152" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A152" s="12"/>
-      <c r="B152" s="13"/>
-      <c r="C152" s="15"/>
+      <c r="N151" s="14"/>
+      <c r="O151" s="15"/>
+    </row>
+    <row r="152" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A152" s="10"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="12"/>
       <c r="D152" s="19"/>
       <c r="E152" s="20"/>
       <c r="F152" s="21"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="13"/>
-      <c r="I152" s="13"/>
-      <c r="J152" s="13"/>
-      <c r="K152" s="13"/>
-      <c r="L152" s="13"/>
-      <c r="M152" s="7" t="s">
+      <c r="G152" s="10"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N152" s="8"/>
-      <c r="O152" s="9"/>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N152" s="14"/>
+      <c r="O152" s="15"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -10480,7 +10563,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -10497,7 +10580,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -10514,7 +10597,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -10531,7 +10614,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -10548,7 +10631,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -10565,7 +10648,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -10582,7 +10665,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -10599,7 +10682,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -10616,7 +10699,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -10633,7 +10716,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -10650,7 +10733,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -10667,7 +10750,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -10684,7 +10767,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -10701,7 +10784,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -10718,7 +10801,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -10735,7 +10818,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -10752,7 +10835,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -10769,7 +10852,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -10786,7 +10869,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -10803,7 +10886,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -10820,7 +10903,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -10837,7 +10920,7 @@
       <c r="N174" s="2"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -10854,7 +10937,7 @@
       <c r="N175" s="2"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -10871,7 +10954,7 @@
       <c r="N176" s="2"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -10888,7 +10971,7 @@
       <c r="N177" s="2"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -10905,7 +10988,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -10922,7 +11005,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -10941,36 +11024,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A31:C32"/>
+    <mergeCell ref="D31:F32"/>
+    <mergeCell ref="G31:L32"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A91:C92"/>
+    <mergeCell ref="D91:F92"/>
+    <mergeCell ref="G91:L92"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="A61:C62"/>
+    <mergeCell ref="D61:F62"/>
+    <mergeCell ref="G61:L62"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="A151:C152"/>
+    <mergeCell ref="D151:F152"/>
+    <mergeCell ref="G151:L152"/>
+    <mergeCell ref="M151:O151"/>
+    <mergeCell ref="M152:O152"/>
     <mergeCell ref="A121:C122"/>
     <mergeCell ref="D121:F122"/>
     <mergeCell ref="G121:L122"/>
     <mergeCell ref="M121:O121"/>
     <mergeCell ref="M122:O122"/>
-    <mergeCell ref="A151:C152"/>
-    <mergeCell ref="D151:F152"/>
-    <mergeCell ref="G151:L152"/>
-    <mergeCell ref="M151:O151"/>
-    <mergeCell ref="M152:O152"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="D61:F62"/>
-    <mergeCell ref="G61:L62"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="A91:C92"/>
-    <mergeCell ref="D91:F92"/>
-    <mergeCell ref="G91:L92"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="M92:O92"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A31:C32"/>
-    <mergeCell ref="D31:F32"/>
-    <mergeCell ref="G31:L32"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -10988,53 +11071,53 @@
       <selection activeCell="M1" sqref="M1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="7" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="7" t="s">
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -11051,7 +11134,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -11068,7 +11151,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -11085,7 +11168,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -11102,7 +11185,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -11119,7 +11202,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -11136,7 +11219,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -11153,7 +11236,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -11170,7 +11253,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -11187,7 +11270,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -11204,7 +11287,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -11221,7 +11304,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -11238,7 +11321,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -11255,7 +11338,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -11272,7 +11355,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -11289,7 +11372,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -11306,7 +11389,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -11323,7 +11406,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -11340,7 +11423,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -11357,7 +11440,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -11374,7 +11457,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -11391,7 +11474,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -11408,7 +11491,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -11425,7 +11508,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -11442,7 +11525,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -11459,7 +11542,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -11476,7 +11559,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -11493,7 +11576,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -17,6 +17,7 @@
     <sheet name="画面UI" sheetId="3" r:id="rId3"/>
     <sheet name="画面遷移図" sheetId="4" r:id="rId4"/>
     <sheet name="テーブル定義" sheetId="5" r:id="rId5"/>
+    <sheet name="ER図" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$A$1:$O$29</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="24">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -214,6 +215,28 @@
     <t>マイページから各タブ</t>
     <rPh sb="7" eb="8">
       <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テーブル定義</t>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウントテーブル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タグテーブル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>投稿タグテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1810,6 +1833,231 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="679450" y="1174750"/>
+          <a:ext cx="8737600" cy="4743450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>665668</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="692150" y="8502650"/>
+          <a:ext cx="8723818" cy="2565400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12699</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>35302</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685799" y="15843250"/>
+          <a:ext cx="8772903" cy="1663700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>669936</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="692149" y="22275800"/>
+          <a:ext cx="8728087" cy="1917700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -7833,56 +8081,56 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A271:C272"/>
+    <mergeCell ref="D271:F272"/>
+    <mergeCell ref="G271:L272"/>
+    <mergeCell ref="M271:O271"/>
+    <mergeCell ref="M272:O272"/>
+    <mergeCell ref="A241:C242"/>
+    <mergeCell ref="D241:F242"/>
+    <mergeCell ref="G241:L242"/>
+    <mergeCell ref="M241:O241"/>
+    <mergeCell ref="M242:O242"/>
+    <mergeCell ref="A211:C212"/>
+    <mergeCell ref="D211:F212"/>
+    <mergeCell ref="G211:L212"/>
+    <mergeCell ref="M211:O211"/>
+    <mergeCell ref="M212:O212"/>
+    <mergeCell ref="A181:C182"/>
+    <mergeCell ref="D181:F182"/>
+    <mergeCell ref="G181:L182"/>
+    <mergeCell ref="M181:O181"/>
+    <mergeCell ref="M182:O182"/>
+    <mergeCell ref="A151:C152"/>
+    <mergeCell ref="D151:F152"/>
+    <mergeCell ref="G151:L152"/>
+    <mergeCell ref="M151:O151"/>
+    <mergeCell ref="M152:O152"/>
+    <mergeCell ref="A121:C122"/>
+    <mergeCell ref="D121:F122"/>
+    <mergeCell ref="G121:L122"/>
+    <mergeCell ref="M121:O121"/>
+    <mergeCell ref="M122:O122"/>
+    <mergeCell ref="A91:C92"/>
+    <mergeCell ref="D91:F92"/>
+    <mergeCell ref="G91:L92"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="A61:C62"/>
+    <mergeCell ref="D61:F62"/>
+    <mergeCell ref="G61:L62"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="A31:C32"/>
+    <mergeCell ref="D31:F32"/>
+    <mergeCell ref="G31:L32"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:L2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A31:C32"/>
-    <mergeCell ref="D31:F32"/>
-    <mergeCell ref="G31:L32"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="D61:F62"/>
-    <mergeCell ref="G61:L62"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="A91:C92"/>
-    <mergeCell ref="D91:F92"/>
-    <mergeCell ref="G91:L92"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="M92:O92"/>
-    <mergeCell ref="A121:C122"/>
-    <mergeCell ref="D121:F122"/>
-    <mergeCell ref="G121:L122"/>
-    <mergeCell ref="M121:O121"/>
-    <mergeCell ref="M122:O122"/>
-    <mergeCell ref="A151:C152"/>
-    <mergeCell ref="D151:F152"/>
-    <mergeCell ref="G151:L152"/>
-    <mergeCell ref="M151:O151"/>
-    <mergeCell ref="M152:O152"/>
-    <mergeCell ref="A181:C182"/>
-    <mergeCell ref="D181:F182"/>
-    <mergeCell ref="G181:L182"/>
-    <mergeCell ref="M181:O181"/>
-    <mergeCell ref="M182:O182"/>
-    <mergeCell ref="A211:C212"/>
-    <mergeCell ref="D211:F212"/>
-    <mergeCell ref="G211:L212"/>
-    <mergeCell ref="M211:O211"/>
-    <mergeCell ref="M212:O212"/>
-    <mergeCell ref="A241:C242"/>
-    <mergeCell ref="D241:F242"/>
-    <mergeCell ref="G241:L242"/>
-    <mergeCell ref="M241:O241"/>
-    <mergeCell ref="M242:O242"/>
-    <mergeCell ref="A271:C272"/>
-    <mergeCell ref="D271:F272"/>
-    <mergeCell ref="G271:L272"/>
-    <mergeCell ref="M271:O271"/>
-    <mergeCell ref="M272:O272"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7896,7 +8144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q66" sqref="Q66"/>
     </sheetView>
   </sheetViews>
@@ -11024,36 +11272,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A121:C122"/>
+    <mergeCell ref="D121:F122"/>
+    <mergeCell ref="G121:L122"/>
+    <mergeCell ref="M121:O121"/>
+    <mergeCell ref="M122:O122"/>
+    <mergeCell ref="A151:C152"/>
+    <mergeCell ref="D151:F152"/>
+    <mergeCell ref="G151:L152"/>
+    <mergeCell ref="M151:O151"/>
+    <mergeCell ref="M152:O152"/>
+    <mergeCell ref="A61:C62"/>
+    <mergeCell ref="D61:F62"/>
+    <mergeCell ref="G61:L62"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="A91:C92"/>
+    <mergeCell ref="D91:F92"/>
+    <mergeCell ref="G91:L92"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="A31:C32"/>
     <mergeCell ref="D31:F32"/>
     <mergeCell ref="G31:L32"/>
     <mergeCell ref="M31:O31"/>
     <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A91:C92"/>
-    <mergeCell ref="D91:F92"/>
-    <mergeCell ref="G91:L92"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="M92:O92"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="D61:F62"/>
-    <mergeCell ref="G61:L62"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="A151:C152"/>
-    <mergeCell ref="D151:F152"/>
-    <mergeCell ref="G151:L152"/>
-    <mergeCell ref="M151:O151"/>
-    <mergeCell ref="M152:O152"/>
-    <mergeCell ref="A121:C122"/>
-    <mergeCell ref="D121:F122"/>
-    <mergeCell ref="G121:L122"/>
-    <mergeCell ref="M121:O121"/>
-    <mergeCell ref="M122:O122"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -11065,10 +11313,2131 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O120"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" s="14"/>
+      <c r="O31" s="15"/>
+    </row>
+    <row r="32" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="14"/>
+      <c r="O32" s="15"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="6"/>
+    </row>
+    <row r="61" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N61" s="14"/>
+      <c r="O61" s="15"/>
+    </row>
+    <row r="62" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="10"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="14"/>
+      <c r="O62" s="15"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="1"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="3"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="3"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="1"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="1"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="1"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A90" s="4"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="6"/>
+    </row>
+    <row r="91" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A91" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="8"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="8"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N91" s="14"/>
+      <c r="O91" s="15"/>
+    </row>
+    <row r="92" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A92" s="10"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N92" s="14"/>
+      <c r="O92" s="15"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="1"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="1"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="1"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="1"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="1"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="1"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="1"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="1"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="1"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="3"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="1"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="3"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="1"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="3"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="1"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="3"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="1"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="3"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="1"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="3"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="3"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="1"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="3"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="1"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="3"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="3"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="1"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="3"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="1"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="3"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="1"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="3"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="3"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="1"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="3"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="1"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="3"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="1"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="3"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="1"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="3"/>
+    </row>
+    <row r="120" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A120" s="4"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
+      <c r="O120" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A91:C92"/>
+    <mergeCell ref="D91:F92"/>
+    <mergeCell ref="G91:L92"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="A61:C62"/>
+    <mergeCell ref="D61:F62"/>
+    <mergeCell ref="G61:L62"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="A31:C32"/>
+    <mergeCell ref="D31:F32"/>
+    <mergeCell ref="G31:L32"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:O1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20530" windowHeight="9160" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20530" windowHeight="9160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="ER図" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$A$1:$O$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$A$1:$O$28</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="40">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -240,12 +240,94 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>ガイドライン画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ER図</t>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目次</t>
+    <rPh sb="0" eb="2">
+      <t>モクジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面遷移図</t>
+    <rPh sb="0" eb="5">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チーム７</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設計書</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1-1.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3p</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1-2.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4p~11p</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1-3.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12p～17p</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1-4.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>18p～20p</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1-5.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>21p</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +348,20 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="HGP創英角ﾎﾟｯﾌﾟ体"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="HGP創英角ﾎﾟｯﾌﾟ体"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -408,7 +504,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -474,6 +570,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -559,14 +664,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -589,8 +694,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="91440" y="41849040"/>
-          <a:ext cx="9837420" cy="6240780"/>
+          <a:off x="91440" y="40452040"/>
+          <a:ext cx="9872980" cy="5991860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -603,14 +708,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -633,8 +738,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="99060" y="34998660"/>
-          <a:ext cx="9829800" cy="6164580"/>
+          <a:off x="99060" y="33834070"/>
+          <a:ext cx="9865360" cy="5929630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -646,15 +751,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:colOff>115455</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>130003</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142540</xdr:rowOff>
+      <xdr:colOff>412635</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>122383</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -677,8 +782,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="205740" y="556260"/>
-          <a:ext cx="9685020" cy="6230920"/>
+          <a:off x="115455" y="591821"/>
+          <a:ext cx="9672089" cy="5996017"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -690,15 +795,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -707,8 +812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7696200" y="6301740"/>
-          <a:ext cx="2072640" cy="388620"/>
+          <a:off x="7743190" y="6089650"/>
+          <a:ext cx="2080260" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -755,14 +860,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -785,8 +890,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="198120" y="7490460"/>
-          <a:ext cx="9677400" cy="6172200"/>
+          <a:off x="198120" y="7295342"/>
+          <a:ext cx="9664469" cy="5901113"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -798,15 +903,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>198813</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>343593</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>182302</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -815,8 +920,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8214360" y="13167360"/>
-          <a:ext cx="1485900" cy="388620"/>
+          <a:off x="8234449" y="12719973"/>
+          <a:ext cx="1484053" cy="393238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -863,14 +968,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -893,8 +998,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="137160" y="14348460"/>
-          <a:ext cx="9738360" cy="6202680"/>
+          <a:off x="137160" y="13881100"/>
+          <a:ext cx="9654540" cy="5924550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -906,15 +1011,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>189230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>290830</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -923,8 +1028,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8313420" y="19865340"/>
-          <a:ext cx="1485900" cy="388620"/>
+          <a:off x="8223250" y="19213830"/>
+          <a:ext cx="1490980" cy="356870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -971,14 +1076,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1001,8 +1106,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="129540" y="21183600"/>
-          <a:ext cx="9806940" cy="6240780"/>
+          <a:off x="129540" y="20483830"/>
+          <a:ext cx="9842500" cy="6008370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1014,15 +1119,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1031,8 +1136,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8031480" y="26921460"/>
-          <a:ext cx="1851660" cy="388620"/>
+          <a:off x="8002270" y="26031190"/>
+          <a:ext cx="1859280" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1077,16 +1182,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>54610</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>153670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>481330</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1109,8 +1214,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="99060" y="28079700"/>
-          <a:ext cx="9814560" cy="6248400"/>
+          <a:off x="727710" y="27217370"/>
+          <a:ext cx="9850120" cy="5923280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1123,13 +1228,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1186,79 +1291,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>218440</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7635240" y="47640240"/>
-          <a:ext cx="2232660" cy="388620"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>マイページ画面（２）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>439420</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1267,8 +1308,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620000" y="33870900"/>
-          <a:ext cx="2232660" cy="388620"/>
+          <a:off x="7622540" y="32621220"/>
+          <a:ext cx="2240280" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1315,14 +1356,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>269</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1345,8 +1386,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83820" y="55618380"/>
-          <a:ext cx="9852660" cy="6202680"/>
+          <a:off x="83820" y="53756560"/>
+          <a:ext cx="9888220" cy="5977890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1359,14 +1400,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1389,8 +1430,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="99060" y="48783240"/>
-          <a:ext cx="9867900" cy="6202680"/>
+          <a:off x="99060" y="47153830"/>
+          <a:ext cx="9903460" cy="5944870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1402,79 +1443,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>237</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>92134</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>80817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8336280" y="54460140"/>
-          <a:ext cx="1531620" cy="388620"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>投稿モーダル</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>267</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>269</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>259774</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>103907</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1483,8 +1460,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8374380" y="61394340"/>
-          <a:ext cx="1508760" cy="388620"/>
+          <a:off x="8127770" y="59655362"/>
+          <a:ext cx="1506913" cy="484909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1531,14 +1508,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>272</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>299</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1561,8 +1538,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="60960" y="62506860"/>
-          <a:ext cx="9906000" cy="6210300"/>
+          <a:off x="60960" y="60412630"/>
+          <a:ext cx="9941560" cy="5989320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1575,13 +1552,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>297</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>299</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1635,6 +1612,134 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>80588</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>80816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>248228</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>103907</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8116224" y="52958998"/>
+          <a:ext cx="1506913" cy="484909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>投稿モーダル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>340590</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>210359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561570</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>141779</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7706590" y="46161268"/>
+          <a:ext cx="2229889" cy="393238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>マイページ画面（３）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1682,13 +1787,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1720,14 +1825,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>544340</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1758,13 +1863,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1796,13 +1901,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>396008</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1843,8 +1948,8 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -1894,13 +1999,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>665668</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1949,13 +2054,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>12699</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>35302</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2004,13 +2109,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>669936</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>3186</xdr:colOff>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2051,6 +2156,49 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>46181</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1350818" y="958273"/>
+          <a:ext cx="7250545" cy="5276272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2321,14 +2469,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A10:M40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="10" spans="1:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E29:I30"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A15:M15"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2337,10 +2621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:O29"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2819,39 +3103,22 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="6"/>
+    <row r="28" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2863,18 +3130,21 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0" bottom="0.39370078740157483" header="0" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P ページ</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O300"/>
+  <dimension ref="A1:O290"/>
   <sheetViews>
-    <sheetView topLeftCell="A299" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:L32"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A147" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="R205" sqref="R205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3365,83 +3635,83 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="3"/>
+    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="6"/>
-    </row>
-    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="7" t="s">
+      <c r="A30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="7" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="7" t="s">
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="14"/>
+      <c r="O30" s="15"/>
+    </row>
+    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31" s="14"/>
       <c r="O31" s="15"/>
     </row>
-    <row r="32" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="14"/>
-      <c r="O32" s="15"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
@@ -3868,100 +4138,100 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="6"/>
-    </row>
-    <row r="61" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A61" s="7" t="s">
+    <row r="58" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="6"/>
+    </row>
+    <row r="59" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="7" t="s">
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="7" t="s">
+      <c r="E59" s="8"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="13" t="s">
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N61" s="14"/>
-      <c r="O61" s="15"/>
-    </row>
-    <row r="62" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A62" s="10"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="13" t="s">
+      <c r="N59" s="14"/>
+      <c r="O59" s="15"/>
+    </row>
+    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="14"/>
-      <c r="O62" s="15"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="15"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="3"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1"/>
@@ -4371,117 +4641,117 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="1"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="1"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="1"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A90" s="4"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="6"/>
-    </row>
-    <row r="91" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A91" s="7" t="s">
+    <row r="87" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A87" s="4"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="6"/>
+    </row>
+    <row r="88" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A88" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="7" t="s">
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="7" t="s">
+      <c r="E88" s="8"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="13" t="s">
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N91" s="14"/>
-      <c r="O91" s="15"/>
-    </row>
-    <row r="92" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A92" s="10"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="13" t="s">
+      <c r="N88" s="14"/>
+      <c r="O88" s="15"/>
+    </row>
+    <row r="89" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A89" s="10"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N92" s="14"/>
-      <c r="O92" s="15"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="15"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="3"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1"/>
@@ -4874,56 +5144,66 @@
       <c r="N115" s="2"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="1"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="3"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="1"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="3"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="1"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" s="3"/>
+    <row r="116" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A116" s="4"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="6"/>
+    </row>
+    <row r="117" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A117" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="8"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="8"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N117" s="14"/>
+      <c r="O117" s="15"/>
+    </row>
+    <row r="118" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A118" s="10"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N118" s="14"/>
+      <c r="O118" s="15"/>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1"/>
@@ -4942,66 +5222,56 @@
       <c r="N119" s="2"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A120" s="4"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
-      <c r="L120" s="5"/>
-      <c r="M120" s="5"/>
-      <c r="N120" s="5"/>
-      <c r="O120" s="6"/>
-    </row>
-    <row r="121" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A121" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" s="8"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N121" s="14"/>
-      <c r="O121" s="15"/>
-    </row>
-    <row r="122" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A122" s="10"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="11"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="11"/>
-      <c r="L122" s="11"/>
-      <c r="M122" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N122" s="14"/>
-      <c r="O122" s="15"/>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="1"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="3"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="1"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="3"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="1"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="3"/>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1"/>
@@ -5377,7 +5647,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5394,39 +5664,49 @@
       <c r="N145" s="2"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="1"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" s="3"/>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" s="1"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" s="3"/>
+    <row r="146" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A146" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" s="8"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="8"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N146" s="14"/>
+      <c r="O146" s="15"/>
+    </row>
+    <row r="147" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A147" s="10"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="11"/>
+      <c r="M147" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N147" s="14"/>
+      <c r="O147" s="15"/>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1"/>
@@ -5462,66 +5742,56 @@
       <c r="N149" s="2"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A150" s="4"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5"/>
-      <c r="K150" s="5"/>
-      <c r="L150" s="5"/>
-      <c r="M150" s="5"/>
-      <c r="N150" s="5"/>
-      <c r="O150" s="6"/>
-    </row>
-    <row r="151" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A151" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B151" s="8"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E151" s="8"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H151" s="8"/>
-      <c r="I151" s="8"/>
-      <c r="J151" s="8"/>
-      <c r="K151" s="8"/>
-      <c r="L151" s="8"/>
-      <c r="M151" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N151" s="14"/>
-      <c r="O151" s="15"/>
-    </row>
-    <row r="152" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A152" s="10"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="11"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="10"/>
-      <c r="H152" s="11"/>
-      <c r="I152" s="11"/>
-      <c r="J152" s="11"/>
-      <c r="K152" s="11"/>
-      <c r="L152" s="11"/>
-      <c r="M152" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N152" s="14"/>
-      <c r="O152" s="15"/>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="1"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+      <c r="O150" s="3"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="1"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" s="3"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="1"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
+      <c r="O152" s="3"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1"/>
@@ -5880,56 +6150,66 @@
       <c r="N173" s="2"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A174" s="1"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
-      <c r="M174" s="2"/>
-      <c r="N174" s="2"/>
-      <c r="O174" s="3"/>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A175" s="1"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
-      <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
-      <c r="M175" s="2"/>
-      <c r="N175" s="2"/>
-      <c r="O175" s="3"/>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A176" s="1"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
-      <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
-      <c r="M176" s="2"/>
-      <c r="N176" s="2"/>
-      <c r="O176" s="3"/>
+    <row r="174" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A174" s="4"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5"/>
+      <c r="K174" s="5"/>
+      <c r="L174" s="5"/>
+      <c r="M174" s="5"/>
+      <c r="N174" s="5"/>
+      <c r="O174" s="6"/>
+    </row>
+    <row r="175" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A175" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" s="8"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="8"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H175" s="8"/>
+      <c r="I175" s="8"/>
+      <c r="J175" s="8"/>
+      <c r="K175" s="8"/>
+      <c r="L175" s="8"/>
+      <c r="M175" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N175" s="14"/>
+      <c r="O175" s="15"/>
+    </row>
+    <row r="176" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A176" s="10"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="10"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="11"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="11"/>
+      <c r="L176" s="11"/>
+      <c r="M176" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N176" s="14"/>
+      <c r="O176" s="15"/>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1"/>
@@ -5982,66 +6262,56 @@
       <c r="N179" s="2"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A180" s="4"/>
-      <c r="B180" s="5"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
-      <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="5"/>
-      <c r="J180" s="5"/>
-      <c r="K180" s="5"/>
-      <c r="L180" s="5"/>
-      <c r="M180" s="5"/>
-      <c r="N180" s="5"/>
-      <c r="O180" s="6"/>
-    </row>
-    <row r="181" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A181" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B181" s="8"/>
-      <c r="C181" s="9"/>
-      <c r="D181" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E181" s="8"/>
-      <c r="F181" s="9"/>
-      <c r="G181" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H181" s="8"/>
-      <c r="I181" s="8"/>
-      <c r="J181" s="8"/>
-      <c r="K181" s="8"/>
-      <c r="L181" s="8"/>
-      <c r="M181" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N181" s="14"/>
-      <c r="O181" s="15"/>
-    </row>
-    <row r="182" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A182" s="10"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="12"/>
-      <c r="D182" s="10"/>
-      <c r="E182" s="11"/>
-      <c r="F182" s="12"/>
-      <c r="G182" s="10"/>
-      <c r="H182" s="11"/>
-      <c r="I182" s="11"/>
-      <c r="J182" s="11"/>
-      <c r="K182" s="11"/>
-      <c r="L182" s="11"/>
-      <c r="M182" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N182" s="14"/>
-      <c r="O182" s="15"/>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="1"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+      <c r="L180" s="2"/>
+      <c r="M180" s="2"/>
+      <c r="N180" s="2"/>
+      <c r="O180" s="3"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="1"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+      <c r="M181" s="2"/>
+      <c r="N181" s="2"/>
+      <c r="O181" s="3"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="1"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+      <c r="L182" s="2"/>
+      <c r="M182" s="2"/>
+      <c r="N182" s="2"/>
+      <c r="O182" s="3"/>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1"/>
@@ -6383,56 +6653,66 @@
       <c r="N202" s="2"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A203" s="1"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
-      <c r="I203" s="2"/>
-      <c r="J203" s="2"/>
-      <c r="K203" s="2"/>
-      <c r="L203" s="2"/>
-      <c r="M203" s="2"/>
-      <c r="N203" s="2"/>
-      <c r="O203" s="3"/>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A204" s="1"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
-      <c r="I204" s="2"/>
-      <c r="J204" s="2"/>
-      <c r="K204" s="2"/>
-      <c r="L204" s="2"/>
-      <c r="M204" s="2"/>
-      <c r="N204" s="2"/>
-      <c r="O204" s="3"/>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A205" s="1"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
-      <c r="J205" s="2"/>
-      <c r="K205" s="2"/>
-      <c r="L205" s="2"/>
-      <c r="M205" s="2"/>
-      <c r="N205" s="2"/>
-      <c r="O205" s="3"/>
+    <row r="203" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A203" s="4"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
+      <c r="J203" s="5"/>
+      <c r="K203" s="5"/>
+      <c r="L203" s="5"/>
+      <c r="M203" s="5"/>
+      <c r="N203" s="5"/>
+      <c r="O203" s="6"/>
+    </row>
+    <row r="204" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A204" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" s="8"/>
+      <c r="C204" s="9"/>
+      <c r="D204" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" s="8"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H204" s="8"/>
+      <c r="I204" s="8"/>
+      <c r="J204" s="8"/>
+      <c r="K204" s="8"/>
+      <c r="L204" s="8"/>
+      <c r="M204" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N204" s="14"/>
+      <c r="O204" s="15"/>
+    </row>
+    <row r="205" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A205" s="10"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="12"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="10"/>
+      <c r="H205" s="11"/>
+      <c r="I205" s="11"/>
+      <c r="J205" s="11"/>
+      <c r="K205" s="11"/>
+      <c r="L205" s="11"/>
+      <c r="M205" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N205" s="14"/>
+      <c r="O205" s="15"/>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1"/>
@@ -6502,66 +6782,56 @@
       <c r="N209" s="2"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A210" s="4"/>
-      <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="5"/>
-      <c r="H210" s="5"/>
-      <c r="I210" s="5"/>
-      <c r="J210" s="5"/>
-      <c r="K210" s="5"/>
-      <c r="L210" s="5"/>
-      <c r="M210" s="5"/>
-      <c r="N210" s="5"/>
-      <c r="O210" s="6"/>
-    </row>
-    <row r="211" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A211" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B211" s="8"/>
-      <c r="C211" s="9"/>
-      <c r="D211" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E211" s="8"/>
-      <c r="F211" s="9"/>
-      <c r="G211" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H211" s="8"/>
-      <c r="I211" s="8"/>
-      <c r="J211" s="8"/>
-      <c r="K211" s="8"/>
-      <c r="L211" s="8"/>
-      <c r="M211" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N211" s="14"/>
-      <c r="O211" s="15"/>
-    </row>
-    <row r="212" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A212" s="10"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="12"/>
-      <c r="D212" s="10"/>
-      <c r="E212" s="11"/>
-      <c r="F212" s="12"/>
-      <c r="G212" s="10"/>
-      <c r="H212" s="11"/>
-      <c r="I212" s="11"/>
-      <c r="J212" s="11"/>
-      <c r="K212" s="11"/>
-      <c r="L212" s="11"/>
-      <c r="M212" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N212" s="14"/>
-      <c r="O212" s="15"/>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210" s="1"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+      <c r="L210" s="2"/>
+      <c r="M210" s="2"/>
+      <c r="N210" s="2"/>
+      <c r="O210" s="3"/>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A211" s="1"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+      <c r="L211" s="2"/>
+      <c r="M211" s="2"/>
+      <c r="N211" s="2"/>
+      <c r="O211" s="3"/>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212" s="1"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+      <c r="L212" s="2"/>
+      <c r="M212" s="2"/>
+      <c r="N212" s="2"/>
+      <c r="O212" s="3"/>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1"/>
@@ -6886,56 +7156,66 @@
       <c r="N231" s="2"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A232" s="1"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="2"/>
-      <c r="J232" s="2"/>
-      <c r="K232" s="2"/>
-      <c r="L232" s="2"/>
-      <c r="M232" s="2"/>
-      <c r="N232" s="2"/>
-      <c r="O232" s="3"/>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A233" s="1"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="2"/>
-      <c r="J233" s="2"/>
-      <c r="K233" s="2"/>
-      <c r="L233" s="2"/>
-      <c r="M233" s="2"/>
-      <c r="N233" s="2"/>
-      <c r="O233" s="3"/>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A234" s="1"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
-      <c r="I234" s="2"/>
-      <c r="J234" s="2"/>
-      <c r="K234" s="2"/>
-      <c r="L234" s="2"/>
-      <c r="M234" s="2"/>
-      <c r="N234" s="2"/>
-      <c r="O234" s="3"/>
+    <row r="232" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A232" s="4"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
+      <c r="I232" s="5"/>
+      <c r="J232" s="5"/>
+      <c r="K232" s="5"/>
+      <c r="L232" s="5"/>
+      <c r="M232" s="5"/>
+      <c r="N232" s="5"/>
+      <c r="O232" s="6"/>
+    </row>
+    <row r="233" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A233" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B233" s="8"/>
+      <c r="C233" s="9"/>
+      <c r="D233" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E233" s="8"/>
+      <c r="F233" s="9"/>
+      <c r="G233" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H233" s="8"/>
+      <c r="I233" s="8"/>
+      <c r="J233" s="8"/>
+      <c r="K233" s="8"/>
+      <c r="L233" s="8"/>
+      <c r="M233" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N233" s="14"/>
+      <c r="O233" s="15"/>
+    </row>
+    <row r="234" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A234" s="10"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="12"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="11"/>
+      <c r="F234" s="12"/>
+      <c r="G234" s="10"/>
+      <c r="H234" s="11"/>
+      <c r="I234" s="11"/>
+      <c r="J234" s="11"/>
+      <c r="K234" s="11"/>
+      <c r="L234" s="11"/>
+      <c r="M234" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N234" s="14"/>
+      <c r="O234" s="15"/>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1"/>
@@ -7022,66 +7302,56 @@
       <c r="N239" s="2"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A240" s="4"/>
-      <c r="B240" s="5"/>
-      <c r="C240" s="5"/>
-      <c r="D240" s="5"/>
-      <c r="E240" s="5"/>
-      <c r="F240" s="5"/>
-      <c r="G240" s="5"/>
-      <c r="H240" s="5"/>
-      <c r="I240" s="5"/>
-      <c r="J240" s="5"/>
-      <c r="K240" s="5"/>
-      <c r="L240" s="5"/>
-      <c r="M240" s="5"/>
-      <c r="N240" s="5"/>
-      <c r="O240" s="6"/>
-    </row>
-    <row r="241" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A241" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B241" s="8"/>
-      <c r="C241" s="9"/>
-      <c r="D241" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E241" s="8"/>
-      <c r="F241" s="9"/>
-      <c r="G241" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H241" s="8"/>
-      <c r="I241" s="8"/>
-      <c r="J241" s="8"/>
-      <c r="K241" s="8"/>
-      <c r="L241" s="8"/>
-      <c r="M241" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N241" s="14"/>
-      <c r="O241" s="15"/>
-    </row>
-    <row r="242" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A242" s="10"/>
-      <c r="B242" s="11"/>
-      <c r="C242" s="12"/>
-      <c r="D242" s="10"/>
-      <c r="E242" s="11"/>
-      <c r="F242" s="12"/>
-      <c r="G242" s="10"/>
-      <c r="H242" s="11"/>
-      <c r="I242" s="11"/>
-      <c r="J242" s="11"/>
-      <c r="K242" s="11"/>
-      <c r="L242" s="11"/>
-      <c r="M242" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N242" s="14"/>
-      <c r="O242" s="15"/>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A240" s="1"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
+      <c r="J240" s="2"/>
+      <c r="K240" s="2"/>
+      <c r="L240" s="2"/>
+      <c r="M240" s="2"/>
+      <c r="N240" s="2"/>
+      <c r="O240" s="3"/>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A241" s="1"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+      <c r="K241" s="2"/>
+      <c r="L241" s="2"/>
+      <c r="M241" s="2"/>
+      <c r="N241" s="2"/>
+      <c r="O241" s="3"/>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A242" s="1"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="2"/>
+      <c r="M242" s="2"/>
+      <c r="N242" s="2"/>
+      <c r="O242" s="3"/>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1"/>
@@ -7389,56 +7659,66 @@
       <c r="N260" s="2"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A261" s="1"/>
-      <c r="B261" s="2"/>
-      <c r="C261" s="2"/>
-      <c r="D261" s="2"/>
-      <c r="E261" s="2"/>
-      <c r="F261" s="2"/>
-      <c r="G261" s="2"/>
-      <c r="H261" s="2"/>
-      <c r="I261" s="2"/>
-      <c r="J261" s="2"/>
-      <c r="K261" s="2"/>
-      <c r="L261" s="2"/>
-      <c r="M261" s="2"/>
-      <c r="N261" s="2"/>
-      <c r="O261" s="3"/>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A262" s="1"/>
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
-      <c r="G262" s="2"/>
-      <c r="H262" s="2"/>
-      <c r="I262" s="2"/>
-      <c r="J262" s="2"/>
-      <c r="K262" s="2"/>
-      <c r="L262" s="2"/>
-      <c r="M262" s="2"/>
-      <c r="N262" s="2"/>
-      <c r="O262" s="3"/>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A263" s="1"/>
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
-      <c r="J263" s="2"/>
-      <c r="K263" s="2"/>
-      <c r="L263" s="2"/>
-      <c r="M263" s="2"/>
-      <c r="N263" s="2"/>
-      <c r="O263" s="3"/>
+    <row r="261" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A261" s="4"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="5"/>
+      <c r="H261" s="5"/>
+      <c r="I261" s="5"/>
+      <c r="J261" s="5"/>
+      <c r="K261" s="5"/>
+      <c r="L261" s="5"/>
+      <c r="M261" s="5"/>
+      <c r="N261" s="5"/>
+      <c r="O261" s="6"/>
+    </row>
+    <row r="262" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A262" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B262" s="8"/>
+      <c r="C262" s="9"/>
+      <c r="D262" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E262" s="8"/>
+      <c r="F262" s="9"/>
+      <c r="G262" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H262" s="8"/>
+      <c r="I262" s="8"/>
+      <c r="J262" s="8"/>
+      <c r="K262" s="8"/>
+      <c r="L262" s="8"/>
+      <c r="M262" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N262" s="14"/>
+      <c r="O262" s="15"/>
+    </row>
+    <row r="263" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A263" s="10"/>
+      <c r="B263" s="11"/>
+      <c r="C263" s="12"/>
+      <c r="D263" s="10"/>
+      <c r="E263" s="11"/>
+      <c r="F263" s="12"/>
+      <c r="G263" s="10"/>
+      <c r="H263" s="11"/>
+      <c r="I263" s="11"/>
+      <c r="J263" s="11"/>
+      <c r="K263" s="11"/>
+      <c r="L263" s="11"/>
+      <c r="M263" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N263" s="14"/>
+      <c r="O263" s="15"/>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1"/>
@@ -7542,66 +7822,56 @@
       <c r="N269" s="2"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A270" s="4"/>
-      <c r="B270" s="5"/>
-      <c r="C270" s="5"/>
-      <c r="D270" s="5"/>
-      <c r="E270" s="5"/>
-      <c r="F270" s="5"/>
-      <c r="G270" s="5"/>
-      <c r="H270" s="5"/>
-      <c r="I270" s="5"/>
-      <c r="J270" s="5"/>
-      <c r="K270" s="5"/>
-      <c r="L270" s="5"/>
-      <c r="M270" s="5"/>
-      <c r="N270" s="5"/>
-      <c r="O270" s="6"/>
-    </row>
-    <row r="271" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A271" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B271" s="8"/>
-      <c r="C271" s="9"/>
-      <c r="D271" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E271" s="8"/>
-      <c r="F271" s="9"/>
-      <c r="G271" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H271" s="8"/>
-      <c r="I271" s="8"/>
-      <c r="J271" s="8"/>
-      <c r="K271" s="8"/>
-      <c r="L271" s="8"/>
-      <c r="M271" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N271" s="14"/>
-      <c r="O271" s="15"/>
-    </row>
-    <row r="272" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A272" s="10"/>
-      <c r="B272" s="11"/>
-      <c r="C272" s="12"/>
-      <c r="D272" s="10"/>
-      <c r="E272" s="11"/>
-      <c r="F272" s="12"/>
-      <c r="G272" s="10"/>
-      <c r="H272" s="11"/>
-      <c r="I272" s="11"/>
-      <c r="J272" s="11"/>
-      <c r="K272" s="11"/>
-      <c r="L272" s="11"/>
-      <c r="M272" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N272" s="14"/>
-      <c r="O272" s="15"/>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A270" s="1"/>
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
+      <c r="G270" s="2"/>
+      <c r="H270" s="2"/>
+      <c r="I270" s="2"/>
+      <c r="J270" s="2"/>
+      <c r="K270" s="2"/>
+      <c r="L270" s="2"/>
+      <c r="M270" s="2"/>
+      <c r="N270" s="2"/>
+      <c r="O270" s="3"/>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A271" s="1"/>
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="2"/>
+      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
+      <c r="G271" s="2"/>
+      <c r="H271" s="2"/>
+      <c r="I271" s="2"/>
+      <c r="J271" s="2"/>
+      <c r="K271" s="2"/>
+      <c r="L271" s="2"/>
+      <c r="M271" s="2"/>
+      <c r="N271" s="2"/>
+      <c r="O271" s="3"/>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A272" s="1"/>
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
+      <c r="H272" s="2"/>
+      <c r="I272" s="2"/>
+      <c r="J272" s="2"/>
+      <c r="K272" s="2"/>
+      <c r="L272" s="2"/>
+      <c r="M272" s="2"/>
+      <c r="N272" s="2"/>
+      <c r="O272" s="3"/>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1"/>
@@ -7892,240 +8162,70 @@
       <c r="N289" s="2"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A290" s="1"/>
-      <c r="B290" s="2"/>
-      <c r="C290" s="2"/>
-      <c r="D290" s="2"/>
-      <c r="E290" s="2"/>
-      <c r="F290" s="2"/>
-      <c r="G290" s="2"/>
-      <c r="H290" s="2"/>
-      <c r="I290" s="2"/>
-      <c r="J290" s="2"/>
-      <c r="K290" s="2"/>
-      <c r="L290" s="2"/>
-      <c r="M290" s="2"/>
-      <c r="N290" s="2"/>
-      <c r="O290" s="3"/>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A291" s="1"/>
-      <c r="B291" s="2"/>
-      <c r="C291" s="2"/>
-      <c r="D291" s="2"/>
-      <c r="E291" s="2"/>
-      <c r="F291" s="2"/>
-      <c r="G291" s="2"/>
-      <c r="H291" s="2"/>
-      <c r="I291" s="2"/>
-      <c r="J291" s="2"/>
-      <c r="K291" s="2"/>
-      <c r="L291" s="2"/>
-      <c r="M291" s="2"/>
-      <c r="N291" s="2"/>
-      <c r="O291" s="3"/>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A292" s="1"/>
-      <c r="B292" s="2"/>
-      <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
-      <c r="E292" s="2"/>
-      <c r="F292" s="2"/>
-      <c r="G292" s="2"/>
-      <c r="H292" s="2"/>
-      <c r="I292" s="2"/>
-      <c r="J292" s="2"/>
-      <c r="K292" s="2"/>
-      <c r="L292" s="2"/>
-      <c r="M292" s="2"/>
-      <c r="N292" s="2"/>
-      <c r="O292" s="3"/>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A293" s="1"/>
-      <c r="B293" s="2"/>
-      <c r="C293" s="2"/>
-      <c r="D293" s="2"/>
-      <c r="E293" s="2"/>
-      <c r="F293" s="2"/>
-      <c r="G293" s="2"/>
-      <c r="H293" s="2"/>
-      <c r="I293" s="2"/>
-      <c r="J293" s="2"/>
-      <c r="K293" s="2"/>
-      <c r="L293" s="2"/>
-      <c r="M293" s="2"/>
-      <c r="N293" s="2"/>
-      <c r="O293" s="3"/>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A294" s="1"/>
-      <c r="B294" s="2"/>
-      <c r="C294" s="2"/>
-      <c r="D294" s="2"/>
-      <c r="E294" s="2"/>
-      <c r="F294" s="2"/>
-      <c r="G294" s="2"/>
-      <c r="H294" s="2"/>
-      <c r="I294" s="2"/>
-      <c r="J294" s="2"/>
-      <c r="K294" s="2"/>
-      <c r="L294" s="2"/>
-      <c r="M294" s="2"/>
-      <c r="N294" s="2"/>
-      <c r="O294" s="3"/>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A295" s="1"/>
-      <c r="B295" s="2"/>
-      <c r="C295" s="2"/>
-      <c r="D295" s="2"/>
-      <c r="E295" s="2"/>
-      <c r="F295" s="2"/>
-      <c r="G295" s="2"/>
-      <c r="H295" s="2"/>
-      <c r="I295" s="2"/>
-      <c r="J295" s="2"/>
-      <c r="K295" s="2"/>
-      <c r="L295" s="2"/>
-      <c r="M295" s="2"/>
-      <c r="N295" s="2"/>
-      <c r="O295" s="3"/>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A296" s="1"/>
-      <c r="B296" s="2"/>
-      <c r="C296" s="2"/>
-      <c r="D296" s="2"/>
-      <c r="E296" s="2"/>
-      <c r="F296" s="2"/>
-      <c r="G296" s="2"/>
-      <c r="H296" s="2"/>
-      <c r="I296" s="2"/>
-      <c r="J296" s="2"/>
-      <c r="K296" s="2"/>
-      <c r="L296" s="2"/>
-      <c r="M296" s="2"/>
-      <c r="N296" s="2"/>
-      <c r="O296" s="3"/>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A297" s="1"/>
-      <c r="B297" s="2"/>
-      <c r="C297" s="2"/>
-      <c r="D297" s="2"/>
-      <c r="E297" s="2"/>
-      <c r="F297" s="2"/>
-      <c r="G297" s="2"/>
-      <c r="H297" s="2"/>
-      <c r="I297" s="2"/>
-      <c r="J297" s="2"/>
-      <c r="K297" s="2"/>
-      <c r="L297" s="2"/>
-      <c r="M297" s="2"/>
-      <c r="N297" s="2"/>
-      <c r="O297" s="3"/>
-    </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A298" s="1"/>
-      <c r="B298" s="2"/>
-      <c r="C298" s="2"/>
-      <c r="D298" s="2"/>
-      <c r="E298" s="2"/>
-      <c r="F298" s="2"/>
-      <c r="G298" s="2"/>
-      <c r="H298" s="2"/>
-      <c r="I298" s="2"/>
-      <c r="J298" s="2"/>
-      <c r="K298" s="2"/>
-      <c r="L298" s="2"/>
-      <c r="M298" s="2"/>
-      <c r="N298" s="2"/>
-      <c r="O298" s="3"/>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A299" s="1"/>
-      <c r="B299" s="2"/>
-      <c r="C299" s="2"/>
-      <c r="D299" s="2"/>
-      <c r="E299" s="2"/>
-      <c r="F299" s="2"/>
-      <c r="G299" s="2"/>
-      <c r="H299" s="2"/>
-      <c r="I299" s="2"/>
-      <c r="J299" s="2"/>
-      <c r="K299" s="2"/>
-      <c r="L299" s="2"/>
-      <c r="M299" s="2"/>
-      <c r="N299" s="2"/>
-      <c r="O299" s="3"/>
-    </row>
-    <row r="300" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A300" s="4"/>
-      <c r="B300" s="5"/>
-      <c r="C300" s="5"/>
-      <c r="D300" s="5"/>
-      <c r="E300" s="5"/>
-      <c r="F300" s="5"/>
-      <c r="G300" s="5"/>
-      <c r="H300" s="5"/>
-      <c r="I300" s="5"/>
-      <c r="J300" s="5"/>
-      <c r="K300" s="5"/>
-      <c r="L300" s="5"/>
-      <c r="M300" s="5"/>
-      <c r="N300" s="5"/>
-      <c r="O300" s="6"/>
+    <row r="290" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A290" s="4"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="5"/>
+      <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
+      <c r="G290" s="5"/>
+      <c r="H290" s="5"/>
+      <c r="I290" s="5"/>
+      <c r="J290" s="5"/>
+      <c r="K290" s="5"/>
+      <c r="L290" s="5"/>
+      <c r="M290" s="5"/>
+      <c r="N290" s="5"/>
+      <c r="O290" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A271:C272"/>
-    <mergeCell ref="D271:F272"/>
-    <mergeCell ref="G271:L272"/>
-    <mergeCell ref="M271:O271"/>
-    <mergeCell ref="M272:O272"/>
-    <mergeCell ref="A241:C242"/>
-    <mergeCell ref="D241:F242"/>
-    <mergeCell ref="G241:L242"/>
-    <mergeCell ref="M241:O241"/>
-    <mergeCell ref="M242:O242"/>
-    <mergeCell ref="A211:C212"/>
-    <mergeCell ref="D211:F212"/>
-    <mergeCell ref="G211:L212"/>
-    <mergeCell ref="M211:O211"/>
-    <mergeCell ref="M212:O212"/>
-    <mergeCell ref="A181:C182"/>
-    <mergeCell ref="D181:F182"/>
-    <mergeCell ref="G181:L182"/>
-    <mergeCell ref="M181:O181"/>
-    <mergeCell ref="M182:O182"/>
-    <mergeCell ref="A151:C152"/>
-    <mergeCell ref="D151:F152"/>
-    <mergeCell ref="G151:L152"/>
-    <mergeCell ref="M151:O151"/>
-    <mergeCell ref="M152:O152"/>
-    <mergeCell ref="A121:C122"/>
-    <mergeCell ref="D121:F122"/>
-    <mergeCell ref="G121:L122"/>
-    <mergeCell ref="M121:O121"/>
-    <mergeCell ref="M122:O122"/>
-    <mergeCell ref="A91:C92"/>
-    <mergeCell ref="D91:F92"/>
-    <mergeCell ref="G91:L92"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="M92:O92"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="D61:F62"/>
-    <mergeCell ref="G61:L62"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="A31:C32"/>
-    <mergeCell ref="D31:F32"/>
-    <mergeCell ref="G31:L32"/>
+    <mergeCell ref="A262:C263"/>
+    <mergeCell ref="D262:F263"/>
+    <mergeCell ref="G262:L263"/>
+    <mergeCell ref="M262:O262"/>
+    <mergeCell ref="M263:O263"/>
+    <mergeCell ref="A233:C234"/>
+    <mergeCell ref="D233:F234"/>
+    <mergeCell ref="G233:L234"/>
+    <mergeCell ref="M233:O233"/>
+    <mergeCell ref="M234:O234"/>
+    <mergeCell ref="A204:C205"/>
+    <mergeCell ref="D204:F205"/>
+    <mergeCell ref="G204:L205"/>
+    <mergeCell ref="M204:O204"/>
+    <mergeCell ref="M205:O205"/>
+    <mergeCell ref="A175:C176"/>
+    <mergeCell ref="D175:F176"/>
+    <mergeCell ref="G175:L176"/>
+    <mergeCell ref="M175:O175"/>
+    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="A146:C147"/>
+    <mergeCell ref="D146:F147"/>
+    <mergeCell ref="G146:L147"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="A117:C118"/>
+    <mergeCell ref="D117:F118"/>
+    <mergeCell ref="G117:L118"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
     <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:L2"/>
@@ -8134,18 +8234,21 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0" bottom="0.39370078740157483" header="0" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O180"/>
+  <dimension ref="A1:O174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q66" sqref="Q66"/>
+    <sheetView view="pageLayout" topLeftCell="A157" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="G182" sqref="G182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8636,83 +8739,83 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="3"/>
+    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="6"/>
-    </row>
-    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="7" t="s">
+      <c r="A30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="16" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="7" t="s">
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="14"/>
+      <c r="O30" s="15"/>
+    </row>
+    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31" s="14"/>
       <c r="O31" s="15"/>
     </row>
-    <row r="32" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="14"/>
-      <c r="O32" s="15"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
@@ -9139,100 +9242,100 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="6"/>
-    </row>
-    <row r="61" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A61" s="7" t="s">
+    <row r="58" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="6"/>
+    </row>
+    <row r="59" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="16" t="s">
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="17"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="7" t="s">
+      <c r="E59" s="17"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="13" t="s">
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N61" s="14"/>
-      <c r="O61" s="15"/>
-    </row>
-    <row r="62" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A62" s="10"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="13" t="s">
+      <c r="N59" s="14"/>
+      <c r="O59" s="15"/>
+    </row>
+    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="14"/>
-      <c r="O62" s="15"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="15"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="3"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1"/>
@@ -9642,117 +9745,117 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="1"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="1"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="1"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A90" s="4"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="6"/>
-    </row>
-    <row r="91" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A91" s="7" t="s">
+    <row r="87" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A87" s="4"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="6"/>
+    </row>
+    <row r="88" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A88" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="16" t="s">
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E91" s="17"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="7" t="s">
+      <c r="E88" s="17"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="13" t="s">
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N91" s="14"/>
-      <c r="O91" s="15"/>
-    </row>
-    <row r="92" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A92" s="10"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="13" t="s">
+      <c r="N88" s="14"/>
+      <c r="O88" s="15"/>
+    </row>
+    <row r="89" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A89" s="10"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N92" s="14"/>
-      <c r="O92" s="15"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="15"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="3"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1"/>
@@ -10145,56 +10248,66 @@
       <c r="N115" s="2"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="1"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="3"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="1"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="3"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="1"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" s="3"/>
+    <row r="116" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A116" s="4"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="6"/>
+    </row>
+    <row r="117" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A117" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="8"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="17"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N117" s="14"/>
+      <c r="O117" s="15"/>
+    </row>
+    <row r="118" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A118" s="10"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N118" s="14"/>
+      <c r="O118" s="15"/>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1"/>
@@ -10213,66 +10326,56 @@
       <c r="N119" s="2"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A120" s="4"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
-      <c r="L120" s="5"/>
-      <c r="M120" s="5"/>
-      <c r="N120" s="5"/>
-      <c r="O120" s="6"/>
-    </row>
-    <row r="121" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A121" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E121" s="17"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N121" s="14"/>
-      <c r="O121" s="15"/>
-    </row>
-    <row r="122" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A122" s="10"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="11"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="11"/>
-      <c r="L122" s="11"/>
-      <c r="M122" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N122" s="14"/>
-      <c r="O122" s="15"/>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="1"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="3"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="1"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="3"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="1"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="3"/>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1"/>
@@ -10648,56 +10751,66 @@
       <c r="N144" s="2"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="1"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
-      <c r="O145" s="3"/>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="1"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" s="3"/>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" s="1"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" s="3"/>
+    <row r="145" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A145" s="4"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="6"/>
+    </row>
+    <row r="146" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A146" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="8"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" s="17"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N146" s="14"/>
+      <c r="O146" s="15"/>
+    </row>
+    <row r="147" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A147" s="10"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="11"/>
+      <c r="M147" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N147" s="14"/>
+      <c r="O147" s="15"/>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1"/>
@@ -10733,66 +10846,56 @@
       <c r="N149" s="2"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A150" s="4"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5"/>
-      <c r="K150" s="5"/>
-      <c r="L150" s="5"/>
-      <c r="M150" s="5"/>
-      <c r="N150" s="5"/>
-      <c r="O150" s="6"/>
-    </row>
-    <row r="151" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A151" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B151" s="8"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E151" s="17"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H151" s="8"/>
-      <c r="I151" s="8"/>
-      <c r="J151" s="8"/>
-      <c r="K151" s="8"/>
-      <c r="L151" s="8"/>
-      <c r="M151" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N151" s="14"/>
-      <c r="O151" s="15"/>
-    </row>
-    <row r="152" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A152" s="10"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="20"/>
-      <c r="F152" s="21"/>
-      <c r="G152" s="10"/>
-      <c r="H152" s="11"/>
-      <c r="I152" s="11"/>
-      <c r="J152" s="11"/>
-      <c r="K152" s="11"/>
-      <c r="L152" s="11"/>
-      <c r="M152" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N152" s="14"/>
-      <c r="O152" s="15"/>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="1"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+      <c r="O150" s="3"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="1"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" s="3"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="1"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
+      <c r="O152" s="3"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1"/>
@@ -11151,172 +11254,73 @@
       <c r="N173" s="2"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A174" s="1"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
-      <c r="M174" s="2"/>
-      <c r="N174" s="2"/>
-      <c r="O174" s="3"/>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A175" s="1"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
-      <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
-      <c r="M175" s="2"/>
-      <c r="N175" s="2"/>
-      <c r="O175" s="3"/>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A176" s="1"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
-      <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
-      <c r="M176" s="2"/>
-      <c r="N176" s="2"/>
-      <c r="O176" s="3"/>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A177" s="1"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
-      <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
-      <c r="M177" s="2"/>
-      <c r="N177" s="2"/>
-      <c r="O177" s="3"/>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A178" s="1"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
-      <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
-      <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
-      <c r="M178" s="2"/>
-      <c r="N178" s="2"/>
-      <c r="O178" s="3"/>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A179" s="1"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
-      <c r="I179" s="2"/>
-      <c r="J179" s="2"/>
-      <c r="K179" s="2"/>
-      <c r="L179" s="2"/>
-      <c r="M179" s="2"/>
-      <c r="N179" s="2"/>
-      <c r="O179" s="3"/>
-    </row>
-    <row r="180" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A180" s="4"/>
-      <c r="B180" s="5"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
-      <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="5"/>
-      <c r="J180" s="5"/>
-      <c r="K180" s="5"/>
-      <c r="L180" s="5"/>
-      <c r="M180" s="5"/>
-      <c r="N180" s="5"/>
-      <c r="O180" s="6"/>
+    <row r="174" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A174" s="4"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5"/>
+      <c r="K174" s="5"/>
+      <c r="L174" s="5"/>
+      <c r="M174" s="5"/>
+      <c r="N174" s="5"/>
+      <c r="O174" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A121:C122"/>
-    <mergeCell ref="D121:F122"/>
-    <mergeCell ref="G121:L122"/>
-    <mergeCell ref="M121:O121"/>
-    <mergeCell ref="M122:O122"/>
-    <mergeCell ref="A151:C152"/>
-    <mergeCell ref="D151:F152"/>
-    <mergeCell ref="G151:L152"/>
-    <mergeCell ref="M151:O151"/>
-    <mergeCell ref="M152:O152"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="D61:F62"/>
-    <mergeCell ref="G61:L62"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="A91:C92"/>
-    <mergeCell ref="D91:F92"/>
-    <mergeCell ref="G91:L92"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="M92:O92"/>
+    <mergeCell ref="A117:C118"/>
+    <mergeCell ref="D117:F118"/>
+    <mergeCell ref="G117:L118"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="A146:C147"/>
+    <mergeCell ref="D146:F147"/>
+    <mergeCell ref="G146:L147"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:L2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A31:C32"/>
-    <mergeCell ref="D31:F32"/>
-    <mergeCell ref="G31:L32"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
     <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0" bottom="0.39370078740157483" header="0" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O120"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView view="pageLayout" topLeftCell="A101" zoomScale="40" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="A111" sqref="A110:XFD111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -11807,83 +11811,83 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="3"/>
+    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="6"/>
-    </row>
-    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="7" t="s">
+      <c r="A30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="7" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="7" t="s">
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="14"/>
+      <c r="O30" s="15"/>
+    </row>
+    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31" s="14"/>
       <c r="O31" s="15"/>
     </row>
-    <row r="32" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="14"/>
-      <c r="O32" s="15"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
@@ -12310,100 +12314,100 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="6"/>
-    </row>
-    <row r="61" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A61" s="7" t="s">
+    <row r="58" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="6"/>
+    </row>
+    <row r="59" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="7" t="s">
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="7" t="s">
+      <c r="E59" s="8"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="13" t="s">
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N61" s="14"/>
-      <c r="O61" s="15"/>
-    </row>
-    <row r="62" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A62" s="10"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="13" t="s">
+      <c r="N59" s="14"/>
+      <c r="O59" s="15"/>
+    </row>
+    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="14"/>
-      <c r="O62" s="15"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="15"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="3"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1"/>
@@ -12813,117 +12817,117 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="1"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="1"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="1"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A90" s="4"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="6"/>
-    </row>
-    <row r="91" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A91" s="7" t="s">
+    <row r="87" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A87" s="4"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="6"/>
+    </row>
+    <row r="88" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A88" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="7" t="s">
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="7" t="s">
+      <c r="E88" s="8"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="13" t="s">
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N91" s="14"/>
-      <c r="O91" s="15"/>
-    </row>
-    <row r="92" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A92" s="10"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="13" t="s">
+      <c r="N88" s="14"/>
+      <c r="O88" s="15"/>
+    </row>
+    <row r="89" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A89" s="10"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N92" s="14"/>
-      <c r="O92" s="15"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="15"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="3"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1"/>
@@ -13299,125 +13303,40 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="1"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="3"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="1"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="3"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="1"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="3"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="1"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" s="3"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="1"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="3"/>
-    </row>
-    <row r="120" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A120" s="4"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
-      <c r="L120" s="5"/>
-      <c r="M120" s="5"/>
-      <c r="N120" s="5"/>
-      <c r="O120" s="6"/>
+    <row r="115" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A115" s="4"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A91:C92"/>
-    <mergeCell ref="D91:F92"/>
-    <mergeCell ref="G91:L92"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="M92:O92"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="D61:F62"/>
-    <mergeCell ref="G61:L62"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="A31:C32"/>
-    <mergeCell ref="D31:F32"/>
-    <mergeCell ref="G31:L32"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
     <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M32:O32"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:L2"/>
@@ -13426,30 +13345,33 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0" bottom="0.39370078740157483" header="0" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
       <c r="D1" s="7" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
@@ -13928,39 +13850,22 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="6"/>
+    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -13972,7 +13877,11 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0" bottom="0.39370078740157483" header="0" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191153\Desktop\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20530" windowHeight="9160" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20535" windowHeight="9165" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="ER図" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">画面UI!$A$1:$O$290</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$A$1:$O$28</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -526,6 +527,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,15 +580,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1182,16 +1183,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>54610</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>140336</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>153670</xdr:rowOff>
+      <xdr:rowOff>112983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>481330</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>512504</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1214,8 +1215,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="727710" y="27217370"/>
-          <a:ext cx="9850120" cy="5923280"/>
+          <a:off x="140336" y="28345083"/>
+          <a:ext cx="9973368" cy="6135417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1291,15 +1292,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>218440</xdr:colOff>
+      <xdr:colOff>294640</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>71120</xdr:rowOff>
+      <xdr:rowOff>166370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>439420</xdr:colOff>
+      <xdr:colOff>515620</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>2540</xdr:rowOff>
+      <xdr:rowOff>97790</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1308,8 +1309,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7622540" y="32621220"/>
-          <a:ext cx="2240280" cy="388620"/>
+          <a:off x="7838440" y="34113470"/>
+          <a:ext cx="2278380" cy="407670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2472,146 +2473,146 @@
   <dimension ref="A10:M40"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="10" spans="1:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="24" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="15" spans="1:13" ht="30.75" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="E29" s="22" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="E29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-    </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D32" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
       <c r="J32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D34" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
       <c r="J34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
       <c r="J36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D38" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
       <c r="J38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D40" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
       <c r="J40" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A15:M15"/>
     <mergeCell ref="E29:I30"/>
     <mergeCell ref="E32:I32"/>
     <mergeCell ref="E34:I34"/>
     <mergeCell ref="E36:I36"/>
     <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A15:M15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2623,62 +2624,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
-    <col min="4" max="6" width="9.83203125" customWidth="1"/>
-    <col min="14" max="14" width="9.08203125" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="6" width="9.875" customWidth="1"/>
+    <col min="14" max="14" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="13" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="13" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2695,7 +2696,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2712,7 +2713,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2729,7 +2730,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2746,7 +2747,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2763,7 +2764,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2780,7 +2781,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2797,7 +2798,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2814,7 +2815,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2831,7 +2832,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2848,7 +2849,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2865,7 +2866,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2882,7 +2883,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2899,7 +2900,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2916,7 +2917,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2933,7 +2934,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2950,7 +2951,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2967,7 +2968,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2984,7 +2985,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3001,7 +3002,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3018,7 +3019,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3035,7 +3036,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3052,7 +3053,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3069,7 +3070,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3086,7 +3087,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3103,7 +3104,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3131,7 +3132,7 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.39370078740157483" header="0" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P ページ</oddFooter>
   </headerFooter>
@@ -3143,57 +3144,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O290"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A147" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="R205" sqref="R205"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="R141" sqref="R141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="13" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="13" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+    </row>
+    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3210,7 +3211,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3227,7 +3228,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3244,7 +3245,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3261,7 +3262,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3278,7 +3279,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3295,7 +3296,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3312,7 +3313,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3329,7 +3330,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3346,7 +3347,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3363,7 +3364,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3380,7 +3381,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3397,7 +3398,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3414,7 +3415,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3431,7 +3432,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3448,7 +3449,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3465,7 +3466,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3482,7 +3483,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3499,7 +3500,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3516,7 +3517,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3533,7 +3534,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3550,7 +3551,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3567,7 +3568,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3584,7 +3585,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3601,7 +3602,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3618,7 +3619,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3635,7 +3636,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3652,51 +3653,51 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="7" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="7" t="s">
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="13" t="s">
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="14"/>
-      <c r="O30" s="15"/>
-    </row>
-    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="13" t="s">
+      <c r="N30" s="17"/>
+      <c r="O30" s="18"/>
+    </row>
+    <row r="31" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N31" s="14"/>
-      <c r="O31" s="15"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N31" s="17"/>
+      <c r="O31" s="18"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3713,7 +3714,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3730,7 +3731,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3747,7 +3748,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3764,7 +3765,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3781,7 +3782,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3798,7 +3799,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3815,7 +3816,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3832,7 +3833,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3849,7 +3850,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3866,7 +3867,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3883,7 +3884,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3900,7 +3901,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3917,7 +3918,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3934,7 +3935,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3951,7 +3952,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3968,7 +3969,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3985,7 +3986,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4002,7 +4003,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4019,7 +4020,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4036,7 +4037,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4053,7 +4054,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4070,7 +4071,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4087,7 +4088,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4104,7 +4105,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4121,7 +4122,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4138,7 +4139,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4155,51 +4156,51 @@
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A59" s="7" t="s">
+    <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="7" t="s">
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="7" t="s">
+      <c r="E59" s="11"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="13" t="s">
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N59" s="14"/>
-      <c r="O59" s="15"/>
-    </row>
-    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A60" s="10"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="13" t="s">
+      <c r="N59" s="17"/>
+      <c r="O59" s="18"/>
+    </row>
+    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="13"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="14"/>
-      <c r="O60" s="15"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N60" s="17"/>
+      <c r="O60" s="18"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4216,7 +4217,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4233,7 +4234,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4250,7 +4251,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4267,7 +4268,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4284,7 +4285,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4301,7 +4302,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4318,7 +4319,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4335,7 +4336,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4352,7 +4353,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4369,7 +4370,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4386,7 +4387,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4403,7 +4404,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4420,7 +4421,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4437,7 +4438,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4454,7 +4455,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4471,7 +4472,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4488,7 +4489,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4505,7 +4506,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4522,7 +4523,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4539,7 +4540,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4556,7 +4557,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4573,7 +4574,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4590,7 +4591,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4607,7 +4608,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4624,7 +4625,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4641,7 +4642,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -4658,51 +4659,51 @@
       <c r="N87" s="5"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A88" s="7" t="s">
+    <row r="88" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="7" t="s">
+      <c r="B88" s="11"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="7" t="s">
+      <c r="E88" s="11"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="13" t="s">
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N88" s="14"/>
-      <c r="O88" s="15"/>
-    </row>
-    <row r="89" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A89" s="10"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="13" t="s">
+      <c r="N88" s="17"/>
+      <c r="O88" s="18"/>
+    </row>
+    <row r="89" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="13"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="14"/>
-      <c r="O89" s="15"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N89" s="17"/>
+      <c r="O89" s="18"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4719,7 +4720,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4736,7 +4737,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4753,7 +4754,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4770,7 +4771,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4787,7 +4788,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4804,7 +4805,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4821,7 +4822,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4838,7 +4839,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4855,7 +4856,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4872,7 +4873,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4889,7 +4890,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4906,7 +4907,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4923,7 +4924,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4940,7 +4941,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4957,7 +4958,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4974,7 +4975,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4991,7 +4992,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5008,7 +5009,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5025,7 +5026,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5042,7 +5043,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5059,7 +5060,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5076,7 +5077,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5093,7 +5094,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5110,7 +5111,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5127,7 +5128,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5144,7 +5145,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5161,51 +5162,51 @@
       <c r="N116" s="5"/>
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A117" s="7" t="s">
+    <row r="117" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A117" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B117" s="8"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="7" t="s">
+      <c r="B117" s="11"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E117" s="8"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="7" t="s">
+      <c r="E117" s="11"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
-      <c r="K117" s="8"/>
-      <c r="L117" s="8"/>
-      <c r="M117" s="13" t="s">
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N117" s="14"/>
-      <c r="O117" s="15"/>
-    </row>
-    <row r="118" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A118" s="10"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="11"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="11"/>
-      <c r="L118" s="11"/>
-      <c r="M118" s="13" t="s">
+      <c r="N117" s="17"/>
+      <c r="O117" s="18"/>
+    </row>
+    <row r="118" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="13"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="14"/>
+      <c r="K118" s="14"/>
+      <c r="L118" s="14"/>
+      <c r="M118" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N118" s="14"/>
-      <c r="O118" s="15"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N118" s="17"/>
+      <c r="O118" s="18"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5222,7 +5223,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5239,7 +5240,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5256,7 +5257,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5273,7 +5274,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5290,7 +5291,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5307,7 +5308,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5324,7 +5325,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5341,7 +5342,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5358,7 +5359,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5375,7 +5376,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5392,7 +5393,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5409,7 +5410,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5426,7 +5427,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5443,7 +5444,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5460,7 +5461,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5477,7 +5478,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5494,7 +5495,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5511,7 +5512,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5528,7 +5529,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5545,7 +5546,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5562,7 +5563,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5579,7 +5580,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5596,7 +5597,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5613,7 +5614,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5630,7 +5631,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5647,7 +5648,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5664,51 +5665,51 @@
       <c r="N145" s="2"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A146" s="7" t="s">
+    <row r="146" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A146" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B146" s="8"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="7" t="s">
+      <c r="B146" s="11"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E146" s="8"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="7" t="s">
+      <c r="E146" s="11"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
-      <c r="K146" s="8"/>
-      <c r="L146" s="8"/>
-      <c r="M146" s="13" t="s">
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="11"/>
+      <c r="L146" s="11"/>
+      <c r="M146" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N146" s="14"/>
-      <c r="O146" s="15"/>
-    </row>
-    <row r="147" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A147" s="10"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="11"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="11"/>
-      <c r="I147" s="11"/>
-      <c r="J147" s="11"/>
-      <c r="K147" s="11"/>
-      <c r="L147" s="11"/>
-      <c r="M147" s="13" t="s">
+      <c r="N146" s="17"/>
+      <c r="O146" s="18"/>
+    </row>
+    <row r="147" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A147" s="13"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="14"/>
+      <c r="J147" s="14"/>
+      <c r="K147" s="14"/>
+      <c r="L147" s="14"/>
+      <c r="M147" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N147" s="14"/>
-      <c r="O147" s="15"/>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N147" s="17"/>
+      <c r="O147" s="18"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5725,7 +5726,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5742,7 +5743,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5759,7 +5760,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -5776,7 +5777,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -5793,7 +5794,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -5810,7 +5811,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5827,7 +5828,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5844,7 +5845,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5861,7 +5862,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5878,7 +5879,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5895,7 +5896,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5912,7 +5913,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -5929,7 +5930,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -5946,7 +5947,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5963,7 +5964,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5980,7 +5981,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5997,7 +5998,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6014,7 +6015,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6031,7 +6032,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6048,7 +6049,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6065,7 +6066,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6082,7 +6083,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6099,7 +6100,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6116,7 +6117,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6133,7 +6134,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6150,7 +6151,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -6167,51 +6168,51 @@
       <c r="N174" s="5"/>
       <c r="O174" s="6"/>
     </row>
-    <row r="175" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A175" s="7" t="s">
+    <row r="175" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A175" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B175" s="8"/>
-      <c r="C175" s="9"/>
-      <c r="D175" s="7" t="s">
+      <c r="B175" s="11"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E175" s="8"/>
-      <c r="F175" s="9"/>
-      <c r="G175" s="7" t="s">
+      <c r="E175" s="11"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H175" s="8"/>
-      <c r="I175" s="8"/>
-      <c r="J175" s="8"/>
-      <c r="K175" s="8"/>
-      <c r="L175" s="8"/>
-      <c r="M175" s="13" t="s">
+      <c r="H175" s="11"/>
+      <c r="I175" s="11"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="11"/>
+      <c r="L175" s="11"/>
+      <c r="M175" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N175" s="14"/>
-      <c r="O175" s="15"/>
-    </row>
-    <row r="176" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A176" s="10"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="12"/>
-      <c r="D176" s="10"/>
-      <c r="E176" s="11"/>
-      <c r="F176" s="12"/>
-      <c r="G176" s="10"/>
-      <c r="H176" s="11"/>
-      <c r="I176" s="11"/>
-      <c r="J176" s="11"/>
-      <c r="K176" s="11"/>
-      <c r="L176" s="11"/>
-      <c r="M176" s="13" t="s">
+      <c r="N175" s="17"/>
+      <c r="O175" s="18"/>
+    </row>
+    <row r="176" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A176" s="13"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="15"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="14"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="14"/>
+      <c r="J176" s="14"/>
+      <c r="K176" s="14"/>
+      <c r="L176" s="14"/>
+      <c r="M176" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N176" s="14"/>
-      <c r="O176" s="15"/>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N176" s="17"/>
+      <c r="O176" s="18"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6228,7 +6229,7 @@
       <c r="N177" s="2"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6245,7 +6246,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6262,7 +6263,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6279,7 +6280,7 @@
       <c r="N180" s="2"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6296,7 +6297,7 @@
       <c r="N181" s="2"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6313,7 +6314,7 @@
       <c r="N182" s="2"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6330,7 +6331,7 @@
       <c r="N183" s="2"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6347,7 +6348,7 @@
       <c r="N184" s="2"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6364,7 +6365,7 @@
       <c r="N185" s="2"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6381,7 +6382,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6398,7 +6399,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6415,7 +6416,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6432,7 +6433,7 @@
       <c r="N189" s="2"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6449,7 +6450,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6466,7 +6467,7 @@
       <c r="N191" s="2"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6483,7 +6484,7 @@
       <c r="N192" s="2"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6500,7 +6501,7 @@
       <c r="N193" s="2"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6517,7 +6518,7 @@
       <c r="N194" s="2"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6534,7 +6535,7 @@
       <c r="N195" s="2"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6551,7 +6552,7 @@
       <c r="N196" s="2"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6568,7 +6569,7 @@
       <c r="N197" s="2"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6585,7 +6586,7 @@
       <c r="N198" s="2"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6602,7 +6603,7 @@
       <c r="N199" s="2"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6619,7 +6620,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6636,7 +6637,7 @@
       <c r="N201" s="2"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6653,7 +6654,7 @@
       <c r="N202" s="2"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -6670,51 +6671,51 @@
       <c r="N203" s="5"/>
       <c r="O203" s="6"/>
     </row>
-    <row r="204" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A204" s="7" t="s">
+    <row r="204" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A204" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B204" s="8"/>
-      <c r="C204" s="9"/>
-      <c r="D204" s="7" t="s">
+      <c r="B204" s="11"/>
+      <c r="C204" s="12"/>
+      <c r="D204" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E204" s="8"/>
-      <c r="F204" s="9"/>
-      <c r="G204" s="7" t="s">
+      <c r="E204" s="11"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H204" s="8"/>
-      <c r="I204" s="8"/>
-      <c r="J204" s="8"/>
-      <c r="K204" s="8"/>
-      <c r="L204" s="8"/>
-      <c r="M204" s="13" t="s">
+      <c r="H204" s="11"/>
+      <c r="I204" s="11"/>
+      <c r="J204" s="11"/>
+      <c r="K204" s="11"/>
+      <c r="L204" s="11"/>
+      <c r="M204" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N204" s="14"/>
-      <c r="O204" s="15"/>
-    </row>
-    <row r="205" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A205" s="10"/>
-      <c r="B205" s="11"/>
-      <c r="C205" s="12"/>
-      <c r="D205" s="10"/>
-      <c r="E205" s="11"/>
-      <c r="F205" s="12"/>
-      <c r="G205" s="10"/>
-      <c r="H205" s="11"/>
-      <c r="I205" s="11"/>
-      <c r="J205" s="11"/>
-      <c r="K205" s="11"/>
-      <c r="L205" s="11"/>
-      <c r="M205" s="13" t="s">
+      <c r="N204" s="17"/>
+      <c r="O204" s="18"/>
+    </row>
+    <row r="205" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A205" s="13"/>
+      <c r="B205" s="14"/>
+      <c r="C205" s="15"/>
+      <c r="D205" s="13"/>
+      <c r="E205" s="14"/>
+      <c r="F205" s="15"/>
+      <c r="G205" s="13"/>
+      <c r="H205" s="14"/>
+      <c r="I205" s="14"/>
+      <c r="J205" s="14"/>
+      <c r="K205" s="14"/>
+      <c r="L205" s="14"/>
+      <c r="M205" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N205" s="14"/>
-      <c r="O205" s="15"/>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N205" s="17"/>
+      <c r="O205" s="18"/>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6731,7 +6732,7 @@
       <c r="N206" s="2"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6748,7 +6749,7 @@
       <c r="N207" s="2"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6765,7 +6766,7 @@
       <c r="N208" s="2"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6782,7 +6783,7 @@
       <c r="N209" s="2"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6799,7 +6800,7 @@
       <c r="N210" s="2"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6816,7 +6817,7 @@
       <c r="N211" s="2"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6833,7 +6834,7 @@
       <c r="N212" s="2"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6850,7 +6851,7 @@
       <c r="N213" s="2"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6867,7 +6868,7 @@
       <c r="N214" s="2"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6884,7 +6885,7 @@
       <c r="N215" s="2"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6901,7 +6902,7 @@
       <c r="N216" s="2"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -6918,7 +6919,7 @@
       <c r="N217" s="2"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -6935,7 +6936,7 @@
       <c r="N218" s="2"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -6952,7 +6953,7 @@
       <c r="N219" s="2"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -6969,7 +6970,7 @@
       <c r="N220" s="2"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -6986,7 +6987,7 @@
       <c r="N221" s="2"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -7003,7 +7004,7 @@
       <c r="N222" s="2"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -7020,7 +7021,7 @@
       <c r="N223" s="2"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -7037,7 +7038,7 @@
       <c r="N224" s="2"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -7054,7 +7055,7 @@
       <c r="N225" s="2"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -7071,7 +7072,7 @@
       <c r="N226" s="2"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -7088,7 +7089,7 @@
       <c r="N227" s="2"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -7105,7 +7106,7 @@
       <c r="N228" s="2"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -7122,7 +7123,7 @@
       <c r="N229" s="2"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -7139,7 +7140,7 @@
       <c r="N230" s="2"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7156,7 +7157,7 @@
       <c r="N231" s="2"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -7173,51 +7174,51 @@
       <c r="N232" s="5"/>
       <c r="O232" s="6"/>
     </row>
-    <row r="233" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A233" s="7" t="s">
+    <row r="233" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A233" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B233" s="8"/>
-      <c r="C233" s="9"/>
-      <c r="D233" s="7" t="s">
+      <c r="B233" s="11"/>
+      <c r="C233" s="12"/>
+      <c r="D233" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E233" s="8"/>
-      <c r="F233" s="9"/>
-      <c r="G233" s="7" t="s">
+      <c r="E233" s="11"/>
+      <c r="F233" s="12"/>
+      <c r="G233" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H233" s="8"/>
-      <c r="I233" s="8"/>
-      <c r="J233" s="8"/>
-      <c r="K233" s="8"/>
-      <c r="L233" s="8"/>
-      <c r="M233" s="13" t="s">
+      <c r="H233" s="11"/>
+      <c r="I233" s="11"/>
+      <c r="J233" s="11"/>
+      <c r="K233" s="11"/>
+      <c r="L233" s="11"/>
+      <c r="M233" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N233" s="14"/>
-      <c r="O233" s="15"/>
-    </row>
-    <row r="234" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A234" s="10"/>
-      <c r="B234" s="11"/>
-      <c r="C234" s="12"/>
-      <c r="D234" s="10"/>
-      <c r="E234" s="11"/>
-      <c r="F234" s="12"/>
-      <c r="G234" s="10"/>
-      <c r="H234" s="11"/>
-      <c r="I234" s="11"/>
-      <c r="J234" s="11"/>
-      <c r="K234" s="11"/>
-      <c r="L234" s="11"/>
-      <c r="M234" s="13" t="s">
+      <c r="N233" s="17"/>
+      <c r="O233" s="18"/>
+    </row>
+    <row r="234" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A234" s="13"/>
+      <c r="B234" s="14"/>
+      <c r="C234" s="15"/>
+      <c r="D234" s="13"/>
+      <c r="E234" s="14"/>
+      <c r="F234" s="15"/>
+      <c r="G234" s="13"/>
+      <c r="H234" s="14"/>
+      <c r="I234" s="14"/>
+      <c r="J234" s="14"/>
+      <c r="K234" s="14"/>
+      <c r="L234" s="14"/>
+      <c r="M234" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N234" s="14"/>
-      <c r="O234" s="15"/>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N234" s="17"/>
+      <c r="O234" s="18"/>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7234,7 +7235,7 @@
       <c r="N235" s="2"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7251,7 +7252,7 @@
       <c r="N236" s="2"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7268,7 +7269,7 @@
       <c r="N237" s="2"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7285,7 +7286,7 @@
       <c r="N238" s="2"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7302,7 +7303,7 @@
       <c r="N239" s="2"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7319,7 +7320,7 @@
       <c r="N240" s="2"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7336,7 +7337,7 @@
       <c r="N241" s="2"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7353,7 +7354,7 @@
       <c r="N242" s="2"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7370,7 +7371,7 @@
       <c r="N243" s="2"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7387,7 +7388,7 @@
       <c r="N244" s="2"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7404,7 +7405,7 @@
       <c r="N245" s="2"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7421,7 +7422,7 @@
       <c r="N246" s="2"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7438,7 +7439,7 @@
       <c r="N247" s="2"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7455,7 +7456,7 @@
       <c r="N248" s="2"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7472,7 +7473,7 @@
       <c r="N249" s="2"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7489,7 +7490,7 @@
       <c r="N250" s="2"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7506,7 +7507,7 @@
       <c r="N251" s="2"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7523,7 +7524,7 @@
       <c r="N252" s="2"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7540,7 +7541,7 @@
       <c r="N253" s="2"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -7557,7 +7558,7 @@
       <c r="N254" s="2"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -7574,7 +7575,7 @@
       <c r="N255" s="2"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -7591,7 +7592,7 @@
       <c r="N256" s="2"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7608,7 +7609,7 @@
       <c r="N257" s="2"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -7625,7 +7626,7 @@
       <c r="N258" s="2"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -7642,7 +7643,7 @@
       <c r="N259" s="2"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -7659,7 +7660,7 @@
       <c r="N260" s="2"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A261" s="4"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -7676,51 +7677,51 @@
       <c r="N261" s="5"/>
       <c r="O261" s="6"/>
     </row>
-    <row r="262" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A262" s="7" t="s">
+    <row r="262" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A262" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B262" s="8"/>
-      <c r="C262" s="9"/>
-      <c r="D262" s="7" t="s">
+      <c r="B262" s="11"/>
+      <c r="C262" s="12"/>
+      <c r="D262" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E262" s="8"/>
-      <c r="F262" s="9"/>
-      <c r="G262" s="7" t="s">
+      <c r="E262" s="11"/>
+      <c r="F262" s="12"/>
+      <c r="G262" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H262" s="8"/>
-      <c r="I262" s="8"/>
-      <c r="J262" s="8"/>
-      <c r="K262" s="8"/>
-      <c r="L262" s="8"/>
-      <c r="M262" s="13" t="s">
+      <c r="H262" s="11"/>
+      <c r="I262" s="11"/>
+      <c r="J262" s="11"/>
+      <c r="K262" s="11"/>
+      <c r="L262" s="11"/>
+      <c r="M262" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N262" s="14"/>
-      <c r="O262" s="15"/>
-    </row>
-    <row r="263" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A263" s="10"/>
-      <c r="B263" s="11"/>
-      <c r="C263" s="12"/>
-      <c r="D263" s="10"/>
-      <c r="E263" s="11"/>
-      <c r="F263" s="12"/>
-      <c r="G263" s="10"/>
-      <c r="H263" s="11"/>
-      <c r="I263" s="11"/>
-      <c r="J263" s="11"/>
-      <c r="K263" s="11"/>
-      <c r="L263" s="11"/>
-      <c r="M263" s="13" t="s">
+      <c r="N262" s="17"/>
+      <c r="O262" s="18"/>
+    </row>
+    <row r="263" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A263" s="13"/>
+      <c r="B263" s="14"/>
+      <c r="C263" s="15"/>
+      <c r="D263" s="13"/>
+      <c r="E263" s="14"/>
+      <c r="F263" s="15"/>
+      <c r="G263" s="13"/>
+      <c r="H263" s="14"/>
+      <c r="I263" s="14"/>
+      <c r="J263" s="14"/>
+      <c r="K263" s="14"/>
+      <c r="L263" s="14"/>
+      <c r="M263" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N263" s="14"/>
-      <c r="O263" s="15"/>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N263" s="17"/>
+      <c r="O263" s="18"/>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -7737,7 +7738,7 @@
       <c r="N264" s="2"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -7754,7 +7755,7 @@
       <c r="N265" s="2"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -7771,7 +7772,7 @@
       <c r="N266" s="2"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -7788,7 +7789,7 @@
       <c r="N267" s="2"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -7805,7 +7806,7 @@
       <c r="N268" s="2"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -7822,7 +7823,7 @@
       <c r="N269" s="2"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -7839,7 +7840,7 @@
       <c r="N270" s="2"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -7856,7 +7857,7 @@
       <c r="N271" s="2"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -7873,7 +7874,7 @@
       <c r="N272" s="2"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -7890,7 +7891,7 @@
       <c r="N273" s="2"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -7907,7 +7908,7 @@
       <c r="N274" s="2"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -7924,7 +7925,7 @@
       <c r="N275" s="2"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -7941,7 +7942,7 @@
       <c r="N276" s="2"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -7958,7 +7959,7 @@
       <c r="N277" s="2"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -7975,7 +7976,7 @@
       <c r="N278" s="2"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -7992,7 +7993,7 @@
       <c r="N279" s="2"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8009,7 +8010,7 @@
       <c r="N280" s="2"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -8026,7 +8027,7 @@
       <c r="N281" s="2"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8043,7 +8044,7 @@
       <c r="N282" s="2"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8060,7 +8061,7 @@
       <c r="N283" s="2"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8077,7 +8078,7 @@
       <c r="N284" s="2"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8094,7 +8095,7 @@
       <c r="N285" s="2"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8111,7 +8112,7 @@
       <c r="N286" s="2"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8128,7 +8129,7 @@
       <c r="N287" s="2"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8145,7 +8146,7 @@
       <c r="N288" s="2"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -8162,7 +8163,7 @@
       <c r="N289" s="2"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -8181,64 +8182,75 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A117:C118"/>
+    <mergeCell ref="D117:F118"/>
+    <mergeCell ref="G117:L118"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="A146:C147"/>
+    <mergeCell ref="D146:F147"/>
+    <mergeCell ref="G146:L147"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="A175:C176"/>
+    <mergeCell ref="D175:F176"/>
+    <mergeCell ref="G175:L176"/>
+    <mergeCell ref="M175:O175"/>
+    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="A204:C205"/>
+    <mergeCell ref="D204:F205"/>
+    <mergeCell ref="G204:L205"/>
+    <mergeCell ref="M204:O204"/>
+    <mergeCell ref="M205:O205"/>
+    <mergeCell ref="A233:C234"/>
+    <mergeCell ref="D233:F234"/>
+    <mergeCell ref="G233:L234"/>
+    <mergeCell ref="M233:O233"/>
+    <mergeCell ref="M234:O234"/>
     <mergeCell ref="A262:C263"/>
     <mergeCell ref="D262:F263"/>
     <mergeCell ref="G262:L263"/>
     <mergeCell ref="M262:O262"/>
     <mergeCell ref="M263:O263"/>
-    <mergeCell ref="A233:C234"/>
-    <mergeCell ref="D233:F234"/>
-    <mergeCell ref="G233:L234"/>
-    <mergeCell ref="M233:O233"/>
-    <mergeCell ref="M234:O234"/>
-    <mergeCell ref="A204:C205"/>
-    <mergeCell ref="D204:F205"/>
-    <mergeCell ref="G204:L205"/>
-    <mergeCell ref="M204:O204"/>
-    <mergeCell ref="M205:O205"/>
-    <mergeCell ref="A175:C176"/>
-    <mergeCell ref="D175:F176"/>
-    <mergeCell ref="G175:L176"/>
-    <mergeCell ref="M175:O175"/>
-    <mergeCell ref="M176:O176"/>
-    <mergeCell ref="A146:C147"/>
-    <mergeCell ref="D146:F147"/>
-    <mergeCell ref="G146:L147"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="A117:C118"/>
-    <mergeCell ref="D117:F118"/>
-    <mergeCell ref="G117:L118"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.39370078740157483" header="0" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
+  <rowBreaks count="9" manualBreakCount="9">
+    <brk id="29" max="14" man="1"/>
+    <brk id="58" max="14" man="1"/>
+    <brk id="87" max="14" man="1"/>
+    <brk id="116" max="14" man="1"/>
+    <brk id="145" max="14" man="1"/>
+    <brk id="174" max="14" man="1"/>
+    <brk id="203" max="14" man="1"/>
+    <brk id="232" max="14" man="1"/>
+    <brk id="261" max="14" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -8247,57 +8259,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O174"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A157" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="G182" sqref="G182"/>
+    <sheetView topLeftCell="A126" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="K157" sqref="K157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="13" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="13" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+    </row>
+    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8314,7 +8326,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -8331,7 +8343,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -8348,7 +8360,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -8365,7 +8377,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -8382,7 +8394,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -8399,7 +8411,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -8416,7 +8428,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -8433,7 +8445,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -8450,7 +8462,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -8467,7 +8479,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -8484,7 +8496,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -8501,7 +8513,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -8518,7 +8530,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -8535,7 +8547,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8552,7 +8564,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8569,7 +8581,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -8586,7 +8598,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8603,7 +8615,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8620,7 +8632,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8637,7 +8649,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8654,7 +8666,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8671,7 +8683,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8688,7 +8700,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8705,7 +8717,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8722,7 +8734,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8739,7 +8751,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -8756,51 +8768,51 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="16" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="7" t="s">
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="13" t="s">
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="14"/>
-      <c r="O30" s="15"/>
-    </row>
-    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="13" t="s">
+      <c r="N30" s="17"/>
+      <c r="O30" s="18"/>
+    </row>
+    <row r="31" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N31" s="14"/>
-      <c r="O31" s="15"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N31" s="17"/>
+      <c r="O31" s="18"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -8817,7 +8829,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8834,7 +8846,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8851,7 +8863,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8868,7 +8880,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -8885,7 +8897,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -8902,7 +8914,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -8919,7 +8931,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -8936,7 +8948,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -8953,7 +8965,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -8970,7 +8982,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -8987,7 +8999,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -9004,7 +9016,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -9021,7 +9033,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -9038,7 +9050,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -9055,7 +9067,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -9072,7 +9084,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -9089,7 +9101,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -9106,7 +9118,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -9123,7 +9135,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -9140,7 +9152,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -9157,7 +9169,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -9174,7 +9186,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -9191,7 +9203,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -9208,7 +9220,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -9225,7 +9237,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -9242,7 +9254,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -9259,51 +9271,51 @@
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A59" s="7" t="s">
+    <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="16" t="s">
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="7" t="s">
+      <c r="E59" s="20"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="13" t="s">
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N59" s="14"/>
-      <c r="O59" s="15"/>
-    </row>
-    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A60" s="10"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="13" t="s">
+      <c r="N59" s="17"/>
+      <c r="O59" s="18"/>
+    </row>
+    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="13"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="14"/>
-      <c r="O60" s="15"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N60" s="17"/>
+      <c r="O60" s="18"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -9320,7 +9332,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -9337,7 +9349,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -9354,7 +9366,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -9371,7 +9383,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -9388,7 +9400,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -9405,7 +9417,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -9422,7 +9434,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -9439,7 +9451,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -9456,7 +9468,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -9473,7 +9485,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -9490,7 +9502,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -9507,7 +9519,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -9524,7 +9536,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -9541,7 +9553,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -9558,7 +9570,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -9575,7 +9587,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -9592,7 +9604,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -9609,7 +9621,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -9626,7 +9638,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -9643,7 +9655,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -9660,7 +9672,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -9677,7 +9689,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -9694,7 +9706,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -9711,7 +9723,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -9728,7 +9740,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -9745,7 +9757,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -9762,51 +9774,51 @@
       <c r="N87" s="5"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A88" s="7" t="s">
+    <row r="88" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="16" t="s">
+      <c r="B88" s="11"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E88" s="17"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="7" t="s">
+      <c r="E88" s="20"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="13" t="s">
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N88" s="14"/>
-      <c r="O88" s="15"/>
-    </row>
-    <row r="89" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A89" s="10"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="13" t="s">
+      <c r="N88" s="17"/>
+      <c r="O88" s="18"/>
+    </row>
+    <row r="89" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="13"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="14"/>
-      <c r="O89" s="15"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N89" s="17"/>
+      <c r="O89" s="18"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -9823,7 +9835,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -9840,7 +9852,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -9857,7 +9869,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -9874,7 +9886,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -9891,7 +9903,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -9908,7 +9920,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -9925,7 +9937,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -9942,7 +9954,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -9959,7 +9971,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -9976,7 +9988,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -9993,7 +10005,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -10010,7 +10022,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -10027,7 +10039,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -10044,7 +10056,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -10061,7 +10073,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -10078,7 +10090,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -10095,7 +10107,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -10112,7 +10124,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -10129,7 +10141,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -10146,7 +10158,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -10163,7 +10175,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -10180,7 +10192,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -10197,7 +10209,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -10214,7 +10226,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -10231,7 +10243,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -10248,7 +10260,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -10265,51 +10277,51 @@
       <c r="N116" s="5"/>
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A117" s="7" t="s">
+    <row r="117" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A117" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="8"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="16" t="s">
+      <c r="B117" s="11"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E117" s="17"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="7" t="s">
+      <c r="E117" s="20"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
-      <c r="K117" s="8"/>
-      <c r="L117" s="8"/>
-      <c r="M117" s="13" t="s">
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N117" s="14"/>
-      <c r="O117" s="15"/>
-    </row>
-    <row r="118" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A118" s="10"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="11"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="11"/>
-      <c r="L118" s="11"/>
-      <c r="M118" s="13" t="s">
+      <c r="N117" s="17"/>
+      <c r="O117" s="18"/>
+    </row>
+    <row r="118" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="13"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="14"/>
+      <c r="K118" s="14"/>
+      <c r="L118" s="14"/>
+      <c r="M118" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N118" s="14"/>
-      <c r="O118" s="15"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N118" s="17"/>
+      <c r="O118" s="18"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -10326,7 +10338,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -10343,7 +10355,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -10360,7 +10372,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -10377,7 +10389,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -10394,7 +10406,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -10411,7 +10423,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -10428,7 +10440,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -10445,7 +10457,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -10462,7 +10474,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -10479,7 +10491,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -10496,7 +10508,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -10513,7 +10525,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -10530,7 +10542,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -10547,7 +10559,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -10564,7 +10576,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -10581,7 +10593,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -10598,7 +10610,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -10615,7 +10627,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -10632,7 +10644,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -10649,7 +10661,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -10666,7 +10678,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -10683,7 +10695,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -10700,7 +10712,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -10717,7 +10729,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -10734,7 +10746,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -10751,7 +10763,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -10768,51 +10780,51 @@
       <c r="N145" s="5"/>
       <c r="O145" s="6"/>
     </row>
-    <row r="146" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A146" s="7" t="s">
+    <row r="146" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A146" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B146" s="8"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="16" t="s">
+      <c r="B146" s="11"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E146" s="17"/>
-      <c r="F146" s="18"/>
-      <c r="G146" s="7" t="s">
+      <c r="E146" s="20"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
-      <c r="K146" s="8"/>
-      <c r="L146" s="8"/>
-      <c r="M146" s="13" t="s">
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="11"/>
+      <c r="L146" s="11"/>
+      <c r="M146" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N146" s="14"/>
-      <c r="O146" s="15"/>
-    </row>
-    <row r="147" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A147" s="10"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="21"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="11"/>
-      <c r="I147" s="11"/>
-      <c r="J147" s="11"/>
-      <c r="K147" s="11"/>
-      <c r="L147" s="11"/>
-      <c r="M147" s="13" t="s">
+      <c r="N146" s="17"/>
+      <c r="O146" s="18"/>
+    </row>
+    <row r="147" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A147" s="13"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="22"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="24"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="14"/>
+      <c r="J147" s="14"/>
+      <c r="K147" s="14"/>
+      <c r="L147" s="14"/>
+      <c r="M147" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N147" s="14"/>
-      <c r="O147" s="15"/>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N147" s="17"/>
+      <c r="O147" s="18"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -10829,7 +10841,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -10846,7 +10858,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -10863,7 +10875,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -10880,7 +10892,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -10897,7 +10909,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -10914,7 +10926,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -10931,7 +10943,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -10948,7 +10960,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -10965,7 +10977,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -10982,7 +10994,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -10999,7 +11011,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -11016,7 +11028,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -11033,7 +11045,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -11050,7 +11062,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -11067,7 +11079,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -11084,7 +11096,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -11101,7 +11113,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -11118,7 +11130,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -11135,7 +11147,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -11152,7 +11164,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -11169,7 +11181,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -11186,7 +11198,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -11203,7 +11215,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -11220,7 +11232,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -11237,7 +11249,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -11254,7 +11266,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -11273,44 +11285,51 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A146:C147"/>
+    <mergeCell ref="D146:F147"/>
+    <mergeCell ref="G146:L147"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="M147:O147"/>
     <mergeCell ref="A117:C118"/>
     <mergeCell ref="D117:F118"/>
     <mergeCell ref="G117:L118"/>
     <mergeCell ref="M117:O117"/>
     <mergeCell ref="M118:O118"/>
-    <mergeCell ref="A146:C147"/>
-    <mergeCell ref="D146:F147"/>
-    <mergeCell ref="G146:L147"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.39370078740157483" header="0" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
+  <rowBreaks count="5" manualBreakCount="5">
+    <brk id="29" max="16383" man="1"/>
+    <brk id="58" max="16383" man="1"/>
+    <brk id="87" max="16383" man="1"/>
+    <brk id="116" max="16383" man="1"/>
+    <brk id="145" max="16383" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -11319,57 +11338,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A101" zoomScale="40" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="A111" sqref="A110:XFD111"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="J119" sqref="J119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="13" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="13" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+    </row>
+    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -11386,7 +11405,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -11403,7 +11422,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -11420,7 +11439,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -11437,7 +11456,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -11454,7 +11473,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -11471,7 +11490,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -11488,7 +11507,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -11505,7 +11524,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -11522,7 +11541,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -11539,7 +11558,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -11556,7 +11575,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -11573,7 +11592,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -11590,7 +11609,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -11607,7 +11626,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -11624,7 +11643,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -11641,7 +11660,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -11658,7 +11677,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -11675,7 +11694,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -11692,7 +11711,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -11709,7 +11728,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -11726,7 +11745,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -11743,7 +11762,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -11760,7 +11779,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -11777,7 +11796,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -11794,7 +11813,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -11811,7 +11830,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -11828,51 +11847,51 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="7" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="7" t="s">
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="13" t="s">
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="14"/>
-      <c r="O30" s="15"/>
-    </row>
-    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="13" t="s">
+      <c r="N30" s="17"/>
+      <c r="O30" s="18"/>
+    </row>
+    <row r="31" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N31" s="14"/>
-      <c r="O31" s="15"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N31" s="17"/>
+      <c r="O31" s="18"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -11889,7 +11908,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -11906,7 +11925,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -11923,7 +11942,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -11940,7 +11959,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -11957,7 +11976,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -11974,7 +11993,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -11991,7 +12010,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -12008,7 +12027,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -12025,7 +12044,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -12042,7 +12061,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -12059,7 +12078,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -12076,7 +12095,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -12093,7 +12112,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -12110,7 +12129,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -12127,7 +12146,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -12144,7 +12163,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -12161,7 +12180,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -12178,7 +12197,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -12195,7 +12214,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -12212,7 +12231,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -12229,7 +12248,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -12246,7 +12265,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -12263,7 +12282,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -12280,7 +12299,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -12297,7 +12316,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -12314,7 +12333,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -12331,51 +12350,51 @@
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A59" s="7" t="s">
+    <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="7" t="s">
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="7" t="s">
+      <c r="E59" s="11"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="13" t="s">
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N59" s="14"/>
-      <c r="O59" s="15"/>
-    </row>
-    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A60" s="10"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="13" t="s">
+      <c r="N59" s="17"/>
+      <c r="O59" s="18"/>
+    </row>
+    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="13"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="14"/>
-      <c r="O60" s="15"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N60" s="17"/>
+      <c r="O60" s="18"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -12392,7 +12411,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -12409,7 +12428,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -12426,7 +12445,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -12443,7 +12462,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -12460,7 +12479,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -12477,7 +12496,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -12494,7 +12513,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -12511,7 +12530,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -12528,7 +12547,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -12545,7 +12564,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -12562,7 +12581,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -12579,7 +12598,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -12596,7 +12615,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -12613,7 +12632,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -12630,7 +12649,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -12647,7 +12666,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -12664,7 +12683,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -12681,7 +12700,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -12698,7 +12717,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -12715,7 +12734,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -12732,7 +12751,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -12749,7 +12768,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -12766,7 +12785,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -12783,7 +12802,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -12800,7 +12819,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -12817,7 +12836,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -12834,51 +12853,51 @@
       <c r="N87" s="5"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A88" s="7" t="s">
+    <row r="88" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="7" t="s">
+      <c r="B88" s="11"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="7" t="s">
+      <c r="E88" s="11"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="13" t="s">
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N88" s="14"/>
-      <c r="O88" s="15"/>
-    </row>
-    <row r="89" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A89" s="10"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="13" t="s">
+      <c r="N88" s="17"/>
+      <c r="O88" s="18"/>
+    </row>
+    <row r="89" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="13"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="14"/>
-      <c r="O89" s="15"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N89" s="17"/>
+      <c r="O89" s="18"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -12895,7 +12914,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -12912,7 +12931,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -12929,7 +12948,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -12946,7 +12965,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -12963,7 +12982,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -12980,7 +12999,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -12997,7 +13016,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -13014,7 +13033,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -13031,7 +13050,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -13048,7 +13067,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -13065,7 +13084,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -13082,7 +13101,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -13099,7 +13118,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -13116,7 +13135,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -13133,7 +13152,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -13150,7 +13169,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -13167,7 +13186,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -13184,7 +13203,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -13201,7 +13220,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -13218,7 +13237,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -13235,7 +13254,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -13252,7 +13271,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -13269,7 +13288,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -13286,7 +13305,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -13303,7 +13322,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -13322,34 +13341,39 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
     <mergeCell ref="A88:C89"/>
     <mergeCell ref="D88:F89"/>
     <mergeCell ref="G88:L89"/>
     <mergeCell ref="M88:O88"/>
     <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.39370078740157483" header="0" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="29" max="16383" man="1"/>
+    <brk id="58" max="16383" man="1"/>
+    <brk id="87" max="16383" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -13358,57 +13382,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="13" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="13" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+    </row>
+    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -13425,7 +13449,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -13442,7 +13466,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -13459,7 +13483,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -13476,7 +13500,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -13493,7 +13517,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -13510,7 +13534,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -13527,7 +13551,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -13544,7 +13568,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -13561,7 +13585,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -13578,7 +13602,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -13595,7 +13619,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -13612,7 +13636,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -13629,7 +13653,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -13646,7 +13670,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -13663,7 +13687,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -13680,7 +13704,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -13697,7 +13721,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -13714,7 +13738,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -13731,7 +13755,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -13748,7 +13772,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -13765,7 +13789,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -13782,7 +13806,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -13799,7 +13823,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -13816,7 +13840,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -13833,7 +13857,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -13850,7 +13874,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -13878,7 +13902,7 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.39370078740157483" header="0" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191153\Desktop\sotuken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20535" windowHeight="9165" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20535" windowHeight="9165" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="画面遷移図" sheetId="4" r:id="rId4"/>
     <sheet name="テーブル定義" sheetId="5" r:id="rId5"/>
     <sheet name="ER図" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">ER図!$A$1:$O$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">画面UI!$A$1:$O$290</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$A$1:$O$28</definedName>
   </definedNames>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="41">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -321,6 +323,13 @@
   </si>
   <si>
     <t>21p</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロジェクト構造</t>
+    <rPh sb="6" eb="8">
+      <t>コウゾウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3144,7 +3153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView topLeftCell="A260" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="R141" sqref="R141"/>
     </sheetView>
   </sheetViews>
@@ -8182,56 +8191,56 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A262:C263"/>
+    <mergeCell ref="D262:F263"/>
+    <mergeCell ref="G262:L263"/>
+    <mergeCell ref="M262:O262"/>
+    <mergeCell ref="M263:O263"/>
+    <mergeCell ref="A233:C234"/>
+    <mergeCell ref="D233:F234"/>
+    <mergeCell ref="G233:L234"/>
+    <mergeCell ref="M233:O233"/>
+    <mergeCell ref="M234:O234"/>
+    <mergeCell ref="A204:C205"/>
+    <mergeCell ref="D204:F205"/>
+    <mergeCell ref="G204:L205"/>
+    <mergeCell ref="M204:O204"/>
+    <mergeCell ref="M205:O205"/>
+    <mergeCell ref="A175:C176"/>
+    <mergeCell ref="D175:F176"/>
+    <mergeCell ref="G175:L176"/>
+    <mergeCell ref="M175:O175"/>
+    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="A146:C147"/>
+    <mergeCell ref="D146:F147"/>
+    <mergeCell ref="G146:L147"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="A117:C118"/>
+    <mergeCell ref="D117:F118"/>
+    <mergeCell ref="G117:L118"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:L2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A117:C118"/>
-    <mergeCell ref="D117:F118"/>
-    <mergeCell ref="G117:L118"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="A146:C147"/>
-    <mergeCell ref="D146:F147"/>
-    <mergeCell ref="G146:L147"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="A175:C176"/>
-    <mergeCell ref="D175:F176"/>
-    <mergeCell ref="G175:L176"/>
-    <mergeCell ref="M175:O175"/>
-    <mergeCell ref="M176:O176"/>
-    <mergeCell ref="A204:C205"/>
-    <mergeCell ref="D204:F205"/>
-    <mergeCell ref="G204:L205"/>
-    <mergeCell ref="M204:O204"/>
-    <mergeCell ref="M205:O205"/>
-    <mergeCell ref="A233:C234"/>
-    <mergeCell ref="D233:F234"/>
-    <mergeCell ref="G233:L234"/>
-    <mergeCell ref="M233:O233"/>
-    <mergeCell ref="M234:O234"/>
-    <mergeCell ref="A262:C263"/>
-    <mergeCell ref="D262:F263"/>
-    <mergeCell ref="G262:L263"/>
-    <mergeCell ref="M262:O262"/>
-    <mergeCell ref="M263:O263"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -11285,36 +11294,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A117:C118"/>
+    <mergeCell ref="D117:F118"/>
+    <mergeCell ref="G117:L118"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="A146:C147"/>
+    <mergeCell ref="D146:F147"/>
+    <mergeCell ref="G146:L147"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="A30:C31"/>
     <mergeCell ref="D30:F31"/>
     <mergeCell ref="G30:L31"/>
     <mergeCell ref="M30:O30"/>
     <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A146:C147"/>
-    <mergeCell ref="D146:F147"/>
-    <mergeCell ref="G146:L147"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="A117:C118"/>
-    <mergeCell ref="D117:F118"/>
-    <mergeCell ref="G117:L118"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="M118:O118"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -11338,8 +11347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="J119" sqref="J119"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection sqref="A1:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13341,26 +13350,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:L2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -13382,8 +13391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F2"/>
+    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13908,4 +13917,533 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+    </row>
+    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0.39370078740157483" header="0" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20535" windowHeight="9165" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20540" windowHeight="9170"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -152,22 +152,6 @@
     </rPh>
     <rPh sb="2" eb="5">
       <t>センイズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>登録画面からログイン画面への遷移</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -329,6 +313,97 @@
     <t>プロジェクト構造</t>
     <rPh sb="6" eb="8">
       <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成者:中村竜誠</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナカムラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成者:萬翼</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨロズ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツバサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成日:2020/10/26</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成者:大沼賢斗</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オオヌマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケント</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成者:大沼賢斗</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オオヌマ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成者:藤田涼佑</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フジタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成者:藤田涼佑</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フジタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リョウスケ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2014,7 +2089,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>665668</xdr:colOff>
+      <xdr:colOff>659318</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -2481,15 +2556,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2504,9 +2579,9 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="15" spans="1:13" ht="30.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2521,25 +2596,25 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="E29" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>0</v>
@@ -2549,12 +2624,12 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D34" t="s">
-        <v>32</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>7</v>
@@ -2564,52 +2639,52 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D36" t="s">
-        <v>34</v>
-      </c>
       <c r="E36" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D38" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D38" t="s">
-        <v>36</v>
-      </c>
       <c r="E38" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D40" t="s">
-        <v>38</v>
-      </c>
       <c r="E40" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2624,8 +2699,11 @@
     <mergeCell ref="E38:I38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2633,18 +2711,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="6" width="9.875" customWidth="1"/>
-    <col min="14" max="14" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="6" width="9.83203125" customWidth="1"/>
+    <col min="14" max="14" width="9.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2664,12 +2742,12 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="16" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -2683,12 +2761,12 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2705,7 +2783,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2722,7 +2800,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2739,7 +2817,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2756,7 +2834,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2773,7 +2851,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2790,7 +2868,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2807,7 +2885,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2824,7 +2902,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2841,7 +2919,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2858,7 +2936,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2875,7 +2953,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2892,7 +2970,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2909,7 +2987,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2926,7 +3004,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2943,7 +3021,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2960,7 +3038,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2977,7 +3055,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2994,7 +3072,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3011,7 +3089,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3028,7 +3106,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3045,7 +3123,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3062,7 +3140,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3079,7 +3157,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3096,7 +3174,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3113,7 +3191,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3143,7 +3221,7 @@
   <pageMargins left="0" right="0" top="0" bottom="0.39370078740157483" header="0" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;P ページ</oddFooter>
+    <oddFooter xml:space="preserve">&amp;C&amp;P </oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3153,13 +3231,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O290"/>
   <sheetViews>
-    <sheetView topLeftCell="A260" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="R141" sqref="R141"/>
+    <sheetView topLeftCell="H252" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="Q263" sqref="Q263"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -3179,12 +3257,12 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="16" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -3198,12 +3276,12 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3220,7 +3298,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3237,7 +3315,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3254,7 +3332,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3271,7 +3349,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3288,7 +3366,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3305,7 +3383,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3322,7 +3400,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3339,7 +3417,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3356,7 +3434,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3373,7 +3451,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3390,7 +3468,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3407,7 +3485,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3424,7 +3502,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3441,7 +3519,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3458,7 +3536,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3475,7 +3553,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3492,7 +3570,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3509,7 +3587,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3526,7 +3604,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3543,7 +3621,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3560,7 +3638,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3577,7 +3655,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3594,7 +3672,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3611,7 +3689,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3628,7 +3706,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3645,7 +3723,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3662,7 +3740,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
@@ -3682,12 +3760,12 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="16" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="N30" s="17"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -3701,12 +3779,12 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3723,7 +3801,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3740,7 +3818,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3757,7 +3835,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3774,7 +3852,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3791,7 +3869,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3808,7 +3886,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3825,7 +3903,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3842,7 +3920,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3859,7 +3937,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3876,7 +3954,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3893,7 +3971,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3910,7 +3988,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3927,7 +4005,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3944,7 +4022,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3961,7 +4039,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3978,7 +4056,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3995,7 +4073,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4012,7 +4090,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4029,7 +4107,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4046,7 +4124,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4063,7 +4141,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4080,7 +4158,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4097,7 +4175,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4114,7 +4192,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4131,7 +4209,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4148,7 +4226,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4165,7 +4243,7 @@
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="10" t="s">
         <v>7</v>
       </c>
@@ -4185,12 +4263,12 @@
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
       <c r="M59" s="16" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="N59" s="17"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
@@ -4204,12 +4282,12 @@
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
       <c r="M60" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4226,7 +4304,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4243,7 +4321,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4260,7 +4338,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4277,7 +4355,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4294,7 +4372,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4311,7 +4389,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4328,7 +4406,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4345,7 +4423,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4362,7 +4440,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4379,7 +4457,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4396,7 +4474,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4413,7 +4491,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4430,7 +4508,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4447,7 +4525,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4464,7 +4542,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4481,7 +4559,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4498,7 +4576,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4515,7 +4593,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4532,7 +4610,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4549,7 +4627,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4566,7 +4644,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4583,7 +4661,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4600,7 +4678,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4617,7 +4695,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4634,7 +4712,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4651,7 +4729,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -4668,7 +4746,7 @@
       <c r="N87" s="5"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A88" s="10" t="s">
         <v>7</v>
       </c>
@@ -4688,12 +4766,12 @@
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
       <c r="M88" s="16" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="N88" s="17"/>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -4707,12 +4785,12 @@
       <c r="K89" s="14"/>
       <c r="L89" s="14"/>
       <c r="M89" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N89" s="17"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4729,7 +4807,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4746,7 +4824,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4763,7 +4841,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4780,7 +4858,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4797,7 +4875,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4814,7 +4892,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4831,7 +4909,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4848,7 +4926,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4865,7 +4943,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4882,7 +4960,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4899,7 +4977,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4916,7 +4994,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4933,7 +5011,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4950,7 +5028,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4967,7 +5045,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4984,7 +5062,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5001,7 +5079,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5018,7 +5096,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5035,7 +5113,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5052,7 +5130,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5069,7 +5147,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5086,7 +5164,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5103,7 +5181,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5120,7 +5198,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5137,7 +5215,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5154,7 +5232,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5171,7 +5249,7 @@
       <c r="N116" s="5"/>
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A117" s="10" t="s">
         <v>7</v>
       </c>
@@ -5191,12 +5269,12 @@
       <c r="K117" s="11"/>
       <c r="L117" s="11"/>
       <c r="M117" s="16" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="N117" s="17"/>
       <c r="O117" s="18"/>
     </row>
-    <row r="118" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
       <c r="C118" s="15"/>
@@ -5210,12 +5288,12 @@
       <c r="K118" s="14"/>
       <c r="L118" s="14"/>
       <c r="M118" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N118" s="17"/>
       <c r="O118" s="18"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5232,7 +5310,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5249,7 +5327,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5266,7 +5344,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5283,7 +5361,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5300,7 +5378,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5317,7 +5395,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5334,7 +5412,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5351,7 +5429,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5368,7 +5446,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5385,7 +5463,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5402,7 +5480,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5419,7 +5497,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5436,7 +5514,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5453,7 +5531,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5470,7 +5548,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5487,7 +5565,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5504,7 +5582,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5521,7 +5599,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5538,7 +5616,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5555,7 +5633,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5572,7 +5650,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5589,7 +5667,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5606,7 +5684,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5623,7 +5701,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5640,7 +5718,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5657,7 +5735,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5674,7 +5752,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A146" s="10" t="s">
         <v>7</v>
       </c>
@@ -5694,12 +5772,12 @@
       <c r="K146" s="11"/>
       <c r="L146" s="11"/>
       <c r="M146" s="16" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="N146" s="17"/>
       <c r="O146" s="18"/>
     </row>
-    <row r="147" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
       <c r="C147" s="15"/>
@@ -5713,12 +5791,12 @@
       <c r="K147" s="14"/>
       <c r="L147" s="14"/>
       <c r="M147" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N147" s="17"/>
       <c r="O147" s="18"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5735,7 +5813,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5752,7 +5830,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5769,7 +5847,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -5786,7 +5864,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -5803,7 +5881,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -5820,7 +5898,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5837,7 +5915,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5854,7 +5932,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5871,7 +5949,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5888,7 +5966,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5905,7 +5983,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5922,7 +6000,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -5939,7 +6017,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -5956,7 +6034,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5973,7 +6051,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5990,7 +6068,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6007,7 +6085,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6024,7 +6102,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6041,7 +6119,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6058,7 +6136,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6075,7 +6153,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6092,7 +6170,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6109,7 +6187,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6126,7 +6204,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6143,7 +6221,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6160,7 +6238,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -6177,7 +6255,7 @@
       <c r="N174" s="5"/>
       <c r="O174" s="6"/>
     </row>
-    <row r="175" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A175" s="10" t="s">
         <v>7</v>
       </c>
@@ -6197,12 +6275,12 @@
       <c r="K175" s="11"/>
       <c r="L175" s="11"/>
       <c r="M175" s="16" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="N175" s="17"/>
       <c r="O175" s="18"/>
     </row>
-    <row r="176" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A176" s="13"/>
       <c r="B176" s="14"/>
       <c r="C176" s="15"/>
@@ -6216,12 +6294,12 @@
       <c r="K176" s="14"/>
       <c r="L176" s="14"/>
       <c r="M176" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N176" s="17"/>
       <c r="O176" s="18"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6238,7 +6316,7 @@
       <c r="N177" s="2"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6255,7 +6333,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6272,7 +6350,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6289,7 +6367,7 @@
       <c r="N180" s="2"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6306,7 +6384,7 @@
       <c r="N181" s="2"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6323,7 +6401,7 @@
       <c r="N182" s="2"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6340,7 +6418,7 @@
       <c r="N183" s="2"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6357,7 +6435,7 @@
       <c r="N184" s="2"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6374,7 +6452,7 @@
       <c r="N185" s="2"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6391,7 +6469,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6408,7 +6486,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6425,7 +6503,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6442,7 +6520,7 @@
       <c r="N189" s="2"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6459,7 +6537,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6476,7 +6554,7 @@
       <c r="N191" s="2"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6493,7 +6571,7 @@
       <c r="N192" s="2"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6510,7 +6588,7 @@
       <c r="N193" s="2"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6527,7 +6605,7 @@
       <c r="N194" s="2"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6544,7 +6622,7 @@
       <c r="N195" s="2"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6561,7 +6639,7 @@
       <c r="N196" s="2"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6578,7 +6656,7 @@
       <c r="N197" s="2"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6595,7 +6673,7 @@
       <c r="N198" s="2"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6612,7 +6690,7 @@
       <c r="N199" s="2"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6629,7 +6707,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6646,7 +6724,7 @@
       <c r="N201" s="2"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6663,7 +6741,7 @@
       <c r="N202" s="2"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -6680,7 +6758,7 @@
       <c r="N203" s="5"/>
       <c r="O203" s="6"/>
     </row>
-    <row r="204" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A204" s="10" t="s">
         <v>7</v>
       </c>
@@ -6700,12 +6778,12 @@
       <c r="K204" s="11"/>
       <c r="L204" s="11"/>
       <c r="M204" s="16" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="N204" s="17"/>
       <c r="O204" s="18"/>
     </row>
-    <row r="205" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A205" s="13"/>
       <c r="B205" s="14"/>
       <c r="C205" s="15"/>
@@ -6719,12 +6797,12 @@
       <c r="K205" s="14"/>
       <c r="L205" s="14"/>
       <c r="M205" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N205" s="17"/>
       <c r="O205" s="18"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6741,7 +6819,7 @@
       <c r="N206" s="2"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6758,7 +6836,7 @@
       <c r="N207" s="2"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6775,7 +6853,7 @@
       <c r="N208" s="2"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6792,7 +6870,7 @@
       <c r="N209" s="2"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6809,7 +6887,7 @@
       <c r="N210" s="2"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6826,7 +6904,7 @@
       <c r="N211" s="2"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6843,7 +6921,7 @@
       <c r="N212" s="2"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6860,7 +6938,7 @@
       <c r="N213" s="2"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6877,7 +6955,7 @@
       <c r="N214" s="2"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6894,7 +6972,7 @@
       <c r="N215" s="2"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6911,7 +6989,7 @@
       <c r="N216" s="2"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -6928,7 +7006,7 @@
       <c r="N217" s="2"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -6945,7 +7023,7 @@
       <c r="N218" s="2"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -6962,7 +7040,7 @@
       <c r="N219" s="2"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -6979,7 +7057,7 @@
       <c r="N220" s="2"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -6996,7 +7074,7 @@
       <c r="N221" s="2"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -7013,7 +7091,7 @@
       <c r="N222" s="2"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -7030,7 +7108,7 @@
       <c r="N223" s="2"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -7047,7 +7125,7 @@
       <c r="N224" s="2"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -7064,7 +7142,7 @@
       <c r="N225" s="2"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -7081,7 +7159,7 @@
       <c r="N226" s="2"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -7098,7 +7176,7 @@
       <c r="N227" s="2"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -7115,7 +7193,7 @@
       <c r="N228" s="2"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -7132,7 +7210,7 @@
       <c r="N229" s="2"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -7149,7 +7227,7 @@
       <c r="N230" s="2"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7166,7 +7244,7 @@
       <c r="N231" s="2"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -7183,7 +7261,7 @@
       <c r="N232" s="5"/>
       <c r="O232" s="6"/>
     </row>
-    <row r="233" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A233" s="10" t="s">
         <v>7</v>
       </c>
@@ -7203,12 +7281,12 @@
       <c r="K233" s="11"/>
       <c r="L233" s="11"/>
       <c r="M233" s="16" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="N233" s="17"/>
       <c r="O233" s="18"/>
     </row>
-    <row r="234" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A234" s="13"/>
       <c r="B234" s="14"/>
       <c r="C234" s="15"/>
@@ -7222,12 +7300,12 @@
       <c r="K234" s="14"/>
       <c r="L234" s="14"/>
       <c r="M234" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N234" s="17"/>
       <c r="O234" s="18"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7244,7 +7322,7 @@
       <c r="N235" s="2"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7261,7 +7339,7 @@
       <c r="N236" s="2"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7278,7 +7356,7 @@
       <c r="N237" s="2"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7295,7 +7373,7 @@
       <c r="N238" s="2"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7312,7 +7390,7 @@
       <c r="N239" s="2"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7329,7 +7407,7 @@
       <c r="N240" s="2"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7346,7 +7424,7 @@
       <c r="N241" s="2"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7363,7 +7441,7 @@
       <c r="N242" s="2"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7380,7 +7458,7 @@
       <c r="N243" s="2"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7397,7 +7475,7 @@
       <c r="N244" s="2"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7414,7 +7492,7 @@
       <c r="N245" s="2"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7431,7 +7509,7 @@
       <c r="N246" s="2"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7448,7 +7526,7 @@
       <c r="N247" s="2"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7465,7 +7543,7 @@
       <c r="N248" s="2"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7482,7 +7560,7 @@
       <c r="N249" s="2"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7499,7 +7577,7 @@
       <c r="N250" s="2"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7516,7 +7594,7 @@
       <c r="N251" s="2"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7533,7 +7611,7 @@
       <c r="N252" s="2"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7550,7 +7628,7 @@
       <c r="N253" s="2"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -7567,7 +7645,7 @@
       <c r="N254" s="2"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -7584,7 +7662,7 @@
       <c r="N255" s="2"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -7601,7 +7679,7 @@
       <c r="N256" s="2"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7618,7 +7696,7 @@
       <c r="N257" s="2"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -7635,7 +7713,7 @@
       <c r="N258" s="2"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -7652,7 +7730,7 @@
       <c r="N259" s="2"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -7669,7 +7747,7 @@
       <c r="N260" s="2"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A261" s="4"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -7686,14 +7764,14 @@
       <c r="N261" s="5"/>
       <c r="O261" s="6"/>
     </row>
-    <row r="262" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A262" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B262" s="11"/>
       <c r="C262" s="12"/>
       <c r="D262" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E262" s="11"/>
       <c r="F262" s="12"/>
@@ -7706,12 +7784,12 @@
       <c r="K262" s="11"/>
       <c r="L262" s="11"/>
       <c r="M262" s="16" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="N262" s="17"/>
       <c r="O262" s="18"/>
     </row>
-    <row r="263" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A263" s="13"/>
       <c r="B263" s="14"/>
       <c r="C263" s="15"/>
@@ -7725,12 +7803,12 @@
       <c r="K263" s="14"/>
       <c r="L263" s="14"/>
       <c r="M263" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N263" s="17"/>
       <c r="O263" s="18"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -7747,7 +7825,7 @@
       <c r="N264" s="2"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -7764,7 +7842,7 @@
       <c r="N265" s="2"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -7781,7 +7859,7 @@
       <c r="N266" s="2"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -7798,7 +7876,7 @@
       <c r="N267" s="2"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -7815,7 +7893,7 @@
       <c r="N268" s="2"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -7832,7 +7910,7 @@
       <c r="N269" s="2"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -7849,7 +7927,7 @@
       <c r="N270" s="2"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -7866,7 +7944,7 @@
       <c r="N271" s="2"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -7883,7 +7961,7 @@
       <c r="N272" s="2"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -7900,7 +7978,7 @@
       <c r="N273" s="2"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -7917,7 +7995,7 @@
       <c r="N274" s="2"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -7934,7 +8012,7 @@
       <c r="N275" s="2"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -7951,7 +8029,7 @@
       <c r="N276" s="2"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -7968,7 +8046,7 @@
       <c r="N277" s="2"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -7985,7 +8063,7 @@
       <c r="N278" s="2"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -8002,7 +8080,7 @@
       <c r="N279" s="2"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8019,7 +8097,7 @@
       <c r="N280" s="2"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -8036,7 +8114,7 @@
       <c r="N281" s="2"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8053,7 +8131,7 @@
       <c r="N282" s="2"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8070,7 +8148,7 @@
       <c r="N283" s="2"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8087,7 +8165,7 @@
       <c r="N284" s="2"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8104,7 +8182,7 @@
       <c r="N285" s="2"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8121,7 +8199,7 @@
       <c r="N286" s="2"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8138,7 +8216,7 @@
       <c r="N287" s="2"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8155,7 +8233,7 @@
       <c r="N288" s="2"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -8172,7 +8250,7 @@
       <c r="N289" s="2"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -8191,56 +8269,56 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A117:C118"/>
+    <mergeCell ref="D117:F118"/>
+    <mergeCell ref="G117:L118"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="A146:C147"/>
+    <mergeCell ref="D146:F147"/>
+    <mergeCell ref="G146:L147"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="A175:C176"/>
+    <mergeCell ref="D175:F176"/>
+    <mergeCell ref="G175:L176"/>
+    <mergeCell ref="M175:O175"/>
+    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="A204:C205"/>
+    <mergeCell ref="D204:F205"/>
+    <mergeCell ref="G204:L205"/>
+    <mergeCell ref="M204:O204"/>
+    <mergeCell ref="M205:O205"/>
+    <mergeCell ref="A233:C234"/>
+    <mergeCell ref="D233:F234"/>
+    <mergeCell ref="G233:L234"/>
+    <mergeCell ref="M233:O233"/>
+    <mergeCell ref="M234:O234"/>
     <mergeCell ref="A262:C263"/>
     <mergeCell ref="D262:F263"/>
     <mergeCell ref="G262:L263"/>
     <mergeCell ref="M262:O262"/>
     <mergeCell ref="M263:O263"/>
-    <mergeCell ref="A233:C234"/>
-    <mergeCell ref="D233:F234"/>
-    <mergeCell ref="G233:L234"/>
-    <mergeCell ref="M233:O233"/>
-    <mergeCell ref="M234:O234"/>
-    <mergeCell ref="A204:C205"/>
-    <mergeCell ref="D204:F205"/>
-    <mergeCell ref="G204:L205"/>
-    <mergeCell ref="M204:O204"/>
-    <mergeCell ref="M205:O205"/>
-    <mergeCell ref="A175:C176"/>
-    <mergeCell ref="D175:F176"/>
-    <mergeCell ref="G175:L176"/>
-    <mergeCell ref="M175:O175"/>
-    <mergeCell ref="M176:O176"/>
-    <mergeCell ref="A146:C147"/>
-    <mergeCell ref="D146:F147"/>
-    <mergeCell ref="G146:L147"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="A117:C118"/>
-    <mergeCell ref="D117:F118"/>
-    <mergeCell ref="G117:L118"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8268,20 +8346,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O174"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="K157" sqref="K157"/>
+    <sheetView topLeftCell="A142" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="M147" sqref="M147:O147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
       <c r="D1" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
@@ -8294,12 +8372,12 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="16" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -8313,12 +8391,12 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8335,7 +8413,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -8352,7 +8430,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -8369,7 +8447,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -8386,7 +8464,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -8403,7 +8481,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -8420,7 +8498,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -8437,7 +8515,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -8454,7 +8532,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -8471,7 +8549,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -8488,7 +8566,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -8505,7 +8583,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -8522,7 +8600,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -8539,7 +8617,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -8556,7 +8634,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8573,7 +8651,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8590,7 +8668,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -8607,7 +8685,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8624,7 +8702,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8641,7 +8719,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8658,7 +8736,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8675,7 +8753,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8692,7 +8770,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8709,7 +8787,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8726,7 +8804,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8743,7 +8821,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8760,7 +8838,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -8777,14 +8855,14 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="21"/>
@@ -8797,12 +8875,12 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="16" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="N30" s="17"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -8816,12 +8894,12 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -8838,7 +8916,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8855,7 +8933,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8872,7 +8950,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8889,7 +8967,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -8906,7 +8984,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -8923,7 +9001,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -8940,7 +9018,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -8957,7 +9035,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -8974,7 +9052,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -8991,7 +9069,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -9008,7 +9086,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -9025,7 +9103,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -9042,7 +9120,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -9059,7 +9137,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -9076,7 +9154,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -9093,7 +9171,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -9110,7 +9188,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -9127,7 +9205,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -9144,7 +9222,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -9161,7 +9239,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -9178,7 +9256,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -9195,7 +9273,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -9212,7 +9290,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -9229,7 +9307,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -9246,7 +9324,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -9263,7 +9341,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -9280,14 +9358,14 @@
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="12"/>
       <c r="D59" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="21"/>
@@ -9300,12 +9378,12 @@
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
       <c r="M59" s="16" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="N59" s="17"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
@@ -9319,12 +9397,12 @@
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
       <c r="M60" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -9341,7 +9419,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -9358,7 +9436,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -9375,7 +9453,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -9392,7 +9470,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -9409,7 +9487,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -9426,7 +9504,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -9443,7 +9521,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -9460,7 +9538,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -9477,7 +9555,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -9494,7 +9572,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -9511,7 +9589,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -9528,7 +9606,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -9545,7 +9623,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -9562,7 +9640,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -9579,7 +9657,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -9596,7 +9674,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -9613,7 +9691,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -9630,7 +9708,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -9647,7 +9725,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -9664,7 +9742,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -9681,7 +9759,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -9698,7 +9776,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -9715,7 +9793,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -9732,7 +9810,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -9749,7 +9827,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -9766,7 +9844,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -9783,14 +9861,14 @@
       <c r="N87" s="5"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A88" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="12"/>
       <c r="D88" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="21"/>
@@ -9803,12 +9881,12 @@
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
       <c r="M88" s="16" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="N88" s="17"/>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -9822,12 +9900,12 @@
       <c r="K89" s="14"/>
       <c r="L89" s="14"/>
       <c r="M89" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N89" s="17"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -9844,7 +9922,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -9861,7 +9939,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -9878,7 +9956,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -9895,7 +9973,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -9912,7 +9990,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -9929,7 +10007,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -9946,7 +10024,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -9963,7 +10041,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -9980,7 +10058,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -9997,7 +10075,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -10014,7 +10092,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -10031,7 +10109,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -10048,7 +10126,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -10065,7 +10143,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -10082,7 +10160,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -10099,7 +10177,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -10116,7 +10194,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -10133,7 +10211,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -10150,7 +10228,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -10167,7 +10245,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -10184,7 +10262,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -10201,7 +10279,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -10218,7 +10296,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -10235,7 +10313,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -10252,7 +10330,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -10269,7 +10347,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -10286,14 +10364,14 @@
       <c r="N116" s="5"/>
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A117" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B117" s="11"/>
       <c r="C117" s="12"/>
       <c r="D117" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="21"/>
@@ -10306,12 +10384,12 @@
       <c r="K117" s="11"/>
       <c r="L117" s="11"/>
       <c r="M117" s="16" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="N117" s="17"/>
       <c r="O117" s="18"/>
     </row>
-    <row r="118" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
       <c r="C118" s="15"/>
@@ -10325,12 +10403,12 @@
       <c r="K118" s="14"/>
       <c r="L118" s="14"/>
       <c r="M118" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N118" s="17"/>
       <c r="O118" s="18"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -10347,7 +10425,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -10364,7 +10442,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -10381,7 +10459,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -10398,7 +10476,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -10415,7 +10493,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -10432,7 +10510,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -10449,7 +10527,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -10466,7 +10544,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -10483,7 +10561,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -10500,7 +10578,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -10517,7 +10595,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -10534,7 +10612,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -10551,7 +10629,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -10568,7 +10646,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -10585,7 +10663,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -10602,7 +10680,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -10619,7 +10697,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -10636,7 +10714,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -10653,7 +10731,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -10670,7 +10748,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -10687,7 +10765,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -10704,7 +10782,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -10721,7 +10799,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -10738,7 +10816,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -10755,7 +10833,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -10772,7 +10850,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -10789,14 +10867,14 @@
       <c r="N145" s="5"/>
       <c r="O145" s="6"/>
     </row>
-    <row r="146" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A146" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="12"/>
       <c r="D146" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E146" s="20"/>
       <c r="F146" s="21"/>
@@ -10807,14 +10885,14 @@
       <c r="I146" s="11"/>
       <c r="J146" s="11"/>
       <c r="K146" s="11"/>
-      <c r="L146" s="11"/>
+      <c r="L146" s="12"/>
       <c r="M146" s="16" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="N146" s="17"/>
       <c r="O146" s="18"/>
     </row>
-    <row r="147" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
       <c r="C147" s="15"/>
@@ -10826,14 +10904,14 @@
       <c r="I147" s="14"/>
       <c r="J147" s="14"/>
       <c r="K147" s="14"/>
-      <c r="L147" s="14"/>
+      <c r="L147" s="15"/>
       <c r="M147" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N147" s="17"/>
       <c r="O147" s="18"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -10850,7 +10928,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -10867,7 +10945,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -10884,7 +10962,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -10901,7 +10979,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -10918,7 +10996,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -10935,7 +11013,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -10952,7 +11030,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -10969,7 +11047,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -10986,7 +11064,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -11003,7 +11081,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -11020,7 +11098,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -11037,7 +11115,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -11054,7 +11132,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -11071,7 +11149,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -11088,7 +11166,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -11105,7 +11183,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -11122,7 +11200,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -11139,7 +11217,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -11156,7 +11234,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -11173,7 +11251,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -11190,7 +11268,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -11207,7 +11285,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -11224,7 +11302,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -11241,7 +11319,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -11258,7 +11336,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -11275,7 +11353,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -11294,36 +11372,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A146:C147"/>
+    <mergeCell ref="D146:F147"/>
+    <mergeCell ref="G146:L147"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="M147:O147"/>
     <mergeCell ref="A117:C118"/>
     <mergeCell ref="D117:F118"/>
     <mergeCell ref="G117:L118"/>
     <mergeCell ref="M117:O117"/>
     <mergeCell ref="M118:O118"/>
-    <mergeCell ref="A146:C147"/>
-    <mergeCell ref="D146:F147"/>
-    <mergeCell ref="G146:L147"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -11347,20 +11425,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection sqref="A1:O29"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="M89" sqref="M89:O89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
       <c r="D1" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="12"/>
@@ -11373,12 +11451,12 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="16" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -11392,12 +11470,12 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -11414,7 +11492,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -11431,7 +11509,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -11448,7 +11526,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -11465,7 +11543,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -11482,7 +11560,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -11499,7 +11577,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -11516,7 +11594,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -11533,7 +11611,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -11550,7 +11628,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -11567,7 +11645,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -11584,7 +11662,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -11601,7 +11679,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -11618,7 +11696,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -11635,7 +11713,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -11652,7 +11730,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -11669,7 +11747,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -11686,7 +11764,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -11703,7 +11781,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -11720,7 +11798,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -11737,7 +11815,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -11754,7 +11832,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -11771,7 +11849,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -11788,7 +11866,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -11805,7 +11883,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -11822,7 +11900,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -11839,7 +11917,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -11856,7 +11934,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="10" t="s">
         <v>0</v>
       </c>
@@ -11876,12 +11954,12 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="16" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="N30" s="17"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -11895,12 +11973,12 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -11917,7 +11995,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -11934,7 +12012,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -11951,7 +12029,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -11968,7 +12046,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -11985,7 +12063,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -12002,7 +12080,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -12019,7 +12097,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -12036,7 +12114,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -12053,7 +12131,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -12070,7 +12148,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -12087,7 +12165,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -12104,7 +12182,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -12121,7 +12199,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -12138,7 +12216,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -12155,7 +12233,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -12172,7 +12250,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -12189,7 +12267,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -12206,7 +12284,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -12223,7 +12301,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -12240,7 +12318,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -12257,7 +12335,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -12274,7 +12352,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -12291,7 +12369,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -12308,7 +12386,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -12325,7 +12403,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -12342,7 +12420,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -12359,14 +12437,14 @@
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="12"/>
       <c r="D59" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="12"/>
@@ -12379,12 +12457,12 @@
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
       <c r="M59" s="16" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="N59" s="17"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
@@ -12398,12 +12476,12 @@
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
       <c r="M60" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -12420,7 +12498,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -12437,7 +12515,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -12454,7 +12532,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -12471,7 +12549,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -12488,7 +12566,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -12505,7 +12583,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -12522,7 +12600,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -12539,7 +12617,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -12556,7 +12634,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -12573,7 +12651,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -12590,7 +12668,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -12607,7 +12685,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -12624,7 +12702,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -12641,7 +12719,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -12658,7 +12736,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -12675,7 +12753,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -12692,7 +12770,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -12709,7 +12787,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -12726,7 +12804,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -12743,7 +12821,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -12760,7 +12838,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -12777,7 +12855,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -12794,7 +12872,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -12811,7 +12889,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -12828,7 +12906,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -12845,7 +12923,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -12862,14 +12940,14 @@
       <c r="N87" s="5"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A88" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="12"/>
       <c r="D88" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="12"/>
@@ -12882,12 +12960,12 @@
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
       <c r="M88" s="16" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="N88" s="17"/>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -12901,12 +12979,12 @@
       <c r="K89" s="14"/>
       <c r="L89" s="14"/>
       <c r="M89" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N89" s="17"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -12923,7 +13001,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -12940,7 +13018,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -12957,7 +13035,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -12974,7 +13052,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -12991,7 +13069,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -13008,7 +13086,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -13025,7 +13103,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -13042,7 +13120,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -13059,7 +13137,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -13076,7 +13154,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -13093,7 +13171,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -13110,7 +13188,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -13127,7 +13205,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -13144,7 +13222,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -13161,7 +13239,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -13178,7 +13256,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -13195,7 +13273,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -13212,7 +13290,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -13229,7 +13307,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -13246,7 +13324,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -13263,7 +13341,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -13280,7 +13358,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -13297,7 +13375,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -13314,7 +13392,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -13331,7 +13409,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -13350,26 +13428,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
     <mergeCell ref="A88:C89"/>
     <mergeCell ref="D88:F89"/>
     <mergeCell ref="G88:L89"/>
     <mergeCell ref="M88:O88"/>
     <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -13391,20 +13469,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
       <c r="D1" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="12"/>
@@ -13417,12 +13495,12 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="16" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -13436,12 +13514,12 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -13458,7 +13536,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -13475,7 +13553,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -13492,7 +13570,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -13509,7 +13587,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -13526,7 +13604,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -13543,7 +13621,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -13560,7 +13638,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -13577,7 +13655,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -13594,7 +13672,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -13611,7 +13689,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -13628,7 +13706,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -13645,7 +13723,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -13662,7 +13740,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -13679,7 +13757,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -13696,7 +13774,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -13713,7 +13791,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -13730,7 +13808,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -13747,7 +13825,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -13764,7 +13842,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -13781,7 +13859,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -13798,7 +13876,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -13815,7 +13893,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -13832,7 +13910,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -13849,7 +13927,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -13866,7 +13944,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -13883,7 +13961,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -13923,15 +14001,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
@@ -13952,7 +14030,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -13971,7 +14049,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -13988,7 +14066,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -14005,7 +14083,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -14022,7 +14100,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -14039,7 +14117,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -14056,7 +14134,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -14073,7 +14151,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -14090,7 +14168,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -14107,7 +14185,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -14124,7 +14202,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -14141,7 +14219,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -14158,7 +14236,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -14175,7 +14253,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -14192,7 +14270,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -14209,7 +14287,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -14226,7 +14304,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -14243,7 +14321,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -14260,7 +14338,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -14277,7 +14355,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -14294,7 +14372,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -14311,7 +14389,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -14328,7 +14406,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -14345,7 +14423,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -14362,7 +14440,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -14379,7 +14457,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -14396,7 +14474,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -14413,7 +14491,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20540" windowHeight="9170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20540" windowHeight="9170" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="48">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -405,6 +405,10 @@
     <rPh sb="6" eb="8">
       <t>リョウスケ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ada</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2556,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B7"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2699,11 +2703,15 @@
     <mergeCell ref="E38:I38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0.39370078740157483" header="0" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="28" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -14001,8 +14009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -14156,7 +14164,9 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20540" windowHeight="9170" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20540" windowHeight="9170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -2560,7 +2560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:M40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
@@ -3239,8 +3239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O290"/>
   <sheetViews>
-    <sheetView topLeftCell="H252" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="Q263" sqref="Q263"/>
+    <sheetView tabSelected="1" topLeftCell="H264" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="P276" sqref="P276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8277,56 +8277,56 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A262:C263"/>
+    <mergeCell ref="D262:F263"/>
+    <mergeCell ref="G262:L263"/>
+    <mergeCell ref="M262:O262"/>
+    <mergeCell ref="M263:O263"/>
+    <mergeCell ref="A233:C234"/>
+    <mergeCell ref="D233:F234"/>
+    <mergeCell ref="G233:L234"/>
+    <mergeCell ref="M233:O233"/>
+    <mergeCell ref="M234:O234"/>
+    <mergeCell ref="A204:C205"/>
+    <mergeCell ref="D204:F205"/>
+    <mergeCell ref="G204:L205"/>
+    <mergeCell ref="M204:O204"/>
+    <mergeCell ref="M205:O205"/>
+    <mergeCell ref="A175:C176"/>
+    <mergeCell ref="D175:F176"/>
+    <mergeCell ref="G175:L176"/>
+    <mergeCell ref="M175:O175"/>
+    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="A146:C147"/>
+    <mergeCell ref="D146:F147"/>
+    <mergeCell ref="G146:L147"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="A117:C118"/>
+    <mergeCell ref="D117:F118"/>
+    <mergeCell ref="G117:L118"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:L2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A117:C118"/>
-    <mergeCell ref="D117:F118"/>
-    <mergeCell ref="G117:L118"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="A146:C147"/>
-    <mergeCell ref="D146:F147"/>
-    <mergeCell ref="G146:L147"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="A175:C176"/>
-    <mergeCell ref="D175:F176"/>
-    <mergeCell ref="G175:L176"/>
-    <mergeCell ref="M175:O175"/>
-    <mergeCell ref="M176:O176"/>
-    <mergeCell ref="A204:C205"/>
-    <mergeCell ref="D204:F205"/>
-    <mergeCell ref="G204:L205"/>
-    <mergeCell ref="M204:O204"/>
-    <mergeCell ref="M205:O205"/>
-    <mergeCell ref="A233:C234"/>
-    <mergeCell ref="D233:F234"/>
-    <mergeCell ref="G233:L234"/>
-    <mergeCell ref="M233:O233"/>
-    <mergeCell ref="M234:O234"/>
-    <mergeCell ref="A262:C263"/>
-    <mergeCell ref="D262:F263"/>
-    <mergeCell ref="G262:L263"/>
-    <mergeCell ref="M262:O262"/>
-    <mergeCell ref="M263:O263"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8354,7 +8354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O174"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="M147" sqref="M147:O147"/>
     </sheetView>
   </sheetViews>
@@ -11380,36 +11380,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A117:C118"/>
+    <mergeCell ref="D117:F118"/>
+    <mergeCell ref="G117:L118"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="A146:C147"/>
+    <mergeCell ref="D146:F147"/>
+    <mergeCell ref="G146:L147"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="A30:C31"/>
     <mergeCell ref="D30:F31"/>
     <mergeCell ref="G30:L31"/>
     <mergeCell ref="M30:O30"/>
     <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A146:C147"/>
-    <mergeCell ref="D146:F147"/>
-    <mergeCell ref="G146:L147"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="A117:C118"/>
-    <mergeCell ref="D117:F118"/>
-    <mergeCell ref="G117:L118"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="M118:O118"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -13436,26 +13436,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:L2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -14009,7 +14009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20540" windowHeight="9170" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20540" windowHeight="9170" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -1164,15 +1164,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:colOff>142240</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>93980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:colOff>561340</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1195,8 +1195,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="129540" y="20483830"/>
-          <a:ext cx="9842500" cy="6008370"/>
+          <a:off x="142240" y="20509230"/>
+          <a:ext cx="9664700" cy="6008370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1262,7 +1262,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>タイムライン画面</a:t>
+            <a:t>災害ページ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1316,7 +1316,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>171</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
@@ -1333,8 +1333,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7566660" y="40721280"/>
-          <a:ext cx="2232660" cy="388620"/>
+          <a:off x="7283450" y="39328090"/>
+          <a:ext cx="2373630" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1380,7 +1380,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>294640</xdr:colOff>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>142</xdr:row>
       <xdr:rowOff>166370</xdr:rowOff>
     </xdr:from>
@@ -1397,8 +1397,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7838440" y="34113470"/>
-          <a:ext cx="2278380" cy="407670"/>
+          <a:off x="7442200" y="32716470"/>
+          <a:ext cx="2319020" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1768,7 +1768,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>340590</xdr:colOff>
+      <xdr:colOff>234950</xdr:colOff>
       <xdr:row>199</xdr:row>
       <xdr:rowOff>210359</xdr:rowOff>
     </xdr:from>
@@ -1785,8 +1785,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7706590" y="46161268"/>
-          <a:ext cx="2229889" cy="393238"/>
+          <a:off x="7499350" y="45828759"/>
+          <a:ext cx="2307820" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3239,8 +3239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H264" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="P276" sqref="P276"/>
+    <sheetView topLeftCell="A105" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="Q98" sqref="Q98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8277,56 +8277,56 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A117:C118"/>
+    <mergeCell ref="D117:F118"/>
+    <mergeCell ref="G117:L118"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="A146:C147"/>
+    <mergeCell ref="D146:F147"/>
+    <mergeCell ref="G146:L147"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="A175:C176"/>
+    <mergeCell ref="D175:F176"/>
+    <mergeCell ref="G175:L176"/>
+    <mergeCell ref="M175:O175"/>
+    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="A204:C205"/>
+    <mergeCell ref="D204:F205"/>
+    <mergeCell ref="G204:L205"/>
+    <mergeCell ref="M204:O204"/>
+    <mergeCell ref="M205:O205"/>
+    <mergeCell ref="A233:C234"/>
+    <mergeCell ref="D233:F234"/>
+    <mergeCell ref="G233:L234"/>
+    <mergeCell ref="M233:O233"/>
+    <mergeCell ref="M234:O234"/>
     <mergeCell ref="A262:C263"/>
     <mergeCell ref="D262:F263"/>
     <mergeCell ref="G262:L263"/>
     <mergeCell ref="M262:O262"/>
     <mergeCell ref="M263:O263"/>
-    <mergeCell ref="A233:C234"/>
-    <mergeCell ref="D233:F234"/>
-    <mergeCell ref="G233:L234"/>
-    <mergeCell ref="M233:O233"/>
-    <mergeCell ref="M234:O234"/>
-    <mergeCell ref="A204:C205"/>
-    <mergeCell ref="D204:F205"/>
-    <mergeCell ref="G204:L205"/>
-    <mergeCell ref="M204:O204"/>
-    <mergeCell ref="M205:O205"/>
-    <mergeCell ref="A175:C176"/>
-    <mergeCell ref="D175:F176"/>
-    <mergeCell ref="G175:L176"/>
-    <mergeCell ref="M175:O175"/>
-    <mergeCell ref="M176:O176"/>
-    <mergeCell ref="A146:C147"/>
-    <mergeCell ref="D146:F147"/>
-    <mergeCell ref="G146:L147"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="A117:C118"/>
-    <mergeCell ref="D117:F118"/>
-    <mergeCell ref="G117:L118"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8354,8 +8354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O174"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="M147" sqref="M147:O147"/>
+    <sheetView topLeftCell="A165" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -11380,36 +11380,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A146:C147"/>
+    <mergeCell ref="D146:F147"/>
+    <mergeCell ref="G146:L147"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="M147:O147"/>
     <mergeCell ref="A117:C118"/>
     <mergeCell ref="D117:F118"/>
     <mergeCell ref="G117:L118"/>
     <mergeCell ref="M117:O117"/>
     <mergeCell ref="M118:O118"/>
-    <mergeCell ref="A146:C147"/>
-    <mergeCell ref="D146:F147"/>
-    <mergeCell ref="G146:L147"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -13436,26 +13436,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
     <mergeCell ref="A88:C89"/>
     <mergeCell ref="D88:F89"/>
     <mergeCell ref="G88:L89"/>
     <mergeCell ref="M88:O88"/>
     <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -14009,7 +14009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191149\Desktop\sotuken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYS-4191163\Desktop\sotuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20540" windowHeight="9170" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20544" windowHeight="9168" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="49">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -409,6 +409,13 @@
   </si>
   <si>
     <t>ada</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>投稿マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2564,9 +2571,9 @@
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="10" spans="1:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
@@ -2583,7 +2590,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
@@ -2600,7 +2607,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.45">
       <c r="E29" s="7" t="s">
         <v>25</v>
       </c>
@@ -2609,14 +2616,14 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.45">
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
         <v>29</v>
       </c>
@@ -2631,7 +2638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
         <v>31</v>
       </c>
@@ -2646,7 +2653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
         <v>33</v>
       </c>
@@ -2661,7 +2668,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
         <v>35</v>
       </c>
@@ -2676,7 +2683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D40" t="s">
         <v>37</v>
       </c>
@@ -2723,14 +2730,14 @@
       <selection activeCell="M2" sqref="M2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
-    <col min="4" max="6" width="9.83203125" customWidth="1"/>
-    <col min="14" max="14" width="9.08203125" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" customWidth="1"/>
+    <col min="4" max="6" width="9.796875" customWidth="1"/>
+    <col min="14" max="14" width="9.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2755,7 +2762,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -2774,7 +2781,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2791,7 +2798,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2808,7 +2815,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2825,7 +2832,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2842,7 +2849,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2859,7 +2866,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2876,7 +2883,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2893,7 +2900,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2910,7 +2917,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2927,7 +2934,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2944,7 +2951,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2961,7 +2968,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2978,7 +2985,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2995,7 +3002,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3012,7 +3019,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3029,7 +3036,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3046,7 +3053,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3063,7 +3070,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3080,7 +3087,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3097,7 +3104,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3114,7 +3121,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3131,7 +3138,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3148,7 +3155,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3165,7 +3172,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3182,7 +3189,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3199,7 +3206,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3243,9 +3250,9 @@
       <selection activeCell="Q98" sqref="Q98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -3270,7 +3277,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -3289,7 +3296,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3306,7 +3313,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3323,7 +3330,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3340,7 +3347,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3357,7 +3364,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3374,7 +3381,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3391,7 +3398,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3408,7 +3415,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3425,7 +3432,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3442,7 +3449,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3459,7 +3466,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3476,7 +3483,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3493,7 +3500,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3510,7 +3517,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3527,7 +3534,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3544,7 +3551,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3561,7 +3568,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3578,7 +3585,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3595,7 +3602,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3612,7 +3619,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3629,7 +3636,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3646,7 +3653,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3663,7 +3670,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3680,7 +3687,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3697,7 +3704,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3714,7 +3721,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3731,7 +3738,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3748,7 +3755,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
@@ -3773,7 +3780,7 @@
       <c r="N30" s="17"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -3792,7 +3799,7 @@
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3809,7 +3816,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3826,7 +3833,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3843,7 +3850,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3860,7 +3867,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3877,7 +3884,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3894,7 +3901,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3911,7 +3918,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3928,7 +3935,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3945,7 +3952,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3962,7 +3969,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3979,7 +3986,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3996,7 +4003,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4013,7 +4020,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4030,7 +4037,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4047,7 +4054,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4064,7 +4071,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4081,7 +4088,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4098,7 +4105,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4115,7 +4122,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4132,7 +4139,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4149,7 +4156,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4166,7 +4173,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4183,7 +4190,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4200,7 +4207,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4217,7 +4224,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4234,7 +4241,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4251,7 +4258,7 @@
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="10" t="s">
         <v>7</v>
       </c>
@@ -4276,7 +4283,7 @@
       <c r="N59" s="17"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
@@ -4295,7 +4302,7 @@
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4312,7 +4319,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4329,7 +4336,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4346,7 +4353,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4363,7 +4370,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4380,7 +4387,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4397,7 +4404,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4414,7 +4421,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4431,7 +4438,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4448,7 +4455,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4465,7 +4472,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4482,7 +4489,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4499,7 +4506,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4516,7 +4523,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4533,7 +4540,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4550,7 +4557,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4567,7 +4574,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4584,7 +4591,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4601,7 +4608,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4618,7 +4625,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4635,7 +4642,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4652,7 +4659,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4669,7 +4676,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4686,7 +4693,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4703,7 +4710,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4720,7 +4727,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4737,7 +4744,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -4754,7 +4761,7 @@
       <c r="N87" s="5"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" s="10" t="s">
         <v>7</v>
       </c>
@@ -4779,7 +4786,7 @@
       <c r="N88" s="17"/>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -4798,7 +4805,7 @@
       <c r="N89" s="17"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4815,7 +4822,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4832,7 +4839,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4849,7 +4856,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4866,7 +4873,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4883,7 +4890,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4900,7 +4907,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4917,7 +4924,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4934,7 +4941,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4951,7 +4958,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4968,7 +4975,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4985,7 +4992,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5002,7 +5009,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5019,7 +5026,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5036,7 +5043,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5053,7 +5060,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5070,7 +5077,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5087,7 +5094,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5104,7 +5111,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5121,7 +5128,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5138,7 +5145,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5155,7 +5162,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5172,7 +5179,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5189,7 +5196,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5206,7 +5213,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5223,7 +5230,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5240,7 +5247,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5257,7 +5264,7 @@
       <c r="N116" s="5"/>
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A117" s="10" t="s">
         <v>7</v>
       </c>
@@ -5282,7 +5289,7 @@
       <c r="N117" s="17"/>
       <c r="O117" s="18"/>
     </row>
-    <row r="118" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
       <c r="C118" s="15"/>
@@ -5301,7 +5308,7 @@
       <c r="N118" s="17"/>
       <c r="O118" s="18"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5318,7 +5325,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5335,7 +5342,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5352,7 +5359,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5369,7 +5376,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5386,7 +5393,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5403,7 +5410,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5420,7 +5427,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5437,7 +5444,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5454,7 +5461,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5471,7 +5478,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5488,7 +5495,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5505,7 +5512,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5522,7 +5529,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5539,7 +5546,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5556,7 +5563,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5573,7 +5580,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5590,7 +5597,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5607,7 +5614,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5624,7 +5631,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5641,7 +5648,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5658,7 +5665,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5675,7 +5682,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5692,7 +5699,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5709,7 +5716,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5726,7 +5733,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5743,7 +5750,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5760,7 +5767,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A146" s="10" t="s">
         <v>7</v>
       </c>
@@ -5785,7 +5792,7 @@
       <c r="N146" s="17"/>
       <c r="O146" s="18"/>
     </row>
-    <row r="147" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
       <c r="C147" s="15"/>
@@ -5804,7 +5811,7 @@
       <c r="N147" s="17"/>
       <c r="O147" s="18"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5821,7 +5828,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5838,7 +5845,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5855,7 +5862,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -5872,7 +5879,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -5889,7 +5896,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -5906,7 +5913,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5923,7 +5930,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5940,7 +5947,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5957,7 +5964,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5974,7 +5981,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5991,7 +5998,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6008,7 +6015,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6025,7 +6032,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6042,7 +6049,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6059,7 +6066,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6076,7 +6083,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6093,7 +6100,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6110,7 +6117,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6127,7 +6134,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6144,7 +6151,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6161,7 +6168,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6178,7 +6185,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6195,7 +6202,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6212,7 +6219,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6229,7 +6236,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6246,7 +6253,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -6263,7 +6270,7 @@
       <c r="N174" s="5"/>
       <c r="O174" s="6"/>
     </row>
-    <row r="175" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A175" s="10" t="s">
         <v>7</v>
       </c>
@@ -6288,7 +6295,7 @@
       <c r="N175" s="17"/>
       <c r="O175" s="18"/>
     </row>
-    <row r="176" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A176" s="13"/>
       <c r="B176" s="14"/>
       <c r="C176" s="15"/>
@@ -6307,7 +6314,7 @@
       <c r="N176" s="17"/>
       <c r="O176" s="18"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6324,7 +6331,7 @@
       <c r="N177" s="2"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6341,7 +6348,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6358,7 +6365,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6375,7 +6382,7 @@
       <c r="N180" s="2"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6392,7 +6399,7 @@
       <c r="N181" s="2"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6409,7 +6416,7 @@
       <c r="N182" s="2"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6426,7 +6433,7 @@
       <c r="N183" s="2"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6443,7 +6450,7 @@
       <c r="N184" s="2"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6460,7 +6467,7 @@
       <c r="N185" s="2"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6477,7 +6484,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6494,7 +6501,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6511,7 +6518,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6528,7 +6535,7 @@
       <c r="N189" s="2"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6545,7 +6552,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6562,7 +6569,7 @@
       <c r="N191" s="2"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6579,7 +6586,7 @@
       <c r="N192" s="2"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6596,7 +6603,7 @@
       <c r="N193" s="2"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6613,7 +6620,7 @@
       <c r="N194" s="2"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6630,7 +6637,7 @@
       <c r="N195" s="2"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6647,7 +6654,7 @@
       <c r="N196" s="2"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6664,7 +6671,7 @@
       <c r="N197" s="2"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6681,7 +6688,7 @@
       <c r="N198" s="2"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6698,7 +6705,7 @@
       <c r="N199" s="2"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6715,7 +6722,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6732,7 +6739,7 @@
       <c r="N201" s="2"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6749,7 +6756,7 @@
       <c r="N202" s="2"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -6766,7 +6773,7 @@
       <c r="N203" s="5"/>
       <c r="O203" s="6"/>
     </row>
-    <row r="204" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A204" s="10" t="s">
         <v>7</v>
       </c>
@@ -6791,7 +6798,7 @@
       <c r="N204" s="17"/>
       <c r="O204" s="18"/>
     </row>
-    <row r="205" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A205" s="13"/>
       <c r="B205" s="14"/>
       <c r="C205" s="15"/>
@@ -6810,7 +6817,7 @@
       <c r="N205" s="17"/>
       <c r="O205" s="18"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6827,7 +6834,7 @@
       <c r="N206" s="2"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6844,7 +6851,7 @@
       <c r="N207" s="2"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6861,7 +6868,7 @@
       <c r="N208" s="2"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6878,7 +6885,7 @@
       <c r="N209" s="2"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6895,7 +6902,7 @@
       <c r="N210" s="2"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6912,7 +6919,7 @@
       <c r="N211" s="2"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6929,7 +6936,7 @@
       <c r="N212" s="2"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6946,7 +6953,7 @@
       <c r="N213" s="2"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6963,7 +6970,7 @@
       <c r="N214" s="2"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6980,7 +6987,7 @@
       <c r="N215" s="2"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6997,7 +7004,7 @@
       <c r="N216" s="2"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -7014,7 +7021,7 @@
       <c r="N217" s="2"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -7031,7 +7038,7 @@
       <c r="N218" s="2"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -7048,7 +7055,7 @@
       <c r="N219" s="2"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -7065,7 +7072,7 @@
       <c r="N220" s="2"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -7082,7 +7089,7 @@
       <c r="N221" s="2"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -7099,7 +7106,7 @@
       <c r="N222" s="2"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -7116,7 +7123,7 @@
       <c r="N223" s="2"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -7133,7 +7140,7 @@
       <c r="N224" s="2"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -7150,7 +7157,7 @@
       <c r="N225" s="2"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -7167,7 +7174,7 @@
       <c r="N226" s="2"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -7184,7 +7191,7 @@
       <c r="N227" s="2"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -7201,7 +7208,7 @@
       <c r="N228" s="2"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -7218,7 +7225,7 @@
       <c r="N229" s="2"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -7235,7 +7242,7 @@
       <c r="N230" s="2"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7252,7 +7259,7 @@
       <c r="N231" s="2"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -7269,7 +7276,7 @@
       <c r="N232" s="5"/>
       <c r="O232" s="6"/>
     </row>
-    <row r="233" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A233" s="10" t="s">
         <v>7</v>
       </c>
@@ -7294,7 +7301,7 @@
       <c r="N233" s="17"/>
       <c r="O233" s="18"/>
     </row>
-    <row r="234" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A234" s="13"/>
       <c r="B234" s="14"/>
       <c r="C234" s="15"/>
@@ -7313,7 +7320,7 @@
       <c r="N234" s="17"/>
       <c r="O234" s="18"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7330,7 +7337,7 @@
       <c r="N235" s="2"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7347,7 +7354,7 @@
       <c r="N236" s="2"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7364,7 +7371,7 @@
       <c r="N237" s="2"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7381,7 +7388,7 @@
       <c r="N238" s="2"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7398,7 +7405,7 @@
       <c r="N239" s="2"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7415,7 +7422,7 @@
       <c r="N240" s="2"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7432,7 +7439,7 @@
       <c r="N241" s="2"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7449,7 +7456,7 @@
       <c r="N242" s="2"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7466,7 +7473,7 @@
       <c r="N243" s="2"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7483,7 +7490,7 @@
       <c r="N244" s="2"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7500,7 +7507,7 @@
       <c r="N245" s="2"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7517,7 +7524,7 @@
       <c r="N246" s="2"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7534,7 +7541,7 @@
       <c r="N247" s="2"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7551,7 +7558,7 @@
       <c r="N248" s="2"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7568,7 +7575,7 @@
       <c r="N249" s="2"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7585,7 +7592,7 @@
       <c r="N250" s="2"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7602,7 +7609,7 @@
       <c r="N251" s="2"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7619,7 +7626,7 @@
       <c r="N252" s="2"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7636,7 +7643,7 @@
       <c r="N253" s="2"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -7653,7 +7660,7 @@
       <c r="N254" s="2"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -7670,7 +7677,7 @@
       <c r="N255" s="2"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -7687,7 +7694,7 @@
       <c r="N256" s="2"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7704,7 +7711,7 @@
       <c r="N257" s="2"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -7721,7 +7728,7 @@
       <c r="N258" s="2"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -7738,7 +7745,7 @@
       <c r="N259" s="2"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -7755,7 +7762,7 @@
       <c r="N260" s="2"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A261" s="4"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -7772,7 +7779,7 @@
       <c r="N261" s="5"/>
       <c r="O261" s="6"/>
     </row>
-    <row r="262" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A262" s="10" t="s">
         <v>7</v>
       </c>
@@ -7797,7 +7804,7 @@
       <c r="N262" s="17"/>
       <c r="O262" s="18"/>
     </row>
-    <row r="263" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A263" s="13"/>
       <c r="B263" s="14"/>
       <c r="C263" s="15"/>
@@ -7816,7 +7823,7 @@
       <c r="N263" s="17"/>
       <c r="O263" s="18"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -7833,7 +7840,7 @@
       <c r="N264" s="2"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -7850,7 +7857,7 @@
       <c r="N265" s="2"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -7867,7 +7874,7 @@
       <c r="N266" s="2"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -7884,7 +7891,7 @@
       <c r="N267" s="2"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -7901,7 +7908,7 @@
       <c r="N268" s="2"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -7918,7 +7925,7 @@
       <c r="N269" s="2"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -7935,7 +7942,7 @@
       <c r="N270" s="2"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -7952,7 +7959,7 @@
       <c r="N271" s="2"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -7969,7 +7976,7 @@
       <c r="N272" s="2"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -7986,7 +7993,7 @@
       <c r="N273" s="2"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -8003,7 +8010,7 @@
       <c r="N274" s="2"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -8020,7 +8027,7 @@
       <c r="N275" s="2"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -8037,7 +8044,7 @@
       <c r="N276" s="2"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -8054,7 +8061,7 @@
       <c r="N277" s="2"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -8071,7 +8078,7 @@
       <c r="N278" s="2"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -8088,7 +8095,7 @@
       <c r="N279" s="2"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8105,7 +8112,7 @@
       <c r="N280" s="2"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -8122,7 +8129,7 @@
       <c r="N281" s="2"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8139,7 +8146,7 @@
       <c r="N282" s="2"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8156,7 +8163,7 @@
       <c r="N283" s="2"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8173,7 +8180,7 @@
       <c r="N284" s="2"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8190,7 +8197,7 @@
       <c r="N285" s="2"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8207,7 +8214,7 @@
       <c r="N286" s="2"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8224,7 +8231,7 @@
       <c r="N287" s="2"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8241,7 +8248,7 @@
       <c r="N288" s="2"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -8258,7 +8265,7 @@
       <c r="N289" s="2"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -8277,56 +8284,56 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A262:C263"/>
+    <mergeCell ref="D262:F263"/>
+    <mergeCell ref="G262:L263"/>
+    <mergeCell ref="M262:O262"/>
+    <mergeCell ref="M263:O263"/>
+    <mergeCell ref="A233:C234"/>
+    <mergeCell ref="D233:F234"/>
+    <mergeCell ref="G233:L234"/>
+    <mergeCell ref="M233:O233"/>
+    <mergeCell ref="M234:O234"/>
+    <mergeCell ref="A204:C205"/>
+    <mergeCell ref="D204:F205"/>
+    <mergeCell ref="G204:L205"/>
+    <mergeCell ref="M204:O204"/>
+    <mergeCell ref="M205:O205"/>
+    <mergeCell ref="A175:C176"/>
+    <mergeCell ref="D175:F176"/>
+    <mergeCell ref="G175:L176"/>
+    <mergeCell ref="M175:O175"/>
+    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="A146:C147"/>
+    <mergeCell ref="D146:F147"/>
+    <mergeCell ref="G146:L147"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="A117:C118"/>
+    <mergeCell ref="D117:F118"/>
+    <mergeCell ref="G117:L118"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:L2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A117:C118"/>
-    <mergeCell ref="D117:F118"/>
-    <mergeCell ref="G117:L118"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="A146:C147"/>
-    <mergeCell ref="D146:F147"/>
-    <mergeCell ref="G146:L147"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="A175:C176"/>
-    <mergeCell ref="D175:F176"/>
-    <mergeCell ref="G175:L176"/>
-    <mergeCell ref="M175:O175"/>
-    <mergeCell ref="M176:O176"/>
-    <mergeCell ref="A204:C205"/>
-    <mergeCell ref="D204:F205"/>
-    <mergeCell ref="G204:L205"/>
-    <mergeCell ref="M204:O204"/>
-    <mergeCell ref="M205:O205"/>
-    <mergeCell ref="A233:C234"/>
-    <mergeCell ref="D233:F234"/>
-    <mergeCell ref="G233:L234"/>
-    <mergeCell ref="M233:O233"/>
-    <mergeCell ref="M234:O234"/>
-    <mergeCell ref="A262:C263"/>
-    <mergeCell ref="D262:F263"/>
-    <mergeCell ref="G262:L263"/>
-    <mergeCell ref="M262:O262"/>
-    <mergeCell ref="M263:O263"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8358,9 +8365,9 @@
       <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
@@ -8385,7 +8392,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -8404,7 +8411,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8421,7 +8428,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -8438,7 +8445,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -8455,7 +8462,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -8472,7 +8479,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -8489,7 +8496,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -8506,7 +8513,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -8523,7 +8530,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -8540,7 +8547,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -8557,7 +8564,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -8574,7 +8581,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -8591,7 +8598,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -8608,7 +8615,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -8625,7 +8632,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -8642,7 +8649,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8659,7 +8666,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8676,7 +8683,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -8693,7 +8700,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8710,7 +8717,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8727,7 +8734,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8744,7 +8751,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8761,7 +8768,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8778,7 +8785,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8795,7 +8802,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8812,7 +8819,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8829,7 +8836,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8846,7 +8853,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -8863,7 +8870,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="10" t="s">
         <v>13</v>
       </c>
@@ -8888,7 +8895,7 @@
       <c r="N30" s="17"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -8907,7 +8914,7 @@
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -8924,7 +8931,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8941,7 +8948,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8958,7 +8965,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8975,7 +8982,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -8992,7 +8999,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -9009,7 +9016,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -9026,7 +9033,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -9043,7 +9050,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -9060,7 +9067,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -9077,7 +9084,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -9094,7 +9101,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -9111,7 +9118,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -9128,7 +9135,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -9145,7 +9152,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -9162,7 +9169,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -9179,7 +9186,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -9196,7 +9203,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -9213,7 +9220,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -9230,7 +9237,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -9247,7 +9254,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -9264,7 +9271,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -9281,7 +9288,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -9298,7 +9305,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -9315,7 +9322,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -9332,7 +9339,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -9349,7 +9356,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -9366,7 +9373,7 @@
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="10" t="s">
         <v>13</v>
       </c>
@@ -9391,7 +9398,7 @@
       <c r="N59" s="17"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
@@ -9410,7 +9417,7 @@
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -9427,7 +9434,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -9444,7 +9451,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -9461,7 +9468,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -9478,7 +9485,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -9495,7 +9502,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -9512,7 +9519,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -9529,7 +9536,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -9546,7 +9553,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -9563,7 +9570,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -9580,7 +9587,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -9597,7 +9604,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -9614,7 +9621,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -9631,7 +9638,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -9648,7 +9655,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -9665,7 +9672,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -9682,7 +9689,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -9699,7 +9706,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -9716,7 +9723,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -9733,7 +9740,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -9750,7 +9757,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -9767,7 +9774,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -9784,7 +9791,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -9801,7 +9808,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -9818,7 +9825,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -9835,7 +9842,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -9852,7 +9859,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -9869,7 +9876,7 @@
       <c r="N87" s="5"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" s="10" t="s">
         <v>13</v>
       </c>
@@ -9894,7 +9901,7 @@
       <c r="N88" s="17"/>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -9913,7 +9920,7 @@
       <c r="N89" s="17"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -9930,7 +9937,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -9947,7 +9954,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -9964,7 +9971,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -9981,7 +9988,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -9998,7 +10005,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -10015,7 +10022,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -10032,7 +10039,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -10049,7 +10056,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -10066,7 +10073,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -10083,7 +10090,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -10100,7 +10107,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -10117,7 +10124,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -10134,7 +10141,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -10151,7 +10158,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -10168,7 +10175,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -10185,7 +10192,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -10202,7 +10209,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -10219,7 +10226,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -10236,7 +10243,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -10253,7 +10260,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -10270,7 +10277,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -10287,7 +10294,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -10304,7 +10311,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -10321,7 +10328,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -10338,7 +10345,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -10355,7 +10362,7 @@
       <c r="N115" s="2"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -10372,7 +10379,7 @@
       <c r="N116" s="5"/>
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A117" s="10" t="s">
         <v>13</v>
       </c>
@@ -10397,7 +10404,7 @@
       <c r="N117" s="17"/>
       <c r="O117" s="18"/>
     </row>
-    <row r="118" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
       <c r="C118" s="15"/>
@@ -10416,7 +10423,7 @@
       <c r="N118" s="17"/>
       <c r="O118" s="18"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -10433,7 +10440,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -10450,7 +10457,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -10467,7 +10474,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -10484,7 +10491,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -10501,7 +10508,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -10518,7 +10525,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -10535,7 +10542,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -10552,7 +10559,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -10569,7 +10576,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -10586,7 +10593,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -10603,7 +10610,7 @@
       <c r="N129" s="2"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -10620,7 +10627,7 @@
       <c r="N130" s="2"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -10637,7 +10644,7 @@
       <c r="N131" s="2"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -10654,7 +10661,7 @@
       <c r="N132" s="2"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -10671,7 +10678,7 @@
       <c r="N133" s="2"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -10688,7 +10695,7 @@
       <c r="N134" s="2"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -10705,7 +10712,7 @@
       <c r="N135" s="2"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -10722,7 +10729,7 @@
       <c r="N136" s="2"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -10739,7 +10746,7 @@
       <c r="N137" s="2"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -10756,7 +10763,7 @@
       <c r="N138" s="2"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -10773,7 +10780,7 @@
       <c r="N139" s="2"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -10790,7 +10797,7 @@
       <c r="N140" s="2"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -10807,7 +10814,7 @@
       <c r="N141" s="2"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -10824,7 +10831,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -10841,7 +10848,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -10858,7 +10865,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -10875,7 +10882,7 @@
       <c r="N145" s="5"/>
       <c r="O145" s="6"/>
     </row>
-    <row r="146" spans="1:15" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:15" ht="18.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A146" s="10" t="s">
         <v>13</v>
       </c>
@@ -10900,7 +10907,7 @@
       <c r="N146" s="17"/>
       <c r="O146" s="18"/>
     </row>
-    <row r="147" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
       <c r="C147" s="15"/>
@@ -10919,7 +10926,7 @@
       <c r="N147" s="17"/>
       <c r="O147" s="18"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -10936,7 +10943,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -10953,7 +10960,7 @@
       <c r="N149" s="2"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -10970,7 +10977,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -10987,7 +10994,7 @@
       <c r="N151" s="2"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -11004,7 +11011,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -11021,7 +11028,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -11038,7 +11045,7 @@
       <c r="N154" s="2"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -11055,7 +11062,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -11072,7 +11079,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -11089,7 +11096,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -11106,7 +11113,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -11123,7 +11130,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -11140,7 +11147,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -11157,7 +11164,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -11174,7 +11181,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -11191,7 +11198,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -11208,7 +11215,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -11225,7 +11232,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -11242,7 +11249,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -11259,7 +11266,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -11276,7 +11283,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -11293,7 +11300,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -11310,7 +11317,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -11327,7 +11334,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -11344,7 +11351,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -11361,7 +11368,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -11380,36 +11387,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A117:C118"/>
+    <mergeCell ref="D117:F118"/>
+    <mergeCell ref="G117:L118"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="A146:C147"/>
+    <mergeCell ref="D146:F147"/>
+    <mergeCell ref="G146:L147"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="A30:C31"/>
     <mergeCell ref="D30:F31"/>
     <mergeCell ref="G30:L31"/>
     <mergeCell ref="M30:O30"/>
     <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:F2"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A146:C147"/>
-    <mergeCell ref="D146:F147"/>
-    <mergeCell ref="G146:L147"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="A117:C118"/>
-    <mergeCell ref="D117:F118"/>
-    <mergeCell ref="G117:L118"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="M118:O118"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -11433,13 +11440,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="M89" sqref="M89:O89"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
@@ -11464,7 +11471,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -11483,7 +11490,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -11500,7 +11507,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -11517,7 +11524,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" ht="19.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -11534,7 +11541,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -11551,7 +11558,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -11568,7 +11575,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -11585,7 +11592,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -11602,7 +11609,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -11619,7 +11626,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -11636,7 +11643,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -11653,7 +11660,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -11670,7 +11677,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -11687,7 +11694,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -11704,7 +11711,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -11721,7 +11728,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -11738,7 +11745,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -11755,7 +11762,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -11772,7 +11779,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -11789,7 +11796,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -11806,7 +11813,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -11823,7 +11830,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -11840,7 +11847,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -11857,7 +11864,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -11874,7 +11881,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -11891,7 +11898,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -11908,7 +11915,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -11925,7 +11932,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -11942,14 +11949,14 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="10" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="10" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
@@ -11967,7 +11974,7 @@
       <c r="N30" s="17"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -11986,7 +11993,7 @@
       <c r="N31" s="17"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -12003,7 +12010,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -12020,7 +12027,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -12037,7 +12044,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -12054,7 +12061,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -12071,7 +12078,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -12088,7 +12095,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -12105,7 +12112,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -12122,7 +12129,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -12139,7 +12146,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -12156,7 +12163,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -12173,7 +12180,7 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -12190,7 +12197,7 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -12207,7 +12214,7 @@
       <c r="N44" s="2"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -12224,7 +12231,7 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -12241,7 +12248,7 @@
       <c r="N46" s="2"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -12258,7 +12265,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -12275,7 +12282,7 @@
       <c r="N48" s="2"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -12292,7 +12299,7 @@
       <c r="N49" s="2"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -12309,7 +12316,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -12326,7 +12333,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -12343,7 +12350,7 @@
       <c r="N52" s="2"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -12360,7 +12367,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -12377,7 +12384,7 @@
       <c r="N54" s="2"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -12394,7 +12401,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -12411,7 +12418,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -12428,7 +12435,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -12445,7 +12452,7 @@
       <c r="N58" s="5"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="10" t="s">
         <v>19</v>
       </c>
@@ -12470,7 +12477,7 @@
       <c r="N59" s="17"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
@@ -12489,7 +12496,7 @@
       <c r="N60" s="17"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -12506,7 +12513,7 @@
       <c r="N61" s="2"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -12523,7 +12530,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -12540,7 +12547,7 @@
       <c r="N63" s="2"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -12557,7 +12564,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -12574,7 +12581,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -12591,7 +12598,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -12608,7 +12615,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -12625,7 +12632,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -12642,7 +12649,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -12659,7 +12666,7 @@
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -12676,7 +12683,7 @@
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -12693,7 +12700,7 @@
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -12710,7 +12717,7 @@
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -12727,7 +12734,7 @@
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -12744,7 +12751,7 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -12761,7 +12768,7 @@
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -12778,7 +12785,7 @@
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -12795,7 +12802,7 @@
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -12812,7 +12819,7 @@
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -12829,7 +12836,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -12846,7 +12853,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -12863,7 +12870,7 @@
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -12880,7 +12887,7 @@
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -12897,7 +12904,7 @@
       <c r="N84" s="2"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -12914,7 +12921,7 @@
       <c r="N85" s="2"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -12931,7 +12938,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -12948,7 +12955,7 @@
       <c r="N87" s="5"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" s="10" t="s">
         <v>19</v>
       </c>
@@ -12973,7 +12980,7 @@
       <c r="N88" s="17"/>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -12992,7 +12999,7 @@
       <c r="N89" s="17"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -13009,7 +13016,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -13026,7 +13033,7 @@
       <c r="N91" s="2"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -13043,7 +13050,7 @@
       <c r="N92" s="2"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -13060,7 +13067,7 @@
       <c r="N93" s="2"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -13077,7 +13084,7 @@
       <c r="N94" s="2"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -13094,7 +13101,7 @@
       <c r="N95" s="2"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -13111,7 +13118,7 @@
       <c r="N96" s="2"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -13128,7 +13135,7 @@
       <c r="N97" s="2"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -13145,7 +13152,7 @@
       <c r="N98" s="2"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -13162,7 +13169,7 @@
       <c r="N99" s="2"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -13179,7 +13186,7 @@
       <c r="N100" s="2"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -13196,7 +13203,7 @@
       <c r="N101" s="2"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -13213,7 +13220,7 @@
       <c r="N102" s="2"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -13230,7 +13237,7 @@
       <c r="N103" s="2"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -13247,7 +13254,7 @@
       <c r="N104" s="2"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -13264,7 +13271,7 @@
       <c r="N105" s="2"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -13281,7 +13288,7 @@
       <c r="N106" s="2"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -13298,7 +13305,7 @@
       <c r="N107" s="2"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -13315,7 +13322,7 @@
       <c r="N108" s="2"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -13332,7 +13339,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -13349,7 +13356,7 @@
       <c r="N110" s="2"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -13366,7 +13373,7 @@
       <c r="N111" s="2"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -13383,7 +13390,7 @@
       <c r="N112" s="2"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -13400,7 +13407,7 @@
       <c r="N113" s="2"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -13417,7 +13424,7 @@
       <c r="N114" s="2"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -13436,26 +13443,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A88:C89"/>
+    <mergeCell ref="D88:F89"/>
+    <mergeCell ref="G88:L89"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
+    <mergeCell ref="G59:L60"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:L2"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="G59:L60"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A88:C89"/>
-    <mergeCell ref="D88:F89"/>
-    <mergeCell ref="G88:L89"/>
-    <mergeCell ref="M88:O88"/>
-    <mergeCell ref="M89:O89"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -13481,9 +13488,9 @@
       <selection activeCell="M2" sqref="M2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
@@ -13508,7 +13515,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -13527,7 +13534,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -13544,7 +13551,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -13561,7 +13568,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -13578,7 +13585,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -13595,7 +13602,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -13612,7 +13619,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -13629,7 +13636,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -13646,7 +13653,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -13663,7 +13670,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -13680,7 +13687,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -13697,7 +13704,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -13714,7 +13721,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -13731,7 +13738,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -13748,7 +13755,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -13765,7 +13772,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -13782,7 +13789,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -13799,7 +13806,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -13816,7 +13823,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -13833,7 +13840,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -13850,7 +13857,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -13867,7 +13874,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -13884,7 +13891,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -13901,7 +13908,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -13918,7 +13925,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -13935,7 +13942,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -13952,7 +13959,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -13969,7 +13976,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -14009,13 +14016,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>39</v>
       </c>
@@ -14038,7 +14045,7 @@
       <c r="N1" s="17"/>
       <c r="O1" s="18"/>
     </row>
-    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -14057,7 +14064,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -14074,7 +14081,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -14091,7 +14098,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -14108,7 +14115,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -14125,7 +14132,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -14142,7 +14149,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -14159,7 +14166,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -14178,7 +14185,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -14195,7 +14202,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -14212,7 +14219,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -14229,7 +14236,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -14246,7 +14253,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -14263,7 +14270,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -14280,7 +14287,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -14297,7 +14304,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -14314,7 +14321,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -14331,7 +14338,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -14348,7 +14355,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -14365,7 +14372,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -14382,7 +14389,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -14399,7 +14406,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -14416,7 +14423,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -14433,7 +14440,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -14450,7 +14457,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -14467,7 +14474,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -14484,7 +14491,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -14501,7 +14508,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
